--- a/src/data/raw/LTIM.NS_data.xlsx
+++ b/src/data/raw/LTIM.NS_data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>4207.85986328125</v>
+        <v>4207.86083984375</v>
       </c>
       <c r="C2" t="n">
-        <v>4222.904976720592</v>
+        <v>4222.905956774771</v>
       </c>
       <c r="D2" t="n">
-        <v>4178.350711214333</v>
+        <v>4178.351680928333</v>
       </c>
       <c r="E2" t="n">
-        <v>4193.202133049753</v>
+        <v>4193.203106210479</v>
       </c>
       <c r="F2" t="n">
         <v>191007</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>4138.974609375</v>
+        <v>4138.9736328125</v>
       </c>
       <c r="C3" t="n">
-        <v>4181.593390526138</v>
+        <v>4181.59240390803</v>
       </c>
       <c r="D3" t="n">
-        <v>4126.638812121597</v>
+        <v>4126.637838469643</v>
       </c>
       <c r="E3" t="n">
-        <v>4170.950741915359</v>
+        <v>4170.949757808311</v>
       </c>
       <c r="F3" t="n">
         <v>428917</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>4061.23388671875</v>
+        <v>4061.234130859375</v>
       </c>
       <c r="C5" t="n">
-        <v>4140.42494410852</v>
+        <v>4140.425193009707</v>
       </c>
       <c r="D5" t="n">
-        <v>4044.205558305323</v>
+        <v>4044.205801422292</v>
       </c>
       <c r="E5" t="n">
-        <v>4111.931488707566</v>
+        <v>4111.931735895871</v>
       </c>
       <c r="F5" t="n">
         <v>264197</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>4155.7119140625</v>
+        <v>4155.71142578125</v>
       </c>
       <c r="C6" t="n">
-        <v>4186.430464384713</v>
+        <v>4186.429972494143</v>
       </c>
       <c r="D6" t="n">
-        <v>4092.726697500784</v>
+        <v>4092.726216620071</v>
       </c>
       <c r="E6" t="n">
-        <v>4092.726697500784</v>
+        <v>4092.726216620071</v>
       </c>
       <c r="F6" t="n">
         <v>388187</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>4148.166015625</v>
+        <v>4148.16552734375</v>
       </c>
       <c r="C10" t="n">
-        <v>4153.971096724476</v>
+        <v>4153.970607759908</v>
       </c>
       <c r="D10" t="n">
-        <v>4011.794796495677</v>
+        <v>4011.794324266704</v>
       </c>
       <c r="E10" t="n">
-        <v>4135.055924024126</v>
+        <v>4135.055437286067</v>
       </c>
       <c r="F10" t="n">
         <v>437340</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>4138.0546875</v>
+        <v>4138.0537109375</v>
       </c>
       <c r="C11" t="n">
-        <v>4169.45068535438</v>
+        <v>4169.449701382563</v>
       </c>
       <c r="D11" t="n">
-        <v>4074.876253345232</v>
+        <v>4074.875291692561</v>
       </c>
       <c r="E11" t="n">
-        <v>4158.856224975158</v>
+        <v>4158.855243503587</v>
       </c>
       <c r="F11" t="n">
         <v>347903</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>4135.39404296875</v>
+        <v>4135.3935546875</v>
       </c>
       <c r="C12" t="n">
-        <v>4165.096892547808</v>
+        <v>4165.096400759433</v>
       </c>
       <c r="D12" t="n">
-        <v>4109.561246889574</v>
+        <v>4109.560761658498</v>
       </c>
       <c r="E12" t="n">
-        <v>4141.924758249803</v>
+        <v>4141.924269197447</v>
       </c>
       <c r="F12" t="n">
         <v>225154</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>4101.0478515625</v>
+        <v>4101.04736328125</v>
       </c>
       <c r="C14" t="n">
-        <v>4140.328994179165</v>
+        <v>4140.328501221003</v>
       </c>
       <c r="D14" t="n">
-        <v>4085.809513924727</v>
+        <v>4085.809027457793</v>
       </c>
       <c r="E14" t="n">
-        <v>4113.867405448245</v>
+        <v>4113.866915640667</v>
       </c>
       <c r="F14" t="n">
         <v>233112</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>4129.3955078125</v>
+        <v>4129.39501953125</v>
       </c>
       <c r="C15" t="n">
-        <v>4205.78088211303</v>
+        <v>4205.780384799575</v>
       </c>
       <c r="D15" t="n">
-        <v>4068.44216169492</v>
+        <v>4068.441680621111</v>
       </c>
       <c r="E15" t="n">
-        <v>4068.44216169492</v>
+        <v>4068.441680621111</v>
       </c>
       <c r="F15" t="n">
         <v>449630</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>4362.95263671875</v>
+        <v>4362.953125</v>
       </c>
       <c r="C17" t="n">
-        <v>4397.299355696712</v>
+        <v>4397.299847821886</v>
       </c>
       <c r="D17" t="n">
-        <v>4232.676604970307</v>
+        <v>4232.677078671673</v>
       </c>
       <c r="E17" t="n">
-        <v>4249.027956165087</v>
+        <v>4249.028431696419</v>
       </c>
       <c r="F17" t="n">
         <v>1009385</v>
@@ -5334,4906 +5334,6 @@
       </c>
       <c r="F245" t="n">
         <v>245328</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B246" t="n">
-        <v>6185.74365234375</v>
-      </c>
-      <c r="C246" t="n">
-        <v>6241.902347978704</v>
-      </c>
-      <c r="D246" t="n">
-        <v>6164.110093196774</v>
-      </c>
-      <c r="E246" t="n">
-        <v>6232.073165389752</v>
-      </c>
-      <c r="F246" t="n">
-        <v>166927</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B247" t="n">
-        <v>6069.27734375</v>
-      </c>
-      <c r="C247" t="n">
-        <v>6207.574679056804</v>
-      </c>
-      <c r="D247" t="n">
-        <v>6048.977463540311</v>
-      </c>
-      <c r="E247" t="n">
-        <v>6154.231421152751</v>
-      </c>
-      <c r="F247" t="n">
-        <v>475149</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B248" t="n">
-        <v>5888.552734375</v>
-      </c>
-      <c r="C248" t="n">
-        <v>6038.90190199562</v>
-      </c>
-      <c r="D248" t="n">
-        <v>5882.576506176571</v>
-      </c>
-      <c r="E248" t="n">
-        <v>6035.69142783188</v>
-      </c>
-      <c r="F248" t="n">
-        <v>421251</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B249" t="n">
-        <v>5795.0537109375</v>
-      </c>
-      <c r="C249" t="n">
-        <v>5946.785749451886</v>
-      </c>
-      <c r="D249" t="n">
-        <v>5780.532779327109</v>
-      </c>
-      <c r="E249" t="n">
-        <v>5890.478974083322</v>
-      </c>
-      <c r="F249" t="n">
-        <v>618173</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B250" t="n">
-        <v>5875.3154296875</v>
-      </c>
-      <c r="C250" t="n">
-        <v>5936.907234319096</v>
-      </c>
-      <c r="D250" t="n">
-        <v>5830.220714966939</v>
-      </c>
-      <c r="E250" t="n">
-        <v>5872.697755079372</v>
-      </c>
-      <c r="F250" t="n">
-        <v>429330</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B251" t="n">
-        <v>5774.5068359375</v>
-      </c>
-      <c r="C251" t="n">
-        <v>5915.174893242773</v>
-      </c>
-      <c r="D251" t="n">
-        <v>5764.084853959359</v>
-      </c>
-      <c r="E251" t="n">
-        <v>5915.174893242773</v>
-      </c>
-      <c r="F251" t="n">
-        <v>193870</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B252" t="n">
-        <v>5837.53076171875</v>
-      </c>
-      <c r="C252" t="n">
-        <v>5885.440912769971</v>
-      </c>
-      <c r="D252" t="n">
-        <v>5803.549225276764</v>
-      </c>
-      <c r="E252" t="n">
-        <v>5843.062751916947</v>
-      </c>
-      <c r="F252" t="n">
-        <v>351316</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B253" t="n">
-        <v>5875.16748046875</v>
-      </c>
-      <c r="C253" t="n">
-        <v>5885.045862108883</v>
-      </c>
-      <c r="D253" t="n">
-        <v>5813.427595217922</v>
-      </c>
-      <c r="E253" t="n">
-        <v>5843.06274013832</v>
-      </c>
-      <c r="F253" t="n">
-        <v>259576</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>45302</v>
-      </c>
-      <c r="B254" t="n">
-        <v>5887.4658203125</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5925.941824531131</v>
-      </c>
-      <c r="D254" t="n">
-        <v>5841.135827994583</v>
-      </c>
-      <c r="E254" t="n">
-        <v>5905.641944708827</v>
-      </c>
-      <c r="F254" t="n">
-        <v>232299</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>45303</v>
-      </c>
-      <c r="B255" t="n">
-        <v>6161.19580078125</v>
-      </c>
-      <c r="C255" t="n">
-        <v>6169.049307087702</v>
-      </c>
-      <c r="D255" t="n">
-        <v>5941.846530365497</v>
-      </c>
-      <c r="E255" t="n">
-        <v>5952.317711326482</v>
-      </c>
-      <c r="F255" t="n">
-        <v>899942</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="B256" t="n">
-        <v>6161.19580078125</v>
-      </c>
-      <c r="C256" t="n">
-        <v>6161.19580078125</v>
-      </c>
-      <c r="D256" t="n">
-        <v>6161.19580078125</v>
-      </c>
-      <c r="E256" t="n">
-        <v>6161.19580078125</v>
-      </c>
-      <c r="F256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>45307</v>
-      </c>
-      <c r="B257" t="n">
-        <v>6160.0595703125</v>
-      </c>
-      <c r="C257" t="n">
-        <v>6223.330890629103</v>
-      </c>
-      <c r="D257" t="n">
-        <v>6118.570369715184</v>
-      </c>
-      <c r="E257" t="n">
-        <v>6213.501708502847</v>
-      </c>
-      <c r="F257" t="n">
-        <v>255823</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>45308</v>
-      </c>
-      <c r="B258" t="n">
-        <v>6199.27734375</v>
-      </c>
-      <c r="C258" t="n">
-        <v>6247.088614922518</v>
-      </c>
-      <c r="D258" t="n">
-        <v>6075.204772576452</v>
-      </c>
-      <c r="E258" t="n">
-        <v>6119.657490424573</v>
-      </c>
-      <c r="F258" t="n">
-        <v>472635</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>45309</v>
-      </c>
-      <c r="B259" t="n">
-        <v>5534.85693359375</v>
-      </c>
-      <c r="C259" t="n">
-        <v>5719.582660272677</v>
-      </c>
-      <c r="D259" t="n">
-        <v>5345.932894944847</v>
-      </c>
-      <c r="E259" t="n">
-        <v>5630.677230320252</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2798324</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>45310</v>
-      </c>
-      <c r="B260" t="n">
-        <v>5583.4091796875</v>
-      </c>
-      <c r="C260" t="n">
-        <v>5627.911576767419</v>
-      </c>
-      <c r="D260" t="n">
-        <v>5514.112431464693</v>
-      </c>
-      <c r="E260" t="n">
-        <v>5619.811111179262</v>
-      </c>
-      <c r="F260" t="n">
-        <v>974885</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>45314</v>
-      </c>
-      <c r="B261" t="n">
-        <v>5569.92578125</v>
-      </c>
-      <c r="C261" t="n">
-        <v>5654.385948723065</v>
-      </c>
-      <c r="D261" t="n">
-        <v>5512.137245610535</v>
-      </c>
-      <c r="E261" t="n">
-        <v>5561.529156413497</v>
-      </c>
-      <c r="F261" t="n">
-        <v>754748</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>45315</v>
-      </c>
-      <c r="B262" t="n">
-        <v>5551.2060546875</v>
-      </c>
-      <c r="C262" t="n">
-        <v>5649.34787793162</v>
-      </c>
-      <c r="D262" t="n">
-        <v>5529.96753304005</v>
-      </c>
-      <c r="E262" t="n">
-        <v>5581.63176115097</v>
-      </c>
-      <c r="F262" t="n">
-        <v>729576</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>45316</v>
-      </c>
-      <c r="B263" t="n">
-        <v>5427.82470703125</v>
-      </c>
-      <c r="C263" t="n">
-        <v>5581.285457631328</v>
-      </c>
-      <c r="D263" t="n">
-        <v>5390.92885625427</v>
-      </c>
-      <c r="E263" t="n">
-        <v>5581.285457631328</v>
-      </c>
-      <c r="F263" t="n">
-        <v>911916</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B264" t="n">
-        <v>5382.087890625</v>
-      </c>
-      <c r="C264" t="n">
-        <v>5447.038246689825</v>
-      </c>
-      <c r="D264" t="n">
-        <v>5334.325821293555</v>
-      </c>
-      <c r="E264" t="n">
-        <v>5430.146118453828</v>
-      </c>
-      <c r="F264" t="n">
-        <v>772171</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B265" t="n">
-        <v>5287.7001953125</v>
-      </c>
-      <c r="C265" t="n">
-        <v>5457.5099700562</v>
-      </c>
-      <c r="D265" t="n">
-        <v>5280.044449159283</v>
-      </c>
-      <c r="E265" t="n">
-        <v>5428.170982183498</v>
-      </c>
-      <c r="F265" t="n">
-        <v>830778</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B266" t="n">
-        <v>5382.28564453125</v>
-      </c>
-      <c r="C266" t="n">
-        <v>5399.968334227791</v>
-      </c>
-      <c r="D266" t="n">
-        <v>5245.717013054985</v>
-      </c>
-      <c r="E266" t="n">
-        <v>5285.922220828184</v>
-      </c>
-      <c r="F266" t="n">
-        <v>536486</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B267" t="n">
-        <v>5299.40576171875</v>
-      </c>
-      <c r="C267" t="n">
-        <v>5367.912432943414</v>
-      </c>
-      <c r="D267" t="n">
-        <v>5277.031324398918</v>
-      </c>
-      <c r="E267" t="n">
-        <v>5363.961080398001</v>
-      </c>
-      <c r="F267" t="n">
-        <v>495519</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B268" t="n">
-        <v>5419.1318359375</v>
-      </c>
-      <c r="C268" t="n">
-        <v>5473.611011675011</v>
-      </c>
-      <c r="D268" t="n">
-        <v>5309.679083060661</v>
-      </c>
-      <c r="E268" t="n">
-        <v>5309.679083060661</v>
-      </c>
-      <c r="F268" t="n">
-        <v>593677</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B269" t="n">
-        <v>5372.30859375</v>
-      </c>
-      <c r="C269" t="n">
-        <v>5472.623365205757</v>
-      </c>
-      <c r="D269" t="n">
-        <v>5359.663975991469</v>
-      </c>
-      <c r="E269" t="n">
-        <v>5472.623365205757</v>
-      </c>
-      <c r="F269" t="n">
-        <v>301000</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B270" t="n">
-        <v>5403.7705078125</v>
-      </c>
-      <c r="C270" t="n">
-        <v>5439.876279387797</v>
-      </c>
-      <c r="D270" t="n">
-        <v>5325.780980055661</v>
-      </c>
-      <c r="E270" t="n">
-        <v>5364.454744789289</v>
-      </c>
-      <c r="F270" t="n">
-        <v>836565</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B271" t="n">
-        <v>5381.64306640625</v>
-      </c>
-      <c r="C271" t="n">
-        <v>5451.829252528522</v>
-      </c>
-      <c r="D271" t="n">
-        <v>5372.851403820943</v>
-      </c>
-      <c r="E271" t="n">
-        <v>5433.109527673319</v>
-      </c>
-      <c r="F271" t="n">
-        <v>354265</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B272" t="n">
-        <v>5354.87255859375</v>
-      </c>
-      <c r="C272" t="n">
-        <v>5423.231147783449</v>
-      </c>
-      <c r="D272" t="n">
-        <v>5335.412437505574</v>
-      </c>
-      <c r="E272" t="n">
-        <v>5389.595453547166</v>
-      </c>
-      <c r="F272" t="n">
-        <v>380430</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B273" t="n">
-        <v>5386.9775390625</v>
-      </c>
-      <c r="C273" t="n">
-        <v>5403.474628947245</v>
-      </c>
-      <c r="D273" t="n">
-        <v>5296.788109765106</v>
-      </c>
-      <c r="E273" t="n">
-        <v>5403.474628947245</v>
-      </c>
-      <c r="F273" t="n">
-        <v>196922</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B274" t="n">
-        <v>5449.4091796875</v>
-      </c>
-      <c r="C274" t="n">
-        <v>5480.526081556467</v>
-      </c>
-      <c r="D274" t="n">
-        <v>5398.09079462043</v>
-      </c>
-      <c r="E274" t="n">
-        <v>5403.425506529388</v>
-      </c>
-      <c r="F274" t="n">
-        <v>421078</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="B275" t="n">
-        <v>5489.56494140625</v>
-      </c>
-      <c r="C275" t="n">
-        <v>5507.197949695824</v>
-      </c>
-      <c r="D275" t="n">
-        <v>5402.684861363407</v>
-      </c>
-      <c r="E275" t="n">
-        <v>5448.866297085072</v>
-      </c>
-      <c r="F275" t="n">
-        <v>256808</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B276" t="n">
-        <v>5438.19677734375</v>
-      </c>
-      <c r="C276" t="n">
-        <v>5449.902755206041</v>
-      </c>
-      <c r="D276" t="n">
-        <v>5338.919049067837</v>
-      </c>
-      <c r="E276" t="n">
-        <v>5413.30354682354</v>
-      </c>
-      <c r="F276" t="n">
-        <v>332342</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>45337</v>
-      </c>
-      <c r="B277" t="n">
-        <v>5455.138671875</v>
-      </c>
-      <c r="C277" t="n">
-        <v>5522.015510620558</v>
-      </c>
-      <c r="D277" t="n">
-        <v>5444.025492180102</v>
-      </c>
-      <c r="E277" t="n">
-        <v>5507.741055764185</v>
-      </c>
-      <c r="F277" t="n">
-        <v>226420</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>45338</v>
-      </c>
-      <c r="B278" t="n">
-        <v>5512.53173828125</v>
-      </c>
-      <c r="C278" t="n">
-        <v>5526.905072306619</v>
-      </c>
-      <c r="D278" t="n">
-        <v>5428.516299266287</v>
-      </c>
-      <c r="E278" t="n">
-        <v>5499.294803966064</v>
-      </c>
-      <c r="F278" t="n">
-        <v>319063</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>45341</v>
-      </c>
-      <c r="B279" t="n">
-        <v>5446.98876953125</v>
-      </c>
-      <c r="C279" t="n">
-        <v>5521.027431966672</v>
-      </c>
-      <c r="D279" t="n">
-        <v>5442.889337668694</v>
-      </c>
-      <c r="E279" t="n">
-        <v>5498.307154468866</v>
-      </c>
-      <c r="F279" t="n">
-        <v>156372</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B280" t="n">
-        <v>5437.4072265625</v>
-      </c>
-      <c r="C280" t="n">
-        <v>5522.015470895756</v>
-      </c>
-      <c r="D280" t="n">
-        <v>5414.785828525973</v>
-      </c>
-      <c r="E280" t="n">
-        <v>5461.658461140648</v>
-      </c>
-      <c r="F280" t="n">
-        <v>413919</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="B281" t="n">
-        <v>5354.181640625</v>
-      </c>
-      <c r="C281" t="n">
-        <v>5449.014102800793</v>
-      </c>
-      <c r="D281" t="n">
-        <v>5341.339744705361</v>
-      </c>
-      <c r="E281" t="n">
-        <v>5433.109812154826</v>
-      </c>
-      <c r="F281" t="n">
-        <v>567794</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B282" t="n">
-        <v>5420.02099609375</v>
-      </c>
-      <c r="C282" t="n">
-        <v>5439.333039083823</v>
-      </c>
-      <c r="D282" t="n">
-        <v>5340.302264060649</v>
-      </c>
-      <c r="E282" t="n">
-        <v>5431.134175335752</v>
-      </c>
-      <c r="F282" t="n">
-        <v>536659</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B283" t="n">
-        <v>5475.24072265625</v>
-      </c>
-      <c r="C283" t="n">
-        <v>5487.588698847974</v>
-      </c>
-      <c r="D283" t="n">
-        <v>5442.98790531203</v>
-      </c>
-      <c r="E283" t="n">
-        <v>5478.550076744196</v>
-      </c>
-      <c r="F283" t="n">
-        <v>310531</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>45348</v>
-      </c>
-      <c r="B284" t="n">
-        <v>5399.67138671875</v>
-      </c>
-      <c r="C284" t="n">
-        <v>5470.548773713012</v>
-      </c>
-      <c r="D284" t="n">
-        <v>5377.840067217801</v>
-      </c>
-      <c r="E284" t="n">
-        <v>5470.548773713012</v>
-      </c>
-      <c r="F284" t="n">
-        <v>227438</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B285" t="n">
-        <v>5376.5068359375</v>
-      </c>
-      <c r="C285" t="n">
-        <v>5441.111353805974</v>
-      </c>
-      <c r="D285" t="n">
-        <v>5335.31379257445</v>
-      </c>
-      <c r="E285" t="n">
-        <v>5398.535433515899</v>
-      </c>
-      <c r="F285" t="n">
-        <v>321866</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B286" t="n">
-        <v>5344.1552734375</v>
-      </c>
-      <c r="C286" t="n">
-        <v>5399.523409646107</v>
-      </c>
-      <c r="D286" t="n">
-        <v>5314.569327459944</v>
-      </c>
-      <c r="E286" t="n">
-        <v>5382.730160841866</v>
-      </c>
-      <c r="F286" t="n">
-        <v>263858</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B287" t="n">
-        <v>5236.3818359375</v>
-      </c>
-      <c r="C287" t="n">
-        <v>5363.911834698236</v>
-      </c>
-      <c r="D287" t="n">
-        <v>5202.943418844689</v>
-      </c>
-      <c r="E287" t="n">
-        <v>5346.179947368038</v>
-      </c>
-      <c r="F287" t="n">
-        <v>513879</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B288" t="n">
-        <v>5209.41357421875</v>
-      </c>
-      <c r="C288" t="n">
-        <v>5283.403035983069</v>
-      </c>
-      <c r="D288" t="n">
-        <v>5193.065046114759</v>
-      </c>
-      <c r="E288" t="n">
-        <v>5250.359657618403</v>
-      </c>
-      <c r="F288" t="n">
-        <v>565313</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>45355</v>
-      </c>
-      <c r="B289" t="n">
-        <v>5153.4033203125</v>
-      </c>
-      <c r="C289" t="n">
-        <v>5255.150645241513</v>
-      </c>
-      <c r="D289" t="n">
-        <v>5146.191812732224</v>
-      </c>
-      <c r="E289" t="n">
-        <v>5235.541962366726</v>
-      </c>
-      <c r="F289" t="n">
-        <v>456225</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B290" t="n">
-        <v>5069.14111328125</v>
-      </c>
-      <c r="C290" t="n">
-        <v>5155.972480207407</v>
-      </c>
-      <c r="D290" t="n">
-        <v>5052.792583392375</v>
-      </c>
-      <c r="E290" t="n">
-        <v>5146.489136661495</v>
-      </c>
-      <c r="F290" t="n">
-        <v>549757</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B291" t="n">
-        <v>5101.39404296875</v>
-      </c>
-      <c r="C291" t="n">
-        <v>5116.359694695056</v>
-      </c>
-      <c r="D291" t="n">
-        <v>5011.549968954118</v>
-      </c>
-      <c r="E291" t="n">
-        <v>5087.317349122084</v>
-      </c>
-      <c r="F291" t="n">
-        <v>608117</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B292" t="n">
-        <v>5060.3984375</v>
-      </c>
-      <c r="C292" t="n">
-        <v>5138.684607074953</v>
-      </c>
-      <c r="D292" t="n">
-        <v>5045.877024465057</v>
-      </c>
-      <c r="E292" t="n">
-        <v>5115.865450452679</v>
-      </c>
-      <c r="F292" t="n">
-        <v>461048</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B293" t="n">
-        <v>5060.69482421875</v>
-      </c>
-      <c r="C293" t="n">
-        <v>5070.573205683163</v>
-      </c>
-      <c r="D293" t="n">
-        <v>4995.497506553625</v>
-      </c>
-      <c r="E293" t="n">
-        <v>5055.755633486544</v>
-      </c>
-      <c r="F293" t="n">
-        <v>343534</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B294" t="n">
-        <v>5145.8466796875</v>
-      </c>
-      <c r="C294" t="n">
-        <v>5155.774260149701</v>
-      </c>
-      <c r="D294" t="n">
-        <v>5060.694838290352</v>
-      </c>
-      <c r="E294" t="n">
-        <v>5080.451601274112</v>
-      </c>
-      <c r="F294" t="n">
-        <v>493480</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B295" t="n">
-        <v>5131.81884765625</v>
-      </c>
-      <c r="C295" t="n">
-        <v>5211.043654949878</v>
-      </c>
-      <c r="D295" t="n">
-        <v>5097.392593951726</v>
-      </c>
-      <c r="E295" t="n">
-        <v>5168.121897252278</v>
-      </c>
-      <c r="F295" t="n">
-        <v>617665</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B296" t="n">
-        <v>5200.177734375</v>
-      </c>
-      <c r="C296" t="n">
-        <v>5208.030758189619</v>
-      </c>
-      <c r="D296" t="n">
-        <v>5050.618653965243</v>
-      </c>
-      <c r="E296" t="n">
-        <v>5121.891561706987</v>
-      </c>
-      <c r="F296" t="n">
-        <v>414994</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B297" t="n">
-        <v>5131.17724609375</v>
-      </c>
-      <c r="C297" t="n">
-        <v>5186.101144292885</v>
-      </c>
-      <c r="D297" t="n">
-        <v>5107.123290414042</v>
-      </c>
-      <c r="E297" t="n">
-        <v>5184.223865913423</v>
-      </c>
-      <c r="F297" t="n">
-        <v>571117</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>45369</v>
-      </c>
-      <c r="B298" t="n">
-        <v>5104.6044921875</v>
-      </c>
-      <c r="C298" t="n">
-        <v>5156.465995580981</v>
-      </c>
-      <c r="D298" t="n">
-        <v>5087.366523360526</v>
-      </c>
-      <c r="E298" t="n">
-        <v>5136.758431354318</v>
-      </c>
-      <c r="F298" t="n">
-        <v>189164</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B299" t="n">
-        <v>5043.60546875</v>
-      </c>
-      <c r="C299" t="n">
-        <v>5115.124854814452</v>
-      </c>
-      <c r="D299" t="n">
-        <v>5014.464243132263</v>
-      </c>
-      <c r="E299" t="n">
-        <v>5104.159754808361</v>
-      </c>
-      <c r="F299" t="n">
-        <v>487996</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B300" t="n">
-        <v>5039.01171875</v>
-      </c>
-      <c r="C300" t="n">
-        <v>5095.91129397553</v>
-      </c>
-      <c r="D300" t="n">
-        <v>5009.179295335227</v>
-      </c>
-      <c r="E300" t="n">
-        <v>5052.891134484452</v>
-      </c>
-      <c r="F300" t="n">
-        <v>229758</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B301" t="n">
-        <v>5097.14599609375</v>
-      </c>
-      <c r="C301" t="n">
-        <v>5129.843535470867</v>
-      </c>
-      <c r="D301" t="n">
-        <v>5067.905890256811</v>
-      </c>
-      <c r="E301" t="n">
-        <v>5097.244876377754</v>
-      </c>
-      <c r="F301" t="n">
-        <v>374029</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B302" t="n">
-        <v>4944.1298828125</v>
-      </c>
-      <c r="C302" t="n">
-        <v>5016.242066917458</v>
-      </c>
-      <c r="D302" t="n">
-        <v>4884.90879347684</v>
-      </c>
-      <c r="E302" t="n">
-        <v>4983.594209379678</v>
-      </c>
-      <c r="F302" t="n">
-        <v>846359</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B303" t="n">
-        <v>4914.6923828125</v>
-      </c>
-      <c r="C303" t="n">
-        <v>4983.98913011298</v>
-      </c>
-      <c r="D303" t="n">
-        <v>4903.628402987081</v>
-      </c>
-      <c r="E303" t="n">
-        <v>4944.129765703131</v>
-      </c>
-      <c r="F303" t="n">
-        <v>388110</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B304" t="n">
-        <v>4867.572265625</v>
-      </c>
-      <c r="C304" t="n">
-        <v>4942.055162322975</v>
-      </c>
-      <c r="D304" t="n">
-        <v>4855.224289304288</v>
-      </c>
-      <c r="E304" t="n">
-        <v>4919.433766171994</v>
-      </c>
-      <c r="F304" t="n">
-        <v>517721</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B305" t="n">
-        <v>4878.33984375</v>
-      </c>
-      <c r="C305" t="n">
-        <v>4906.987150218965</v>
-      </c>
-      <c r="D305" t="n">
-        <v>4848.358859304427</v>
-      </c>
-      <c r="E305" t="n">
-        <v>4875.919929678159</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1169945</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B306" t="n">
-        <v>4823.21826171875</v>
-      </c>
-      <c r="C306" t="n">
-        <v>4919.186633843572</v>
-      </c>
-      <c r="D306" t="n">
-        <v>4806.918933547974</v>
-      </c>
-      <c r="E306" t="n">
-        <v>4894.737641587409</v>
-      </c>
-      <c r="F306" t="n">
-        <v>626289</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B307" t="n">
-        <v>4841.14794921875</v>
-      </c>
-      <c r="C307" t="n">
-        <v>4858.138958811827</v>
-      </c>
-      <c r="D307" t="n">
-        <v>4807.462570891614</v>
-      </c>
-      <c r="E307" t="n">
-        <v>4822.527103101089</v>
-      </c>
-      <c r="F307" t="n">
-        <v>454393</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B308" t="n">
-        <v>4810.080078125</v>
-      </c>
-      <c r="C308" t="n">
-        <v>4873.005560788927</v>
-      </c>
-      <c r="D308" t="n">
-        <v>4804.893927872792</v>
-      </c>
-      <c r="E308" t="n">
-        <v>4841.147780668221</v>
-      </c>
-      <c r="F308" t="n">
-        <v>545022</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>45386</v>
-      </c>
-      <c r="B309" t="n">
-        <v>4875.17919921875</v>
-      </c>
-      <c r="C309" t="n">
-        <v>4907.234258887809</v>
-      </c>
-      <c r="D309" t="n">
-        <v>4806.919484227309</v>
-      </c>
-      <c r="E309" t="n">
-        <v>4842.333579596675</v>
-      </c>
-      <c r="F309" t="n">
-        <v>791246</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B310" t="n">
-        <v>4867.572265625</v>
-      </c>
-      <c r="C310" t="n">
-        <v>4884.859432473998</v>
-      </c>
-      <c r="D310" t="n">
-        <v>4833.491850979833</v>
-      </c>
-      <c r="E310" t="n">
-        <v>4884.859432473998</v>
-      </c>
-      <c r="F310" t="n">
-        <v>340663</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>45390</v>
-      </c>
-      <c r="B311" t="n">
-        <v>4837.83837890625</v>
-      </c>
-      <c r="C311" t="n">
-        <v>4895.725790002368</v>
-      </c>
-      <c r="D311" t="n">
-        <v>4823.613606251324</v>
-      </c>
-      <c r="E311" t="n">
-        <v>4879.920379865152</v>
-      </c>
-      <c r="F311" t="n">
-        <v>376850</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B312" t="n">
-        <v>4833.146484375</v>
-      </c>
-      <c r="C312" t="n">
-        <v>4912.618260693111</v>
-      </c>
-      <c r="D312" t="n">
-        <v>4820.650427583547</v>
-      </c>
-      <c r="E312" t="n">
-        <v>4875.969366916474</v>
-      </c>
-      <c r="F312" t="n">
-        <v>330892</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B313" t="n">
-        <v>4858.53369140625</v>
-      </c>
-      <c r="C313" t="n">
-        <v>4867.127593604639</v>
-      </c>
-      <c r="D313" t="n">
-        <v>4816.056652443524</v>
-      </c>
-      <c r="E313" t="n">
-        <v>4858.928730183849</v>
-      </c>
-      <c r="F313" t="n">
-        <v>271550</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B314" t="n">
-        <v>4829.44189453125</v>
-      </c>
-      <c r="C314" t="n">
-        <v>4892.762417194484</v>
-      </c>
-      <c r="D314" t="n">
-        <v>4820.699430327535</v>
-      </c>
-      <c r="E314" t="n">
-        <v>4856.212405194444</v>
-      </c>
-      <c r="F314" t="n">
-        <v>218620</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>45397</v>
-      </c>
-      <c r="B315" t="n">
-        <v>4756.5888671875</v>
-      </c>
-      <c r="C315" t="n">
-        <v>4831.961208954399</v>
-      </c>
-      <c r="D315" t="n">
-        <v>4741.919373896339</v>
-      </c>
-      <c r="E315" t="n">
-        <v>4795.954314725445</v>
-      </c>
-      <c r="F315" t="n">
-        <v>335329</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>45398</v>
-      </c>
-      <c r="B316" t="n">
-        <v>4606.14111328125</v>
-      </c>
-      <c r="C316" t="n">
-        <v>4728.731921479008</v>
-      </c>
-      <c r="D316" t="n">
-        <v>4593.49649583257</v>
-      </c>
-      <c r="E316" t="n">
-        <v>4728.731921479008</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1337626</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>45400</v>
-      </c>
-      <c r="B317" t="n">
-        <v>4640.02392578125</v>
-      </c>
-      <c r="C317" t="n">
-        <v>4698.998056984854</v>
-      </c>
-      <c r="D317" t="n">
-        <v>4620.119083287187</v>
-      </c>
-      <c r="E317" t="n">
-        <v>4665.46075845062</v>
-      </c>
-      <c r="F317" t="n">
-        <v>638832</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="B318" t="n">
-        <v>4603.869140625</v>
-      </c>
-      <c r="C318" t="n">
-        <v>4615.772880368007</v>
-      </c>
-      <c r="D318" t="n">
-        <v>4540.450217445366</v>
-      </c>
-      <c r="E318" t="n">
-        <v>4593.447640528262</v>
-      </c>
-      <c r="F318" t="n">
-        <v>375613</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>45404</v>
-      </c>
-      <c r="B319" t="n">
-        <v>4619.32861328125</v>
-      </c>
-      <c r="C319" t="n">
-        <v>4642.838966600528</v>
-      </c>
-      <c r="D319" t="n">
-        <v>4576.65381537452</v>
-      </c>
-      <c r="E319" t="n">
-        <v>4641.851128522528</v>
-      </c>
-      <c r="F319" t="n">
-        <v>270101</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>45405</v>
-      </c>
-      <c r="B320" t="n">
-        <v>4665.95458984375</v>
-      </c>
-      <c r="C320" t="n">
-        <v>4683.636796141195</v>
-      </c>
-      <c r="D320" t="n">
-        <v>4623.181391173714</v>
-      </c>
-      <c r="E320" t="n">
-        <v>4623.181391173714</v>
-      </c>
-      <c r="F320" t="n">
-        <v>298146</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>45406</v>
-      </c>
-      <c r="B321" t="n">
-        <v>4669.31298828125</v>
-      </c>
-      <c r="C321" t="n">
-        <v>4696.42933735455</v>
-      </c>
-      <c r="D321" t="n">
-        <v>4652.322462184502</v>
-      </c>
-      <c r="E321" t="n">
-        <v>4682.401843246796</v>
-      </c>
-      <c r="F321" t="n">
-        <v>489912</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>45407</v>
-      </c>
-      <c r="B322" t="n">
-        <v>4578.33349609375</v>
-      </c>
-      <c r="C322" t="n">
-        <v>4630.738115060833</v>
-      </c>
-      <c r="D322" t="n">
-        <v>4535.658696667231</v>
-      </c>
-      <c r="E322" t="n">
-        <v>4603.276408451552</v>
-      </c>
-      <c r="F322" t="n">
-        <v>1495381</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>45408</v>
-      </c>
-      <c r="B323" t="n">
-        <v>4729.818359375</v>
-      </c>
-      <c r="C323" t="n">
-        <v>4764.886614428118</v>
-      </c>
-      <c r="D323" t="n">
-        <v>4583.272952654073</v>
-      </c>
-      <c r="E323" t="n">
-        <v>4584.063030253339</v>
-      </c>
-      <c r="F323" t="n">
-        <v>757962</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>45411</v>
-      </c>
-      <c r="B324" t="n">
-        <v>4686.2548828125</v>
-      </c>
-      <c r="C324" t="n">
-        <v>4751.452199295974</v>
-      </c>
-      <c r="D324" t="n">
-        <v>4657.854536617047</v>
-      </c>
-      <c r="E324" t="n">
-        <v>4742.70973538985</v>
-      </c>
-      <c r="F324" t="n">
-        <v>338991</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B325" t="n">
-        <v>4649.1611328125</v>
-      </c>
-      <c r="C325" t="n">
-        <v>4720.483236499691</v>
-      </c>
-      <c r="D325" t="n">
-        <v>4642.789866479441</v>
-      </c>
-      <c r="E325" t="n">
-        <v>4692.23097039883</v>
-      </c>
-      <c r="F325" t="n">
-        <v>362707</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>45414</v>
-      </c>
-      <c r="B326" t="n">
-        <v>4635.6279296875</v>
-      </c>
-      <c r="C326" t="n">
-        <v>4690.699902394861</v>
-      </c>
-      <c r="D326" t="n">
-        <v>4618.686120818969</v>
-      </c>
-      <c r="E326" t="n">
-        <v>4657.607326866671</v>
-      </c>
-      <c r="F326" t="n">
-        <v>423233</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>45415</v>
-      </c>
-      <c r="B327" t="n">
-        <v>4595.3740234375</v>
-      </c>
-      <c r="C327" t="n">
-        <v>4666.300611964026</v>
-      </c>
-      <c r="D327" t="n">
-        <v>4584.112282289034</v>
-      </c>
-      <c r="E327" t="n">
-        <v>4647.827845024504</v>
-      </c>
-      <c r="F327" t="n">
-        <v>399976</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>45418</v>
-      </c>
-      <c r="B328" t="n">
-        <v>4646.7412109375</v>
-      </c>
-      <c r="C328" t="n">
-        <v>4681.364743312272</v>
-      </c>
-      <c r="D328" t="n">
-        <v>4603.325533622112</v>
-      </c>
-      <c r="E328" t="n">
-        <v>4618.143105082268</v>
-      </c>
-      <c r="F328" t="n">
-        <v>232694</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>45419</v>
-      </c>
-      <c r="B329" t="n">
-        <v>4642.24609375</v>
-      </c>
-      <c r="C329" t="n">
-        <v>4671.48619686419</v>
-      </c>
-      <c r="D329" t="n">
-        <v>4595.42266606306</v>
-      </c>
-      <c r="E329" t="n">
-        <v>4652.766472645491</v>
-      </c>
-      <c r="F329" t="n">
-        <v>283096</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>45420</v>
-      </c>
-      <c r="B330" t="n">
-        <v>4656.4716796875</v>
-      </c>
-      <c r="C330" t="n">
-        <v>4671.338934531521</v>
-      </c>
-      <c r="D330" t="n">
-        <v>4618.78574748693</v>
-      </c>
-      <c r="E330" t="n">
-        <v>4667.535660857799</v>
-      </c>
-      <c r="F330" t="n">
-        <v>249942</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B331" t="n">
-        <v>4601.35009765625</v>
-      </c>
-      <c r="C331" t="n">
-        <v>4670.202609572916</v>
-      </c>
-      <c r="D331" t="n">
-        <v>4571.270233084583</v>
-      </c>
-      <c r="E331" t="n">
-        <v>4659.632548442364</v>
-      </c>
-      <c r="F331" t="n">
-        <v>576158</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>45422</v>
-      </c>
-      <c r="B332" t="n">
-        <v>4551.6123046875</v>
-      </c>
-      <c r="C332" t="n">
-        <v>4593.398147372838</v>
-      </c>
-      <c r="D332" t="n">
-        <v>4510.073903879753</v>
-      </c>
-      <c r="E332" t="n">
-        <v>4593.398147372838</v>
-      </c>
-      <c r="F332" t="n">
-        <v>315816</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>45425</v>
-      </c>
-      <c r="B333" t="n">
-        <v>4537.68408203125</v>
-      </c>
-      <c r="C333" t="n">
-        <v>4572.604259726793</v>
-      </c>
-      <c r="D333" t="n">
-        <v>4509.975412778405</v>
-      </c>
-      <c r="E333" t="n">
-        <v>4551.760776726704</v>
-      </c>
-      <c r="F333" t="n">
-        <v>242264</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B334" t="n">
-        <v>4578.4814453125</v>
-      </c>
-      <c r="C334" t="n">
-        <v>4613.253056503228</v>
-      </c>
-      <c r="D334" t="n">
-        <v>4534.127611758928</v>
-      </c>
-      <c r="E334" t="n">
-        <v>4543.907112333108</v>
-      </c>
-      <c r="F334" t="n">
-        <v>156781</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B335" t="n">
-        <v>4592.755859375</v>
-      </c>
-      <c r="C335" t="n">
-        <v>4619.082132757972</v>
-      </c>
-      <c r="D335" t="n">
-        <v>4576.654289970999</v>
-      </c>
-      <c r="E335" t="n">
-        <v>4592.410501886136</v>
-      </c>
-      <c r="F335" t="n">
-        <v>246664</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>45428</v>
-      </c>
-      <c r="B336" t="n">
-        <v>4713.173828125</v>
-      </c>
-      <c r="C336" t="n">
-        <v>4727.694760306563</v>
-      </c>
-      <c r="D336" t="n">
-        <v>4609.203857236434</v>
-      </c>
-      <c r="E336" t="n">
-        <v>4609.203857236434</v>
-      </c>
-      <c r="F336" t="n">
-        <v>612681</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B337" t="n">
-        <v>4706.35693359375</v>
-      </c>
-      <c r="C337" t="n">
-        <v>4731.744566060685</v>
-      </c>
-      <c r="D337" t="n">
-        <v>4667.535088650676</v>
-      </c>
-      <c r="E337" t="n">
-        <v>4726.805375490685</v>
-      </c>
-      <c r="F337" t="n">
-        <v>383213</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>45433</v>
-      </c>
-      <c r="B338" t="n">
-        <v>4673.21533203125</v>
-      </c>
-      <c r="C338" t="n">
-        <v>4722.360280034961</v>
-      </c>
-      <c r="D338" t="n">
-        <v>4653.70552855239</v>
-      </c>
-      <c r="E338" t="n">
-        <v>4692.231216434696</v>
-      </c>
-      <c r="F338" t="n">
-        <v>380590</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="B339" t="n">
-        <v>4717.66845703125</v>
-      </c>
-      <c r="C339" t="n">
-        <v>4746.562725443157</v>
-      </c>
-      <c r="D339" t="n">
-        <v>4665.066070948035</v>
-      </c>
-      <c r="E339" t="n">
-        <v>4682.353240083364</v>
-      </c>
-      <c r="F339" t="n">
-        <v>276807</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>45435</v>
-      </c>
-      <c r="B340" t="n">
-        <v>4772.5419921875</v>
-      </c>
-      <c r="C340" t="n">
-        <v>4789.977720426637</v>
-      </c>
-      <c r="D340" t="n">
-        <v>4721.866090885625</v>
-      </c>
-      <c r="E340" t="n">
-        <v>4721.866090885625</v>
-      </c>
-      <c r="F340" t="n">
-        <v>491869</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>45436</v>
-      </c>
-      <c r="B341" t="n">
-        <v>4780.8896484375</v>
-      </c>
-      <c r="C341" t="n">
-        <v>4800.893370815899</v>
-      </c>
-      <c r="D341" t="n">
-        <v>4762.861602343387</v>
-      </c>
-      <c r="E341" t="n">
-        <v>4784.100122399465</v>
-      </c>
-      <c r="F341" t="n">
-        <v>233454</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>45439</v>
-      </c>
-      <c r="B342" t="n">
-        <v>4832.5537109375</v>
-      </c>
-      <c r="C342" t="n">
-        <v>4855.422551319562</v>
-      </c>
-      <c r="D342" t="n">
-        <v>4767.998869939996</v>
-      </c>
-      <c r="E342" t="n">
-        <v>4790.966108268526</v>
-      </c>
-      <c r="F342" t="n">
-        <v>429985</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>45440</v>
-      </c>
-      <c r="B343" t="n">
-        <v>4826.52783203125</v>
-      </c>
-      <c r="C343" t="n">
-        <v>4873.45014250454</v>
-      </c>
-      <c r="D343" t="n">
-        <v>4796.151809988015</v>
-      </c>
-      <c r="E343" t="n">
-        <v>4855.224336341467</v>
-      </c>
-      <c r="F343" t="n">
-        <v>321798</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>45441</v>
-      </c>
-      <c r="B344" t="n">
-        <v>4821.4404296875</v>
-      </c>
-      <c r="C344" t="n">
-        <v>4833.39336821757</v>
-      </c>
-      <c r="D344" t="n">
-        <v>4771.307641702292</v>
-      </c>
-      <c r="E344" t="n">
-        <v>4825.589543009628</v>
-      </c>
-      <c r="F344" t="n">
-        <v>209717</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B345" t="n">
-        <v>4715.099609375</v>
-      </c>
-      <c r="C345" t="n">
-        <v>4811.463511134197</v>
-      </c>
-      <c r="D345" t="n">
-        <v>4690.255576159407</v>
-      </c>
-      <c r="E345" t="n">
-        <v>4790.965869347064</v>
-      </c>
-      <c r="F345" t="n">
-        <v>393085</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>45443</v>
-      </c>
-      <c r="B346" t="n">
-        <v>4644.7158203125</v>
-      </c>
-      <c r="C346" t="n">
-        <v>4717.568879472116</v>
-      </c>
-      <c r="D346" t="n">
-        <v>4623.082262603496</v>
-      </c>
-      <c r="E346" t="n">
-        <v>4711.888810452892</v>
-      </c>
-      <c r="F346" t="n">
-        <v>965092</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>45446</v>
-      </c>
-      <c r="B347" t="n">
-        <v>4592.8544921875</v>
-      </c>
-      <c r="C347" t="n">
-        <v>4766.318963794366</v>
-      </c>
-      <c r="D347" t="n">
-        <v>4583.371149697705</v>
-      </c>
-      <c r="E347" t="n">
-        <v>4766.318963794366</v>
-      </c>
-      <c r="F347" t="n">
-        <v>448138</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>45447</v>
-      </c>
-      <c r="B348" t="n">
-        <v>4574.33251953125</v>
-      </c>
-      <c r="C348" t="n">
-        <v>4619.0818760236</v>
-      </c>
-      <c r="D348" t="n">
-        <v>4458.656578562757</v>
-      </c>
-      <c r="E348" t="n">
-        <v>4592.953364666116</v>
-      </c>
-      <c r="F348" t="n">
-        <v>683878</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>45448</v>
-      </c>
-      <c r="B349" t="n">
-        <v>4631.8251953125</v>
-      </c>
-      <c r="C349" t="n">
-        <v>4715.939520752617</v>
-      </c>
-      <c r="D349" t="n">
-        <v>4574.332819696719</v>
-      </c>
-      <c r="E349" t="n">
-        <v>4578.580813320963</v>
-      </c>
-      <c r="F349" t="n">
-        <v>457063</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>45449</v>
-      </c>
-      <c r="B350" t="n">
-        <v>4741.86962890625</v>
-      </c>
-      <c r="C350" t="n">
-        <v>4760.391592458564</v>
-      </c>
-      <c r="D350" t="n">
-        <v>4645.802377948251</v>
-      </c>
-      <c r="E350" t="n">
-        <v>4682.352386024816</v>
-      </c>
-      <c r="F350" t="n">
-        <v>622901</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>45450</v>
-      </c>
-      <c r="B351" t="n">
-        <v>4916.66796875</v>
-      </c>
-      <c r="C351" t="n">
-        <v>4947.043990229195</v>
-      </c>
-      <c r="D351" t="n">
-        <v>4761.379626982649</v>
-      </c>
-      <c r="E351" t="n">
-        <v>4766.318817467071</v>
-      </c>
-      <c r="F351" t="n">
-        <v>1002806</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="B352" t="n">
-        <v>4843.81494140625</v>
-      </c>
-      <c r="C352" t="n">
-        <v>4918.248156628596</v>
-      </c>
-      <c r="D352" t="n">
-        <v>4805.832373390627</v>
-      </c>
-      <c r="E352" t="n">
-        <v>4916.717200505344</v>
-      </c>
-      <c r="F352" t="n">
-        <v>428520</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>45454</v>
-      </c>
-      <c r="B353" t="n">
-        <v>4843.91357421875</v>
-      </c>
-      <c r="C353" t="n">
-        <v>4886.193336503143</v>
-      </c>
-      <c r="D353" t="n">
-        <v>4830.824718713083</v>
-      </c>
-      <c r="E353" t="n">
-        <v>4864.855935964957</v>
-      </c>
-      <c r="F353" t="n">
-        <v>268670</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>45455</v>
-      </c>
-      <c r="B354" t="n">
-        <v>4890.8857421875</v>
-      </c>
-      <c r="C354" t="n">
-        <v>4962.89904952271</v>
-      </c>
-      <c r="D354" t="n">
-        <v>4876.018488073319</v>
-      </c>
-      <c r="E354" t="n">
-        <v>4900.319403932469</v>
-      </c>
-      <c r="F354" t="n">
-        <v>705428</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B355" t="n">
-        <v>4985.81689453125</v>
-      </c>
-      <c r="C355" t="n">
-        <v>5030.219929887125</v>
-      </c>
-      <c r="D355" t="n">
-        <v>4910.592633671557</v>
-      </c>
-      <c r="E355" t="n">
-        <v>4935.288587376553</v>
-      </c>
-      <c r="F355" t="n">
-        <v>739500</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>45457</v>
-      </c>
-      <c r="B356" t="n">
-        <v>4971.3447265625</v>
-      </c>
-      <c r="C356" t="n">
-        <v>5008.537219066453</v>
-      </c>
-      <c r="D356" t="n">
-        <v>4934.498556225089</v>
-      </c>
-      <c r="E356" t="n">
-        <v>4985.816941444076</v>
-      </c>
-      <c r="F356" t="n">
-        <v>278048</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>45461</v>
-      </c>
-      <c r="B357" t="n">
-        <v>5027.701171875</v>
-      </c>
-      <c r="C357" t="n">
-        <v>5069.585413192746</v>
-      </c>
-      <c r="D357" t="n">
-        <v>4984.680530804337</v>
-      </c>
-      <c r="E357" t="n">
-        <v>4994.509713387086</v>
-      </c>
-      <c r="F357" t="n">
-        <v>697624</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>45462</v>
-      </c>
-      <c r="B358" t="n">
-        <v>5003.0341796875</v>
-      </c>
-      <c r="C358" t="n">
-        <v>5058.846586156233</v>
-      </c>
-      <c r="D358" t="n">
-        <v>4953.849399157816</v>
-      </c>
-      <c r="E358" t="n">
-        <v>5055.009385882395</v>
-      </c>
-      <c r="F358" t="n">
-        <v>351127</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>45463</v>
-      </c>
-      <c r="B359" t="n">
-        <v>5035.52490234375</v>
-      </c>
-      <c r="C359" t="n">
-        <v>5054.012566709878</v>
-      </c>
-      <c r="D359" t="n">
-        <v>4983.250410875447</v>
-      </c>
-      <c r="E359" t="n">
-        <v>5013.1499133407</v>
-      </c>
-      <c r="F359" t="n">
-        <v>333475</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>45464</v>
-      </c>
-      <c r="B360" t="n">
-        <v>5108.2802734375</v>
-      </c>
-      <c r="C360" t="n">
-        <v>5256.183045844873</v>
-      </c>
-      <c r="D360" t="n">
-        <v>5093.479922634088</v>
-      </c>
-      <c r="E360" t="n">
-        <v>5182.580341170488</v>
-      </c>
-      <c r="F360" t="n">
-        <v>1417846</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="B361" t="n">
-        <v>5094.078125</v>
-      </c>
-      <c r="C361" t="n">
-        <v>5132.698315914216</v>
-      </c>
-      <c r="D361" t="n">
-        <v>5043.049445830608</v>
-      </c>
-      <c r="E361" t="n">
-        <v>5082.91544935496</v>
-      </c>
-      <c r="F361" t="n">
-        <v>258477</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>45468</v>
-      </c>
-      <c r="B362" t="n">
-        <v>5106.685546875</v>
-      </c>
-      <c r="C362" t="n">
-        <v>5117.798097801097</v>
-      </c>
-      <c r="D362" t="n">
-        <v>5053.464530587247</v>
-      </c>
-      <c r="E362" t="n">
-        <v>5094.127658692475</v>
-      </c>
-      <c r="F362" t="n">
-        <v>179424</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="B363" t="n">
-        <v>5160.15576171875</v>
-      </c>
-      <c r="C363" t="n">
-        <v>5172.613887652402</v>
-      </c>
-      <c r="D363" t="n">
-        <v>5118.894545955603</v>
-      </c>
-      <c r="E363" t="n">
-        <v>5137.731135038176</v>
-      </c>
-      <c r="F363" t="n">
-        <v>401368</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="B364" t="n">
-        <v>5359.037109375</v>
-      </c>
-      <c r="C364" t="n">
-        <v>5371.894284702731</v>
-      </c>
-      <c r="D364" t="n">
-        <v>5107.831651773788</v>
-      </c>
-      <c r="E364" t="n">
-        <v>5163.644056163901</v>
-      </c>
-      <c r="F364" t="n">
-        <v>1326532</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="B365" t="n">
-        <v>5367.01025390625</v>
-      </c>
-      <c r="C365" t="n">
-        <v>5431.742870479632</v>
-      </c>
-      <c r="D365" t="n">
-        <v>5297.195111302613</v>
-      </c>
-      <c r="E365" t="n">
-        <v>5358.987415517244</v>
-      </c>
-      <c r="F365" t="n">
-        <v>413940</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B366" t="n">
-        <v>5429.25146484375</v>
-      </c>
-      <c r="C366" t="n">
-        <v>5531.408100942233</v>
-      </c>
-      <c r="D366" t="n">
-        <v>5334.220779690342</v>
-      </c>
-      <c r="E366" t="n">
-        <v>5354.45306887572</v>
-      </c>
-      <c r="F366" t="n">
-        <v>1092209</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>45475</v>
-      </c>
-      <c r="B367" t="n">
-        <v>5455.66259765625</v>
-      </c>
-      <c r="C367" t="n">
-        <v>5524.431453929228</v>
-      </c>
-      <c r="D367" t="n">
-        <v>5386.893741383272</v>
-      </c>
-      <c r="E367" t="n">
-        <v>5431.79263332067</v>
-      </c>
-      <c r="F367" t="n">
-        <v>502427</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>45476</v>
-      </c>
-      <c r="B368" t="n">
-        <v>5448.087890625</v>
-      </c>
-      <c r="C368" t="n">
-        <v>5484.96394352166</v>
-      </c>
-      <c r="D368" t="n">
-        <v>5417.091975861131</v>
-      </c>
-      <c r="E368" t="n">
-        <v>5471.509167464771</v>
-      </c>
-      <c r="F368" t="n">
-        <v>251028</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>45477</v>
-      </c>
-      <c r="B369" t="n">
-        <v>5441.21142578125</v>
-      </c>
-      <c r="C369" t="n">
-        <v>5501.508759101108</v>
-      </c>
-      <c r="D369" t="n">
-        <v>5426.759998787235</v>
-      </c>
-      <c r="E369" t="n">
-        <v>5461.443228914642</v>
-      </c>
-      <c r="F369" t="n">
-        <v>255625</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>45478</v>
-      </c>
-      <c r="B370" t="n">
-        <v>5403.5380859375</v>
-      </c>
-      <c r="C370" t="n">
-        <v>5474.798568669202</v>
-      </c>
-      <c r="D370" t="n">
-        <v>5380.664771297562</v>
-      </c>
-      <c r="E370" t="n">
-        <v>5440.712940312737</v>
-      </c>
-      <c r="F370" t="n">
-        <v>213468</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="B371" t="n">
-        <v>5371.64501953125</v>
-      </c>
-      <c r="C371" t="n">
-        <v>5441.360399195387</v>
-      </c>
-      <c r="D371" t="n">
-        <v>5329.337029853672</v>
-      </c>
-      <c r="E371" t="n">
-        <v>5403.537821430416</v>
-      </c>
-      <c r="F371" t="n">
-        <v>198972</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="B372" t="n">
-        <v>5359.13720703125</v>
-      </c>
-      <c r="C372" t="n">
-        <v>5410.514813774513</v>
-      </c>
-      <c r="D372" t="n">
-        <v>5316.979100735547</v>
-      </c>
-      <c r="E372" t="n">
-        <v>5387.392335850767</v>
-      </c>
-      <c r="F372" t="n">
-        <v>241090</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>45483</v>
-      </c>
-      <c r="B373" t="n">
-        <v>5358.240234375</v>
-      </c>
-      <c r="C373" t="n">
-        <v>5408.770590369254</v>
-      </c>
-      <c r="D373" t="n">
-        <v>5302.527589718238</v>
-      </c>
-      <c r="E373" t="n">
-        <v>5381.910674843059</v>
-      </c>
-      <c r="F373" t="n">
-        <v>300436</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="B374" t="n">
-        <v>5389.4853515625</v>
-      </c>
-      <c r="C374" t="n">
-        <v>5406.478041656227</v>
-      </c>
-      <c r="D374" t="n">
-        <v>5320.118405040648</v>
-      </c>
-      <c r="E374" t="n">
-        <v>5374.934162305024</v>
-      </c>
-      <c r="F374" t="n">
-        <v>266246</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>45485</v>
-      </c>
-      <c r="B375" t="n">
-        <v>5553.98193359375</v>
-      </c>
-      <c r="C375" t="n">
-        <v>5640.740614461023</v>
-      </c>
-      <c r="D375" t="n">
-        <v>5451.775663236017</v>
-      </c>
-      <c r="E375" t="n">
-        <v>5502.754217155722</v>
-      </c>
-      <c r="F375" t="n">
-        <v>1174862</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>45488</v>
-      </c>
-      <c r="B376" t="n">
-        <v>5459.798828125</v>
-      </c>
-      <c r="C376" t="n">
-        <v>5623.100049727027</v>
-      </c>
-      <c r="D376" t="n">
-        <v>5442.257688457141</v>
-      </c>
-      <c r="E376" t="n">
-        <v>5593.200545740531</v>
-      </c>
-      <c r="F376" t="n">
-        <v>322248</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>45489</v>
-      </c>
-      <c r="B377" t="n">
-        <v>5543.716796875</v>
-      </c>
-      <c r="C377" t="n">
-        <v>5559.114748976582</v>
-      </c>
-      <c r="D377" t="n">
-        <v>5420.082059630055</v>
-      </c>
-      <c r="E377" t="n">
-        <v>5471.70882694463</v>
-      </c>
-      <c r="F377" t="n">
-        <v>339480</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>45491</v>
-      </c>
-      <c r="B378" t="n">
-        <v>5737.61474609375</v>
-      </c>
-      <c r="C378" t="n">
-        <v>5758.644160103056</v>
-      </c>
-      <c r="D378" t="n">
-        <v>5586.223696327039</v>
-      </c>
-      <c r="E378" t="n">
-        <v>5586.223696327039</v>
-      </c>
-      <c r="F378" t="n">
-        <v>2592299</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>45492</v>
-      </c>
-      <c r="B379" t="n">
-        <v>5743.4453125</v>
-      </c>
-      <c r="C379" t="n">
-        <v>5859.455285775201</v>
-      </c>
-      <c r="D379" t="n">
-        <v>5713.097122567713</v>
-      </c>
-      <c r="E379" t="n">
-        <v>5761.634176662617</v>
-      </c>
-      <c r="F379" t="n">
-        <v>961356</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="B380" t="n">
-        <v>5699.1943359375</v>
-      </c>
-      <c r="C380" t="n">
-        <v>5760.687356622894</v>
-      </c>
-      <c r="D380" t="n">
-        <v>5642.085991824587</v>
-      </c>
-      <c r="E380" t="n">
-        <v>5713.795162930194</v>
-      </c>
-      <c r="F380" t="n">
-        <v>271458</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>45496</v>
-      </c>
-      <c r="B381" t="n">
-        <v>5669.5439453125</v>
-      </c>
-      <c r="C381" t="n">
-        <v>5740.704666242013</v>
-      </c>
-      <c r="D381" t="n">
-        <v>5528.966154510329</v>
-      </c>
-      <c r="E381" t="n">
-        <v>5727.748214738341</v>
-      </c>
-      <c r="F381" t="n">
-        <v>319279</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="B382" t="n">
-        <v>5646.17236328125</v>
-      </c>
-      <c r="C382" t="n">
-        <v>5695.855469385317</v>
-      </c>
-      <c r="D382" t="n">
-        <v>5632.866986771682</v>
-      </c>
-      <c r="E382" t="n">
-        <v>5674.925816741907</v>
-      </c>
-      <c r="F382" t="n">
-        <v>144400</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="B383" t="n">
-        <v>5579.1474609375</v>
-      </c>
-      <c r="C383" t="n">
-        <v>5620.060239262002</v>
-      </c>
-      <c r="D383" t="n">
-        <v>5542.371169817364</v>
-      </c>
-      <c r="E383" t="n">
-        <v>5591.207024397664</v>
-      </c>
-      <c r="F383" t="n">
-        <v>273149</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="B384" t="n">
-        <v>5769.0595703125</v>
-      </c>
-      <c r="C384" t="n">
-        <v>5792.430723592735</v>
-      </c>
-      <c r="D384" t="n">
-        <v>5566.34054699073</v>
-      </c>
-      <c r="E384" t="n">
-        <v>5581.091260724769</v>
-      </c>
-      <c r="F384" t="n">
-        <v>497275</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>45502</v>
-      </c>
-      <c r="B385" t="n">
-        <v>5767.21533203125</v>
-      </c>
-      <c r="C385" t="n">
-        <v>5839.073898655284</v>
-      </c>
-      <c r="D385" t="n">
-        <v>5730.737842521916</v>
-      </c>
-      <c r="E385" t="n">
-        <v>5792.480508370432</v>
-      </c>
-      <c r="F385" t="n">
-        <v>199536</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>45503</v>
-      </c>
-      <c r="B386" t="n">
-        <v>5653.49755859375</v>
-      </c>
-      <c r="C386" t="n">
-        <v>5777.580493110263</v>
-      </c>
-      <c r="D386" t="n">
-        <v>5632.418506806198</v>
-      </c>
-      <c r="E386" t="n">
-        <v>5767.215429644419</v>
-      </c>
-      <c r="F386" t="n">
-        <v>368957</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>45504</v>
-      </c>
-      <c r="B387" t="n">
-        <v>5639.19580078125</v>
-      </c>
-      <c r="C387" t="n">
-        <v>5690.27411962719</v>
-      </c>
-      <c r="D387" t="n">
-        <v>5617.618422929591</v>
-      </c>
-      <c r="E387" t="n">
-        <v>5646.022951458553</v>
-      </c>
-      <c r="F387" t="n">
-        <v>410606</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B388" t="n">
-        <v>5659.8759765625</v>
-      </c>
-      <c r="C388" t="n">
-        <v>5748.029869777781</v>
-      </c>
-      <c r="D388" t="n">
-        <v>5607.153285269012</v>
-      </c>
-      <c r="E388" t="n">
-        <v>5669.942239583257</v>
-      </c>
-      <c r="F388" t="n">
-        <v>472017</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="B389" t="n">
-        <v>5491.4423828125</v>
-      </c>
-      <c r="C389" t="n">
-        <v>5648.963225805553</v>
-      </c>
-      <c r="D389" t="n">
-        <v>5461.64264164069</v>
-      </c>
-      <c r="E389" t="n">
-        <v>5566.290903934901</v>
-      </c>
-      <c r="F389" t="n">
-        <v>425166</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B390" t="n">
-        <v>5372.0439453125</v>
-      </c>
-      <c r="C390" t="n">
-        <v>5386.893934871376</v>
-      </c>
-      <c r="D390" t="n">
-        <v>5239.439353966298</v>
-      </c>
-      <c r="E390" t="n">
-        <v>5240.386366244901</v>
-      </c>
-      <c r="F390" t="n">
-        <v>733853</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>45510</v>
-      </c>
-      <c r="B391" t="n">
-        <v>5442.45703125</v>
-      </c>
-      <c r="C391" t="n">
-        <v>5509.481750446367</v>
-      </c>
-      <c r="D391" t="n">
-        <v>5353.007684813213</v>
-      </c>
-      <c r="E391" t="n">
-        <v>5353.007684813213</v>
-      </c>
-      <c r="F391" t="n">
-        <v>393965</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>45511</v>
-      </c>
-      <c r="B392" t="n">
-        <v>5548.849609375</v>
-      </c>
-      <c r="C392" t="n">
-        <v>5568.284286947126</v>
-      </c>
-      <c r="D392" t="n">
-        <v>5485.163763275455</v>
-      </c>
-      <c r="E392" t="n">
-        <v>5505.49532863718</v>
-      </c>
-      <c r="F392" t="n">
-        <v>260682</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>45512</v>
-      </c>
-      <c r="B393" t="n">
-        <v>5320.4169921875</v>
-      </c>
-      <c r="C393" t="n">
-        <v>5528.418061074352</v>
-      </c>
-      <c r="D393" t="n">
-        <v>5303.025740067072</v>
-      </c>
-      <c r="E393" t="n">
-        <v>5528.418061074352</v>
-      </c>
-      <c r="F393" t="n">
-        <v>496812</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>45513</v>
-      </c>
-      <c r="B394" t="n">
-        <v>5355.548828125</v>
-      </c>
-      <c r="C394" t="n">
-        <v>5464.632373741825</v>
-      </c>
-      <c r="D394" t="n">
-        <v>5347.725514334767</v>
-      </c>
-      <c r="E394" t="n">
-        <v>5421.776420418663</v>
-      </c>
-      <c r="F394" t="n">
-        <v>325943</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B395" t="n">
-        <v>5382.359375</v>
-      </c>
-      <c r="C395" t="n">
-        <v>5417.291767306002</v>
-      </c>
-      <c r="D395" t="n">
-        <v>5302.029277405066</v>
-      </c>
-      <c r="E395" t="n">
-        <v>5355.549097257358</v>
-      </c>
-      <c r="F395" t="n">
-        <v>204264</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="B396" t="n">
-        <v>5366.86083984375</v>
-      </c>
-      <c r="C396" t="n">
-        <v>5387.790491217152</v>
-      </c>
-      <c r="D396" t="n">
-        <v>5285.035772145297</v>
-      </c>
-      <c r="E396" t="n">
-        <v>5328.689336997143</v>
-      </c>
-      <c r="F396" t="n">
-        <v>223672</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>45518</v>
-      </c>
-      <c r="B397" t="n">
-        <v>5409.3681640625</v>
-      </c>
-      <c r="C397" t="n">
-        <v>5421.727014866759</v>
-      </c>
-      <c r="D397" t="n">
-        <v>5349.021193955678</v>
-      </c>
-      <c r="E397" t="n">
-        <v>5376.927397315238</v>
-      </c>
-      <c r="F397" t="n">
-        <v>241696</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>45520</v>
-      </c>
-      <c r="B398" t="n">
-        <v>5545.11181640625</v>
-      </c>
-      <c r="C398" t="n">
-        <v>5581.240381374972</v>
-      </c>
-      <c r="D398" t="n">
-        <v>5468.569285834181</v>
-      </c>
-      <c r="E398" t="n">
-        <v>5511.076313909652</v>
-      </c>
-      <c r="F398" t="n">
-        <v>445477</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B399" t="n">
-        <v>5657.0859375</v>
-      </c>
-      <c r="C399" t="n">
-        <v>5691.370604868807</v>
-      </c>
-      <c r="D399" t="n">
-        <v>5549.298322559338</v>
-      </c>
-      <c r="E399" t="n">
-        <v>5549.298322559338</v>
-      </c>
-      <c r="F399" t="n">
-        <v>281113</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>45524</v>
-      </c>
-      <c r="B400" t="n">
-        <v>5688.67919921875</v>
-      </c>
-      <c r="C400" t="n">
-        <v>5732.731327933763</v>
-      </c>
-      <c r="D400" t="n">
-        <v>5646.521094994565</v>
-      </c>
-      <c r="E400" t="n">
-        <v>5660.972521325413</v>
-      </c>
-      <c r="F400" t="n">
-        <v>326477</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>45525</v>
-      </c>
-      <c r="B401" t="n">
-        <v>5694.310546875</v>
-      </c>
-      <c r="C401" t="n">
-        <v>5711.801560975309</v>
-      </c>
-      <c r="D401" t="n">
-        <v>5639.444668439987</v>
-      </c>
-      <c r="E401" t="n">
-        <v>5666.055420012886</v>
-      </c>
-      <c r="F401" t="n">
-        <v>247285</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="B402" t="n">
-        <v>5685.29052734375</v>
-      </c>
-      <c r="C402" t="n">
-        <v>5749.674218802629</v>
-      </c>
-      <c r="D402" t="n">
-        <v>5638.498098829637</v>
-      </c>
-      <c r="E402" t="n">
-        <v>5715.738478784085</v>
-      </c>
-      <c r="F402" t="n">
-        <v>223201</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="B403" t="n">
-        <v>5622.701171875</v>
-      </c>
-      <c r="C403" t="n">
-        <v>5683.895389275244</v>
-      </c>
-      <c r="D403" t="n">
-        <v>5601.173432882145</v>
-      </c>
-      <c r="E403" t="n">
-        <v>5671.935588350941</v>
-      </c>
-      <c r="F403" t="n">
-        <v>252213</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B404" t="n">
-        <v>5720.72216796875</v>
-      </c>
-      <c r="C404" t="n">
-        <v>5735.422757539449</v>
-      </c>
-      <c r="D404" t="n">
-        <v>5630.824130647673</v>
-      </c>
-      <c r="E404" t="n">
-        <v>5641.039794586633</v>
-      </c>
-      <c r="F404" t="n">
-        <v>333622</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>45531</v>
-      </c>
-      <c r="B405" t="n">
-        <v>5732.28271484375</v>
-      </c>
-      <c r="C405" t="n">
-        <v>5779.573956968459</v>
-      </c>
-      <c r="D405" t="n">
-        <v>5686.935135081366</v>
-      </c>
-      <c r="E405" t="n">
-        <v>5695.855348176366</v>
-      </c>
-      <c r="F405" t="n">
-        <v>269054</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>45532</v>
-      </c>
-      <c r="B406" t="n">
-        <v>6107.02294921875</v>
-      </c>
-      <c r="C406" t="n">
-        <v>6178.134029129089</v>
-      </c>
-      <c r="D406" t="n">
-        <v>5750.67091091384</v>
-      </c>
-      <c r="E406" t="n">
-        <v>5755.654161269917</v>
-      </c>
-      <c r="F406" t="n">
-        <v>3580339</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>45533</v>
-      </c>
-      <c r="B407" t="n">
-        <v>6111.55810546875</v>
-      </c>
-      <c r="C407" t="n">
-        <v>6129.3980447251</v>
-      </c>
-      <c r="D407" t="n">
-        <v>6034.765924156855</v>
-      </c>
-      <c r="E407" t="n">
-        <v>6093.518641536465</v>
-      </c>
-      <c r="F407" t="n">
-        <v>613085</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>45534</v>
-      </c>
-      <c r="B408" t="n">
-        <v>6135.427734375</v>
-      </c>
-      <c r="C408" t="n">
-        <v>6152.370786298484</v>
-      </c>
-      <c r="D408" t="n">
-        <v>6048.669536683855</v>
-      </c>
-      <c r="E408" t="n">
-        <v>6131.491258415411</v>
-      </c>
-      <c r="F408" t="n">
-        <v>1700749</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B409" t="n">
-        <v>6132.88623046875</v>
-      </c>
-      <c r="C409" t="n">
-        <v>6180.227108984597</v>
-      </c>
-      <c r="D409" t="n">
-        <v>6081.558751656831</v>
-      </c>
-      <c r="E409" t="n">
-        <v>6081.558751656831</v>
-      </c>
-      <c r="F409" t="n">
-        <v>343399</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B410" t="n">
-        <v>6125.11279296875</v>
-      </c>
-      <c r="C410" t="n">
-        <v>6158.301047067174</v>
-      </c>
-      <c r="D410" t="n">
-        <v>6064.615936462818</v>
-      </c>
-      <c r="E410" t="n">
-        <v>6076.575737816566</v>
-      </c>
-      <c r="F410" t="n">
-        <v>406722</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B411" t="n">
-        <v>6050.8623046875</v>
-      </c>
-      <c r="C411" t="n">
-        <v>6067.755231959124</v>
-      </c>
-      <c r="D411" t="n">
-        <v>5969.684959076931</v>
-      </c>
-      <c r="E411" t="n">
-        <v>5984.883873159475</v>
-      </c>
-      <c r="F411" t="n">
-        <v>482013</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B412" t="n">
-        <v>6128.7001953125</v>
-      </c>
-      <c r="C412" t="n">
-        <v>6179.230549463918</v>
-      </c>
-      <c r="D412" t="n">
-        <v>6057.639238651886</v>
-      </c>
-      <c r="E412" t="n">
-        <v>6069.399515039418</v>
-      </c>
-      <c r="F412" t="n">
-        <v>636255</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>45541</v>
-      </c>
-      <c r="B413" t="n">
-        <v>6144.74658203125</v>
-      </c>
-      <c r="C413" t="n">
-        <v>6296.785850554813</v>
-      </c>
-      <c r="D413" t="n">
-        <v>6126.358679216275</v>
-      </c>
-      <c r="E413" t="n">
-        <v>6184.21402430192</v>
-      </c>
-      <c r="F413" t="n">
-        <v>1157210</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B414" t="n">
-        <v>6126.009765625</v>
-      </c>
-      <c r="C414" t="n">
-        <v>6178.184497082785</v>
-      </c>
-      <c r="D414" t="n">
-        <v>6084.549023028403</v>
-      </c>
-      <c r="E414" t="n">
-        <v>6114.448526827069</v>
-      </c>
-      <c r="F414" t="n">
-        <v>361840</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>45545</v>
-      </c>
-      <c r="B415" t="n">
-        <v>6322.1005859375</v>
-      </c>
-      <c r="C415" t="n">
-        <v>6378.560717459021</v>
-      </c>
-      <c r="D415" t="n">
-        <v>6156.606542835464</v>
-      </c>
-      <c r="E415" t="n">
-        <v>6184.861670842696</v>
-      </c>
-      <c r="F415" t="n">
-        <v>929755</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>45546</v>
-      </c>
-      <c r="B416" t="n">
-        <v>6278.19775390625</v>
-      </c>
-      <c r="C416" t="n">
-        <v>6343.677859859486</v>
-      </c>
-      <c r="D416" t="n">
-        <v>6253.979351236178</v>
-      </c>
-      <c r="E416" t="n">
-        <v>6310.788406697607</v>
-      </c>
-      <c r="F416" t="n">
-        <v>331331</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B417" t="n">
-        <v>6370.9365234375</v>
-      </c>
-      <c r="C417" t="n">
-        <v>6388.527300813434</v>
-      </c>
-      <c r="D417" t="n">
-        <v>6257.318409195264</v>
-      </c>
-      <c r="E417" t="n">
-        <v>6279.892437195857</v>
-      </c>
-      <c r="F417" t="n">
-        <v>426550</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B418" t="n">
-        <v>6394.70654296875</v>
-      </c>
-      <c r="C418" t="n">
-        <v>6425.652333802726</v>
-      </c>
-      <c r="D418" t="n">
-        <v>6318.761610967355</v>
-      </c>
-      <c r="E418" t="n">
-        <v>6348.661113858368</v>
-      </c>
-      <c r="F418" t="n">
-        <v>278354</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B419" t="n">
-        <v>6401.93212890625</v>
-      </c>
-      <c r="C419" t="n">
-        <v>6431.382944010235</v>
-      </c>
-      <c r="D419" t="n">
-        <v>6369.690401600582</v>
-      </c>
-      <c r="E419" t="n">
-        <v>6424.40639347435</v>
-      </c>
-      <c r="F419" t="n">
-        <v>161324</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B420" t="n">
-        <v>6434.1240234375</v>
-      </c>
-      <c r="C420" t="n">
-        <v>6492.627580241997</v>
-      </c>
-      <c r="D420" t="n">
-        <v>6375.122141572132</v>
-      </c>
-      <c r="E420" t="n">
-        <v>6388.228479989497</v>
-      </c>
-      <c r="F420" t="n">
-        <v>367663</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>45553</v>
-      </c>
-      <c r="B421" t="n">
-        <v>6344.97314453125</v>
-      </c>
-      <c r="C421" t="n">
-        <v>6377.563796471011</v>
-      </c>
-      <c r="D421" t="n">
-        <v>6211.123234819087</v>
-      </c>
-      <c r="E421" t="n">
-        <v>6377.563796471011</v>
-      </c>
-      <c r="F421" t="n">
-        <v>757933</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B422" t="n">
-        <v>6355.787109375</v>
-      </c>
-      <c r="C422" t="n">
-        <v>6552.924791808862</v>
-      </c>
-      <c r="D422" t="n">
-        <v>6322.897655963799</v>
-      </c>
-      <c r="E422" t="n">
-        <v>6418.426665700898</v>
-      </c>
-      <c r="F422" t="n">
-        <v>753347</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B423" t="n">
-        <v>6351.7509765625</v>
-      </c>
-      <c r="C423" t="n">
-        <v>6429.389923574803</v>
-      </c>
-      <c r="D423" t="n">
-        <v>6315.124084655606</v>
-      </c>
-      <c r="E423" t="n">
-        <v>6315.124084655606</v>
-      </c>
-      <c r="F423" t="n">
-        <v>393050</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B424" t="n">
-        <v>6304.908203125</v>
-      </c>
-      <c r="C424" t="n">
-        <v>6388.527047968204</v>
-      </c>
-      <c r="D424" t="n">
-        <v>6265.59016259434</v>
-      </c>
-      <c r="E424" t="n">
-        <v>6378.560547113339</v>
-      </c>
-      <c r="F424" t="n">
-        <v>278381</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>45559</v>
-      </c>
-      <c r="B425" t="n">
-        <v>6322.84814453125</v>
-      </c>
-      <c r="C425" t="n">
-        <v>6333.711533546063</v>
-      </c>
-      <c r="D425" t="n">
-        <v>6184.41353973455</v>
-      </c>
-      <c r="E425" t="n">
-        <v>6304.808679970479</v>
-      </c>
-      <c r="F425" t="n">
-        <v>627620</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="B426" t="n">
-        <v>6082.10693359375</v>
-      </c>
-      <c r="C426" t="n">
-        <v>6322.848059630666</v>
-      </c>
-      <c r="D426" t="n">
-        <v>6070.147132274789</v>
-      </c>
-      <c r="E426" t="n">
-        <v>6322.848059630666</v>
-      </c>
-      <c r="F426" t="n">
-        <v>617659</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>45561</v>
-      </c>
-      <c r="B427" t="n">
-        <v>6143.40087890625</v>
-      </c>
-      <c r="C427" t="n">
-        <v>6175.24404438729</v>
-      </c>
-      <c r="D427" t="n">
-        <v>6082.655347054752</v>
-      </c>
-      <c r="E427" t="n">
-        <v>6114.398750196281</v>
-      </c>
-      <c r="F427" t="n">
-        <v>535600</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>45562</v>
-      </c>
-      <c r="B428" t="n">
-        <v>6115.544921875</v>
-      </c>
-      <c r="C428" t="n">
-        <v>6337.698137137154</v>
-      </c>
-      <c r="D428" t="n">
-        <v>6084.598643544192</v>
-      </c>
-      <c r="E428" t="n">
-        <v>6199.163769931294</v>
-      </c>
-      <c r="F428" t="n">
-        <v>5261322</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B429" t="n">
-        <v>6223.43212890625</v>
-      </c>
-      <c r="C429" t="n">
-        <v>6252.284857219533</v>
-      </c>
-      <c r="D429" t="n">
-        <v>6002.823532663785</v>
-      </c>
-      <c r="E429" t="n">
-        <v>6079.565590112749</v>
-      </c>
-      <c r="F429" t="n">
-        <v>685928</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B430" t="n">
-        <v>6252.4345703125</v>
-      </c>
-      <c r="C430" t="n">
-        <v>6264.892696175571</v>
-      </c>
-      <c r="D430" t="n">
-        <v>6168.26727732338</v>
-      </c>
-      <c r="E430" t="n">
-        <v>6223.431955974164</v>
-      </c>
-      <c r="F430" t="n">
-        <v>526014</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B431" t="n">
-        <v>6163.134765625</v>
-      </c>
-      <c r="C431" t="n">
-        <v>6283.878826880597</v>
-      </c>
-      <c r="D431" t="n">
-        <v>6131.889687927498</v>
-      </c>
-      <c r="E431" t="n">
-        <v>6179.180929427192</v>
-      </c>
-      <c r="F431" t="n">
-        <v>297603</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>45569</v>
-      </c>
-      <c r="B432" t="n">
-        <v>6093.61865234375</v>
-      </c>
-      <c r="C432" t="n">
-        <v>6243.664134638378</v>
-      </c>
-      <c r="D432" t="n">
-        <v>6079.565788192748</v>
-      </c>
-      <c r="E432" t="n">
-        <v>6180.17781339492</v>
-      </c>
-      <c r="F432" t="n">
-        <v>330589</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>45572</v>
-      </c>
-      <c r="B433" t="n">
-        <v>6233.99658203125</v>
-      </c>
-      <c r="C433" t="n">
-        <v>6274.908872956717</v>
-      </c>
-      <c r="D433" t="n">
-        <v>6129.397961989169</v>
-      </c>
-      <c r="E433" t="n">
-        <v>6149.231201154951</v>
-      </c>
-      <c r="F433" t="n">
-        <v>608166</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>45573</v>
-      </c>
-      <c r="B434" t="n">
-        <v>6355.43798828125</v>
-      </c>
-      <c r="C434" t="n">
-        <v>6366.600663752559</v>
-      </c>
-      <c r="D434" t="n">
-        <v>6164.330336860688</v>
-      </c>
-      <c r="E434" t="n">
-        <v>6268.430631601709</v>
-      </c>
-      <c r="F434" t="n">
-        <v>386713</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>45574</v>
-      </c>
-      <c r="B435" t="n">
-        <v>6418.974609375</v>
-      </c>
-      <c r="C435" t="n">
-        <v>6465.269201196095</v>
-      </c>
-      <c r="D435" t="n">
-        <v>6343.927051474248</v>
-      </c>
-      <c r="E435" t="n">
-        <v>6372.580741860311</v>
-      </c>
-      <c r="F435" t="n">
-        <v>485153</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>45575</v>
-      </c>
-      <c r="B436" t="n">
-        <v>6324.791015625</v>
-      </c>
-      <c r="C436" t="n">
-        <v>6466.26568847039</v>
-      </c>
-      <c r="D436" t="n">
-        <v>6298.878113667505</v>
-      </c>
-      <c r="E436" t="n">
-        <v>6464.272388319813</v>
-      </c>
-      <c r="F436" t="n">
-        <v>200473</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>45576</v>
-      </c>
-      <c r="B437" t="n">
-        <v>6389.47412109375</v>
-      </c>
-      <c r="C437" t="n">
-        <v>6437.014038637139</v>
-      </c>
-      <c r="D437" t="n">
-        <v>6318.761602196438</v>
-      </c>
-      <c r="E437" t="n">
-        <v>6318.761602196438</v>
-      </c>
-      <c r="F437" t="n">
-        <v>383832</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>45579</v>
-      </c>
-      <c r="B438" t="n">
-        <v>6426.94775390625</v>
-      </c>
-      <c r="C438" t="n">
-        <v>6464.123094312444</v>
-      </c>
-      <c r="D438" t="n">
-        <v>6348.06299648059</v>
-      </c>
-      <c r="E438" t="n">
-        <v>6390.520387714353</v>
-      </c>
-      <c r="F438" t="n">
-        <v>208260</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>45580</v>
-      </c>
-      <c r="B439" t="n">
-        <v>6439.15673828125</v>
-      </c>
-      <c r="C439" t="n">
-        <v>6529.752621221423</v>
-      </c>
-      <c r="D439" t="n">
-        <v>6418.476248812686</v>
-      </c>
-      <c r="E439" t="n">
-        <v>6468.956965434322</v>
-      </c>
-      <c r="F439" t="n">
-        <v>597153</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="B440" t="n">
-        <v>6338.046875</v>
-      </c>
-      <c r="C440" t="n">
-        <v>6448.326110613609</v>
-      </c>
-      <c r="D440" t="n">
-        <v>6318.761598344711</v>
-      </c>
-      <c r="E440" t="n">
-        <v>6438.359609669847</v>
-      </c>
-      <c r="F440" t="n">
-        <v>155322</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>45582</v>
-      </c>
-      <c r="B441" t="n">
-        <v>6373.029296875</v>
-      </c>
-      <c r="C441" t="n">
-        <v>6403.476762151994</v>
-      </c>
-      <c r="D441" t="n">
-        <v>6291.553152858513</v>
-      </c>
-      <c r="E441" t="n">
-        <v>6367.497596945268</v>
-      </c>
-      <c r="F441" t="n">
-        <v>310484</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>45583</v>
-      </c>
-      <c r="B442" t="n">
-        <v>5971.62841796875</v>
-      </c>
-      <c r="C442" t="n">
-        <v>6358.627445419697</v>
-      </c>
-      <c r="D442" t="n">
-        <v>5940.034416097397</v>
-      </c>
-      <c r="E442" t="n">
-        <v>6358.627445419697</v>
-      </c>
-      <c r="F442" t="n">
-        <v>1019092</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B443" t="n">
-        <v>5923.19140625</v>
-      </c>
-      <c r="C443" t="n">
-        <v>6048.220871410299</v>
-      </c>
-      <c r="D443" t="n">
-        <v>5902.411153986425</v>
-      </c>
-      <c r="E443" t="n">
-        <v>6008.803553950636</v>
-      </c>
-      <c r="F443" t="n">
-        <v>307418</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>45587</v>
-      </c>
-      <c r="B444" t="n">
-        <v>5856.9638671875</v>
-      </c>
-      <c r="C444" t="n">
-        <v>5976.711282529154</v>
-      </c>
-      <c r="D444" t="n">
-        <v>5840.369739914297</v>
-      </c>
-      <c r="E444" t="n">
-        <v>5948.954965829123</v>
-      </c>
-      <c r="F444" t="n">
-        <v>201412</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="B445" t="n">
-        <v>5915.16796875</v>
-      </c>
-      <c r="C445" t="n">
-        <v>6008.55427757935</v>
-      </c>
-      <c r="D445" t="n">
-        <v>5841.764786370429</v>
-      </c>
-      <c r="E445" t="n">
-        <v>5856.315975128552</v>
-      </c>
-      <c r="F445" t="n">
-        <v>379455</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B446" t="n">
-        <v>5950.35009765625</v>
-      </c>
-      <c r="C446" t="n">
-        <v>5974.219575867952</v>
-      </c>
-      <c r="D446" t="n">
-        <v>5897.178716814872</v>
-      </c>
-      <c r="E446" t="n">
-        <v>5922.543656841179</v>
-      </c>
-      <c r="F446" t="n">
-        <v>179275</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B447" t="n">
-        <v>5903.2001953125</v>
-      </c>
-      <c r="C447" t="n">
-        <v>5982.60009765625</v>
-      </c>
-      <c r="D447" t="n">
-        <v>5827.5</v>
-      </c>
-      <c r="E447" t="n">
-        <v>5970.2998046875</v>
-      </c>
-      <c r="F447" t="n">
-        <v>191734</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="B448" t="n">
-        <v>5889.7998046875</v>
-      </c>
-      <c r="C448" t="n">
-        <v>5962.0498046875</v>
-      </c>
-      <c r="D448" t="n">
-        <v>5825.60009765625</v>
-      </c>
-      <c r="E448" t="n">
-        <v>5909.7998046875</v>
-      </c>
-      <c r="F448" t="n">
-        <v>132878</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>45594</v>
-      </c>
-      <c r="B449" t="n">
-        <v>5852.25</v>
-      </c>
-      <c r="C449" t="n">
-        <v>5946.9501953125</v>
-      </c>
-      <c r="D449" t="n">
-        <v>5805.4501953125</v>
-      </c>
-      <c r="E449" t="n">
-        <v>5924.7998046875</v>
-      </c>
-      <c r="F449" t="n">
-        <v>114850</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>45595</v>
-      </c>
-      <c r="B450" t="n">
-        <v>5795.14990234375</v>
-      </c>
-      <c r="C450" t="n">
-        <v>5879.7998046875</v>
-      </c>
-      <c r="D450" t="n">
-        <v>5780.25</v>
-      </c>
-      <c r="E450" t="n">
-        <v>5842</v>
-      </c>
-      <c r="F450" t="n">
-        <v>130223</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B451" t="n">
-        <v>5710.85009765625</v>
-      </c>
-      <c r="C451" t="n">
-        <v>5858.9501953125</v>
-      </c>
-      <c r="D451" t="n">
-        <v>5621.2001953125</v>
-      </c>
-      <c r="E451" t="n">
-        <v>5796</v>
-      </c>
-      <c r="F451" t="n">
-        <v>492437</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B452" t="n">
-        <v>5731.60009765625</v>
-      </c>
-      <c r="C452" t="n">
-        <v>5760.64990234375</v>
-      </c>
-      <c r="D452" t="n">
-        <v>5701.0498046875</v>
-      </c>
-      <c r="E452" t="n">
-        <v>5702</v>
-      </c>
-      <c r="F452" t="n">
-        <v>23678</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B453" t="n">
-        <v>5737.14990234375</v>
-      </c>
-      <c r="C453" t="n">
-        <v>5751.75</v>
-      </c>
-      <c r="D453" t="n">
-        <v>5572.64990234375</v>
-      </c>
-      <c r="E453" t="n">
-        <v>5700</v>
-      </c>
-      <c r="F453" t="n">
-        <v>198497</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>45601</v>
-      </c>
-      <c r="B454" t="n">
-        <v>5719.85009765625</v>
-      </c>
-      <c r="C454" t="n">
-        <v>5785.10009765625</v>
-      </c>
-      <c r="D454" t="n">
-        <v>5685</v>
-      </c>
-      <c r="E454" t="n">
-        <v>5735</v>
-      </c>
-      <c r="F454" t="n">
-        <v>163042</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>45602</v>
-      </c>
-      <c r="B455" t="n">
-        <v>5990.14990234375</v>
-      </c>
-      <c r="C455" t="n">
-        <v>5999.9501953125</v>
-      </c>
-      <c r="D455" t="n">
-        <v>5761.5498046875</v>
-      </c>
-      <c r="E455" t="n">
-        <v>5789</v>
-      </c>
-      <c r="F455" t="n">
-        <v>517708</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B456" t="n">
-        <v>5886</v>
-      </c>
-      <c r="C456" t="n">
-        <v>6002.5498046875</v>
-      </c>
-      <c r="D456" t="n">
-        <v>5820.0498046875</v>
-      </c>
-      <c r="E456" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F456" t="n">
-        <v>206546</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>45604</v>
-      </c>
-      <c r="B457" t="n">
-        <v>5926.9501953125</v>
-      </c>
-      <c r="C457" t="n">
-        <v>5993</v>
-      </c>
-      <c r="D457" t="n">
-        <v>5889.2001953125</v>
-      </c>
-      <c r="E457" t="n">
-        <v>5899</v>
-      </c>
-      <c r="F457" t="n">
-        <v>169926</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B458" t="n">
-        <v>5974.60009765625</v>
-      </c>
-      <c r="C458" t="n">
-        <v>6025</v>
-      </c>
-      <c r="D458" t="n">
-        <v>5858.89990234375</v>
-      </c>
-      <c r="E458" t="n">
-        <v>5890</v>
-      </c>
-      <c r="F458" t="n">
-        <v>146972</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B459" t="n">
-        <v>6005.0498046875</v>
-      </c>
-      <c r="C459" t="n">
-        <v>6037</v>
-      </c>
-      <c r="D459" t="n">
-        <v>5964.7998046875</v>
-      </c>
-      <c r="E459" t="n">
-        <v>6007</v>
-      </c>
-      <c r="F459" t="n">
-        <v>289914</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>45609</v>
-      </c>
-      <c r="B460" t="n">
-        <v>5947.5498046875</v>
-      </c>
-      <c r="C460" t="n">
-        <v>6009.7001953125</v>
-      </c>
-      <c r="D460" t="n">
-        <v>5914.14990234375</v>
-      </c>
-      <c r="E460" t="n">
-        <v>6005.0498046875</v>
-      </c>
-      <c r="F460" t="n">
-        <v>181293</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B461" t="n">
-        <v>5994.64990234375</v>
-      </c>
-      <c r="C461" t="n">
-        <v>6011</v>
-      </c>
-      <c r="D461" t="n">
-        <v>5920.0498046875</v>
-      </c>
-      <c r="E461" t="n">
-        <v>5947.0498046875</v>
-      </c>
-      <c r="F461" t="n">
-        <v>143974</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B462" t="n">
-        <v>5841.5</v>
-      </c>
-      <c r="C462" t="n">
-        <v>5984.9501953125</v>
-      </c>
-      <c r="D462" t="n">
-        <v>5711.5</v>
-      </c>
-      <c r="E462" t="n">
-        <v>5955</v>
-      </c>
-      <c r="F462" t="n">
-        <v>276072</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>45615</v>
-      </c>
-      <c r="B463" t="n">
-        <v>5885.9501953125</v>
-      </c>
-      <c r="C463" t="n">
-        <v>5965</v>
-      </c>
-      <c r="D463" t="n">
-        <v>5832.5</v>
-      </c>
-      <c r="E463" t="n">
-        <v>5841.5</v>
-      </c>
-      <c r="F463" t="n">
-        <v>218021</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>45617</v>
-      </c>
-      <c r="B464" t="n">
-        <v>5931.0498046875</v>
-      </c>
-      <c r="C464" t="n">
-        <v>5946.5498046875</v>
-      </c>
-      <c r="D464" t="n">
-        <v>5848.35009765625</v>
-      </c>
-      <c r="E464" t="n">
-        <v>5880.0498046875</v>
-      </c>
-      <c r="F464" t="n">
-        <v>132376</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="B465" t="n">
-        <v>6133.7001953125</v>
-      </c>
-      <c r="C465" t="n">
-        <v>6148.25</v>
-      </c>
-      <c r="D465" t="n">
-        <v>5931.0498046875</v>
-      </c>
-      <c r="E465" t="n">
-        <v>5979.89990234375</v>
-      </c>
-      <c r="F465" t="n">
-        <v>301184</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B466" t="n">
-        <v>6115.25</v>
-      </c>
-      <c r="C466" t="n">
-        <v>6196.7998046875</v>
-      </c>
-      <c r="D466" t="n">
-        <v>6089.14990234375</v>
-      </c>
-      <c r="E466" t="n">
-        <v>6150</v>
-      </c>
-      <c r="F466" t="n">
-        <v>532812</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>45622</v>
-      </c>
-      <c r="B467" t="n">
-        <v>6227.14990234375</v>
-      </c>
-      <c r="C467" t="n">
-        <v>6264.39990234375</v>
-      </c>
-      <c r="D467" t="n">
-        <v>6123.75</v>
-      </c>
-      <c r="E467" t="n">
-        <v>6148.9501953125</v>
-      </c>
-      <c r="F467" t="n">
-        <v>241508</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="B468" t="n">
-        <v>6261.7001953125</v>
-      </c>
-      <c r="C468" t="n">
-        <v>6301.5498046875</v>
-      </c>
-      <c r="D468" t="n">
-        <v>6190.0498046875</v>
-      </c>
-      <c r="E468" t="n">
-        <v>6227.9501953125</v>
-      </c>
-      <c r="F468" t="n">
-        <v>234693</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>45624</v>
-      </c>
-      <c r="B469" t="n">
-        <v>6159.75</v>
-      </c>
-      <c r="C469" t="n">
-        <v>6273.89990234375</v>
-      </c>
-      <c r="D469" t="n">
-        <v>6085.5498046875</v>
-      </c>
-      <c r="E469" t="n">
-        <v>6269.89990234375</v>
-      </c>
-      <c r="F469" t="n">
-        <v>304005</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="B470" t="n">
-        <v>6172.39990234375</v>
-      </c>
-      <c r="C470" t="n">
-        <v>6250</v>
-      </c>
-      <c r="D470" t="n">
-        <v>6130</v>
-      </c>
-      <c r="E470" t="n">
-        <v>6130</v>
-      </c>
-      <c r="F470" t="n">
-        <v>148132</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B471" t="n">
-        <v>6213.35009765625</v>
-      </c>
-      <c r="C471" t="n">
-        <v>6235.39990234375</v>
-      </c>
-      <c r="D471" t="n">
-        <v>6130.2001953125</v>
-      </c>
-      <c r="E471" t="n">
-        <v>6172.39990234375</v>
-      </c>
-      <c r="F471" t="n">
-        <v>114428</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>45629</v>
-      </c>
-      <c r="B472" t="n">
-        <v>6167</v>
-      </c>
-      <c r="C472" t="n">
-        <v>6286.10009765625</v>
-      </c>
-      <c r="D472" t="n">
-        <v>6125.75</v>
-      </c>
-      <c r="E472" t="n">
-        <v>6223</v>
-      </c>
-      <c r="F472" t="n">
-        <v>295648</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>45630</v>
-      </c>
-      <c r="B473" t="n">
-        <v>6221.5</v>
-      </c>
-      <c r="C473" t="n">
-        <v>6249</v>
-      </c>
-      <c r="D473" t="n">
-        <v>6152.4501953125</v>
-      </c>
-      <c r="E473" t="n">
-        <v>6200</v>
-      </c>
-      <c r="F473" t="n">
-        <v>160443</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>45631</v>
-      </c>
-      <c r="B474" t="n">
-        <v>6347.14990234375</v>
-      </c>
-      <c r="C474" t="n">
-        <v>6360</v>
-      </c>
-      <c r="D474" t="n">
-        <v>6240.2001953125</v>
-      </c>
-      <c r="E474" t="n">
-        <v>6255</v>
-      </c>
-      <c r="F474" t="n">
-        <v>259179</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>45632</v>
-      </c>
-      <c r="B475" t="n">
-        <v>6378.89990234375</v>
-      </c>
-      <c r="C475" t="n">
-        <v>6398.85009765625</v>
-      </c>
-      <c r="D475" t="n">
-        <v>6330.9501953125</v>
-      </c>
-      <c r="E475" t="n">
-        <v>6346</v>
-      </c>
-      <c r="F475" t="n">
-        <v>205466</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B476" t="n">
-        <v>6389.0498046875</v>
-      </c>
-      <c r="C476" t="n">
-        <v>6438</v>
-      </c>
-      <c r="D476" t="n">
-        <v>6330</v>
-      </c>
-      <c r="E476" t="n">
-        <v>6378.89990234375</v>
-      </c>
-      <c r="F476" t="n">
-        <v>159761</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>45636</v>
-      </c>
-      <c r="B477" t="n">
-        <v>6579.2998046875</v>
-      </c>
-      <c r="C477" t="n">
-        <v>6624</v>
-      </c>
-      <c r="D477" t="n">
-        <v>6400.2998046875</v>
-      </c>
-      <c r="E477" t="n">
-        <v>6400.35009765625</v>
-      </c>
-      <c r="F477" t="n">
-        <v>738557</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>45637</v>
-      </c>
-      <c r="B478" t="n">
-        <v>6598.60009765625</v>
-      </c>
-      <c r="C478" t="n">
-        <v>6642.64990234375</v>
-      </c>
-      <c r="D478" t="n">
-        <v>6540.7998046875</v>
-      </c>
-      <c r="E478" t="n">
-        <v>6634.60009765625</v>
-      </c>
-      <c r="F478" t="n">
-        <v>381763</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>45638</v>
-      </c>
-      <c r="B479" t="n">
-        <v>6667.64990234375</v>
-      </c>
-      <c r="C479" t="n">
-        <v>6734.39990234375</v>
-      </c>
-      <c r="D479" t="n">
-        <v>6601.0498046875</v>
-      </c>
-      <c r="E479" t="n">
-        <v>6619.9501953125</v>
-      </c>
-      <c r="F479" t="n">
-        <v>495471</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>45639</v>
-      </c>
-      <c r="B480" t="n">
-        <v>6714.4501953125</v>
-      </c>
-      <c r="C480" t="n">
-        <v>6738</v>
-      </c>
-      <c r="D480" t="n">
-        <v>6640.25</v>
-      </c>
-      <c r="E480" t="n">
-        <v>6650</v>
-      </c>
-      <c r="F480" t="n">
-        <v>338031</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B481" t="n">
-        <v>6738.4501953125</v>
-      </c>
-      <c r="C481" t="n">
-        <v>6767.9501953125</v>
-      </c>
-      <c r="D481" t="n">
-        <v>6697.5</v>
-      </c>
-      <c r="E481" t="n">
-        <v>6700</v>
-      </c>
-      <c r="F481" t="n">
-        <v>269421</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B482" t="n">
-        <v>6696.9501953125</v>
-      </c>
-      <c r="C482" t="n">
-        <v>6759.89990234375</v>
-      </c>
-      <c r="D482" t="n">
-        <v>6650.2998046875</v>
-      </c>
-      <c r="E482" t="n">
-        <v>6738.4501953125</v>
-      </c>
-      <c r="F482" t="n">
-        <v>228608</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B483" t="n">
-        <v>6574.0498046875</v>
-      </c>
-      <c r="C483" t="n">
-        <v>6735.89990234375</v>
-      </c>
-      <c r="D483" t="n">
-        <v>6556.0498046875</v>
-      </c>
-      <c r="E483" t="n">
-        <v>6699.7998046875</v>
-      </c>
-      <c r="F483" t="n">
-        <v>179125</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B484" t="n">
-        <v>6220.60009765625</v>
-      </c>
-      <c r="C484" t="n">
-        <v>6370</v>
-      </c>
-      <c r="D484" t="n">
-        <v>6205.5498046875</v>
-      </c>
-      <c r="E484" t="n">
-        <v>6370</v>
-      </c>
-      <c r="F484" t="n">
-        <v>734279</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B485" t="n">
-        <v>5824.2998046875</v>
-      </c>
-      <c r="C485" t="n">
-        <v>6288</v>
-      </c>
-      <c r="D485" t="n">
-        <v>5801</v>
-      </c>
-      <c r="E485" t="n">
-        <v>6288</v>
-      </c>
-      <c r="F485" t="n">
-        <v>1118998</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B486" t="n">
-        <v>5730.4501953125</v>
-      </c>
-      <c r="C486" t="n">
-        <v>5895</v>
-      </c>
-      <c r="D486" t="n">
-        <v>5707</v>
-      </c>
-      <c r="E486" t="n">
-        <v>5877.89990234375</v>
-      </c>
-      <c r="F486" t="n">
-        <v>373162</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B487" t="n">
-        <v>5725.7001953125</v>
-      </c>
-      <c r="C487" t="n">
-        <v>5788</v>
-      </c>
-      <c r="D487" t="n">
-        <v>5702</v>
-      </c>
-      <c r="E487" t="n">
-        <v>5764</v>
-      </c>
-      <c r="F487" t="n">
-        <v>196609</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B488" t="n">
-        <v>5752.35009765625</v>
-      </c>
-      <c r="C488" t="n">
-        <v>5773.9501953125</v>
-      </c>
-      <c r="D488" t="n">
-        <v>5650.7001953125</v>
-      </c>
-      <c r="E488" t="n">
-        <v>5730</v>
-      </c>
-      <c r="F488" t="n">
-        <v>380345</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B489" t="n">
-        <v>5678</v>
-      </c>
-      <c r="C489" t="n">
-        <v>5819.9501953125</v>
-      </c>
-      <c r="D489" t="n">
-        <v>5671.2001953125</v>
-      </c>
-      <c r="E489" t="n">
-        <v>5769</v>
-      </c>
-      <c r="F489" t="n">
-        <v>341033</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B490" t="n">
-        <v>5643.5</v>
-      </c>
-      <c r="C490" t="n">
-        <v>5707.9501953125</v>
-      </c>
-      <c r="D490" t="n">
-        <v>5602</v>
-      </c>
-      <c r="E490" t="n">
-        <v>5680.4501953125</v>
-      </c>
-      <c r="F490" t="n">
-        <v>908090</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/raw/LTIM.NS_data.xlsx
+++ b/src/data/raw/LTIM.NS_data.xlsx
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>4138.9736328125</v>
+        <v>4138.974609375</v>
       </c>
       <c r="C3" t="n">
-        <v>4181.59240390803</v>
+        <v>4181.593390526138</v>
       </c>
       <c r="D3" t="n">
-        <v>4126.637838469643</v>
+        <v>4126.638812121597</v>
       </c>
       <c r="E3" t="n">
-        <v>4170.949757808311</v>
+        <v>4170.950741915359</v>
       </c>
       <c r="F3" t="n">
         <v>428917</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>4061.234130859375</v>
+        <v>4061.233642578125</v>
       </c>
       <c r="C5" t="n">
-        <v>4140.425193009707</v>
+        <v>4140.424695207334</v>
       </c>
       <c r="D5" t="n">
-        <v>4044.205801422292</v>
+        <v>4044.205315188355</v>
       </c>
       <c r="E5" t="n">
-        <v>4111.931735895871</v>
+        <v>4111.93124151926</v>
       </c>
       <c r="F5" t="n">
         <v>264197</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>4155.71142578125</v>
+        <v>4155.7119140625</v>
       </c>
       <c r="C6" t="n">
-        <v>4186.429972494143</v>
+        <v>4186.430464384713</v>
       </c>
       <c r="D6" t="n">
-        <v>4092.726216620071</v>
+        <v>4092.726697500784</v>
       </c>
       <c r="E6" t="n">
-        <v>4092.726216620071</v>
+        <v>4092.726697500784</v>
       </c>
       <c r="F6" t="n">
         <v>388187</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>4094.12939453125</v>
+        <v>4094.129638671875</v>
       </c>
       <c r="C7" t="n">
-        <v>4159.29151008459</v>
+        <v>4159.291758110955</v>
       </c>
       <c r="D7" t="n">
-        <v>4078.116765887775</v>
+        <v>4078.117009073536</v>
       </c>
       <c r="E7" t="n">
-        <v>4156.437156868367</v>
+        <v>4156.437404724521</v>
       </c>
       <c r="F7" t="n">
         <v>225477</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>4148.16552734375</v>
+        <v>4148.1650390625</v>
       </c>
       <c r="C10" t="n">
-        <v>4153.970607759908</v>
+        <v>4153.970118795341</v>
       </c>
       <c r="D10" t="n">
-        <v>4011.794324266704</v>
+        <v>4011.793852037731</v>
       </c>
       <c r="E10" t="n">
-        <v>4135.055437286067</v>
+        <v>4135.054950548008</v>
       </c>
       <c r="F10" t="n">
         <v>437340</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>4138.0537109375</v>
+        <v>4138.05419921875</v>
       </c>
       <c r="C11" t="n">
-        <v>4169.449701382563</v>
+        <v>4169.450193368471</v>
       </c>
       <c r="D11" t="n">
-        <v>4074.875291692561</v>
+        <v>4074.875772518896</v>
       </c>
       <c r="E11" t="n">
-        <v>4158.855243503587</v>
+        <v>4158.855734239372</v>
       </c>
       <c r="F11" t="n">
         <v>347903</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>4135.3935546875</v>
+        <v>4135.39404296875</v>
       </c>
       <c r="C12" t="n">
-        <v>4165.096400759433</v>
+        <v>4165.096892547808</v>
       </c>
       <c r="D12" t="n">
-        <v>4109.560761658498</v>
+        <v>4109.561246889574</v>
       </c>
       <c r="E12" t="n">
-        <v>4141.924269197447</v>
+        <v>4141.924758249803</v>
       </c>
       <c r="F12" t="n">
         <v>225154</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>4226.92041015625</v>
+        <v>4226.9208984375</v>
       </c>
       <c r="C16" t="n">
-        <v>4258.025867053073</v>
+        <v>4258.026358927533</v>
       </c>
       <c r="D16" t="n">
-        <v>3987.122153630019</v>
+        <v>3987.122614210489</v>
       </c>
       <c r="E16" t="n">
-        <v>4005.45671891662</v>
+        <v>4005.457181615045</v>
       </c>
       <c r="F16" t="n">
         <v>1266347</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>4362.953125</v>
+        <v>4362.95361328125</v>
       </c>
       <c r="C17" t="n">
-        <v>4397.299847821886</v>
+        <v>4397.300339947061</v>
       </c>
       <c r="D17" t="n">
-        <v>4232.677078671673</v>
+        <v>4232.677552373038</v>
       </c>
       <c r="E17" t="n">
-        <v>4249.028431696419</v>
+        <v>4249.028907227752</v>
       </c>
       <c r="F17" t="n">
         <v>1009385</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>4265.10791015625</v>
+        <v>4265.107421875</v>
       </c>
       <c r="C21" t="n">
-        <v>4352.440034694007</v>
+        <v>4352.439536414737</v>
       </c>
       <c r="D21" t="n">
-        <v>4242.018008456487</v>
+        <v>4242.017522818633</v>
       </c>
       <c r="E21" t="n">
-        <v>4342.96952809408</v>
+        <v>4342.969030899018</v>
       </c>
       <c r="F21" t="n">
         <v>486171</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>4284.1953125</v>
+        <v>4284.19482421875</v>
       </c>
       <c r="C22" t="n">
-        <v>4324.907622023506</v>
+        <v>4324.907129102164</v>
       </c>
       <c r="D22" t="n">
-        <v>4228.495899935548</v>
+        <v>4228.495418002509</v>
       </c>
       <c r="E22" t="n">
-        <v>4288.979191214165</v>
+        <v>4288.978702387683</v>
       </c>
       <c r="F22" t="n">
         <v>363833</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>4395.59375</v>
+        <v>4395.59326171875</v>
       </c>
       <c r="C24" t="n">
-        <v>4530.13062840586</v>
+        <v>4530.130125179681</v>
       </c>
       <c r="D24" t="n">
-        <v>4305.576739497811</v>
+        <v>4305.576261216033</v>
       </c>
       <c r="E24" t="n">
-        <v>4530.13062840586</v>
+        <v>4530.130125179681</v>
       </c>
       <c r="F24" t="n">
         <v>646511</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>4487.220703125</v>
+        <v>4487.2216796875</v>
       </c>
       <c r="C25" t="n">
-        <v>4503.23275161864</v>
+        <v>4503.233731665872</v>
       </c>
       <c r="D25" t="n">
-        <v>4335.110056189981</v>
+        <v>4335.110999648347</v>
       </c>
       <c r="E25" t="n">
-        <v>4383.682034185692</v>
+        <v>4383.682988214871</v>
       </c>
       <c r="F25" t="n">
         <v>528238</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>4485.46435546875</v>
+        <v>4485.4638671875</v>
       </c>
       <c r="C26" t="n">
-        <v>4518.024767785997</v>
+        <v>4518.024275960267</v>
       </c>
       <c r="D26" t="n">
-        <v>4453.636184162898</v>
+        <v>4453.635699346417</v>
       </c>
       <c r="E26" t="n">
-        <v>4473.504418949298</v>
+        <v>4473.503931969989</v>
       </c>
       <c r="F26" t="n">
         <v>312037</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>4584.46240234375</v>
+        <v>4584.462890625</v>
       </c>
       <c r="C28" t="n">
-        <v>4629.226823290881</v>
+        <v>4629.227316339893</v>
       </c>
       <c r="D28" t="n">
-        <v>4551.121129762826</v>
+        <v>4551.121614492969</v>
       </c>
       <c r="E28" t="n">
-        <v>4569.183071391189</v>
+        <v>4569.18355804507</v>
       </c>
       <c r="F28" t="n">
         <v>553507</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>4526.859375</v>
+        <v>4526.8603515625</v>
       </c>
       <c r="C31" t="n">
-        <v>4603.354232618661</v>
+        <v>4603.355225683111</v>
       </c>
       <c r="D31" t="n">
-        <v>4515.583056379826</v>
+        <v>4515.584030509727</v>
       </c>
       <c r="E31" t="n">
-        <v>4520.366934681739</v>
+        <v>4520.367909843649</v>
       </c>
       <c r="F31" t="n">
         <v>318114</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>4630.544921875</v>
+        <v>4630.54541015625</v>
       </c>
       <c r="C32" t="n">
-        <v>4636.549201681766</v>
+        <v>4636.549690596155</v>
       </c>
       <c r="D32" t="n">
-        <v>4478.385173323702</v>
+        <v>4478.385645560026</v>
       </c>
       <c r="E32" t="n">
-        <v>4544.579557467313</v>
+        <v>4544.580036683697</v>
       </c>
       <c r="F32" t="n">
         <v>488248</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>4691.51611328125</v>
+        <v>4691.5166015625</v>
       </c>
       <c r="C37" t="n">
-        <v>4700.986619692978</v>
+        <v>4700.987108959895</v>
       </c>
       <c r="D37" t="n">
-        <v>4645.336310799416</v>
+        <v>4645.336794274388</v>
       </c>
       <c r="E37" t="n">
-        <v>4700.986619692978</v>
+        <v>4700.987108959895</v>
       </c>
       <c r="F37" t="n">
         <v>411601</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>4661.9345703125</v>
+        <v>4661.93359375</v>
       </c>
       <c r="C40" t="n">
-        <v>4723.15011127432</v>
+        <v>4723.149121888645</v>
       </c>
       <c r="D40" t="n">
-        <v>4567.865910392781</v>
+        <v>4567.86495353539</v>
       </c>
       <c r="E40" t="n">
-        <v>4689.808354909008</v>
+        <v>4689.807372507625</v>
       </c>
       <c r="F40" t="n">
         <v>479625</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>4631.47265625</v>
+        <v>4631.47216796875</v>
       </c>
       <c r="C42" t="n">
-        <v>4657.052464246608</v>
+        <v>4657.051973268561</v>
       </c>
       <c r="D42" t="n">
-        <v>4597.887299860105</v>
+        <v>4597.88681511965</v>
       </c>
       <c r="E42" t="n">
-        <v>4610.237668598561</v>
+        <v>4610.237182556048</v>
       </c>
       <c r="F42" t="n">
         <v>290531</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>4598.81494140625</v>
+        <v>4598.814453125</v>
       </c>
       <c r="C44" t="n">
-        <v>4644.360232831685</v>
+        <v>4644.359739714643</v>
       </c>
       <c r="D44" t="n">
-        <v>4575.090048761679</v>
+        <v>4575.089562999431</v>
       </c>
       <c r="E44" t="n">
-        <v>4617.120965027354</v>
+        <v>4617.120474802454</v>
       </c>
       <c r="F44" t="n">
         <v>297149</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>4707.04052734375</v>
+        <v>4707.0400390625</v>
       </c>
       <c r="C45" t="n">
-        <v>4730.276784016071</v>
+        <v>4730.276293324427</v>
       </c>
       <c r="D45" t="n">
-        <v>4642.407865427538</v>
+        <v>4642.407383850908</v>
       </c>
       <c r="E45" t="n">
-        <v>4648.217167955315</v>
+        <v>4648.216685776061</v>
       </c>
       <c r="F45" t="n">
         <v>385377</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>4668.2314453125</v>
+        <v>4668.23193359375</v>
       </c>
       <c r="C46" t="n">
-        <v>4684.535724204125</v>
+        <v>4684.536214190747</v>
       </c>
       <c r="D46" t="n">
-        <v>4613.117919899187</v>
+        <v>4613.118402415748</v>
       </c>
       <c r="E46" t="n">
-        <v>4663.8866250494</v>
+        <v>4663.887112876197</v>
       </c>
       <c r="F46" t="n">
         <v>191475</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>4625.8095703125</v>
+        <v>4625.81005859375</v>
       </c>
       <c r="C47" t="n">
-        <v>4704.891582806235</v>
+        <v>4704.892079435052</v>
       </c>
       <c r="D47" t="n">
-        <v>4608.235789758337</v>
+        <v>4608.236276184572</v>
       </c>
       <c r="E47" t="n">
-        <v>4666.815058272214</v>
+        <v>4666.815550881833</v>
       </c>
       <c r="F47" t="n">
         <v>225194</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>4563.4228515625</v>
+        <v>4563.42333984375</v>
       </c>
       <c r="C55" t="n">
-        <v>4612.043454879969</v>
+        <v>4612.04394836357</v>
       </c>
       <c r="D55" t="n">
-        <v>4537.20853294475</v>
+        <v>4537.209018421097</v>
       </c>
       <c r="E55" t="n">
-        <v>4582.851547397419</v>
+        <v>4582.852037757519</v>
       </c>
       <c r="F55" t="n">
         <v>332833</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>4511.14111328125</v>
+        <v>4511.140625</v>
       </c>
       <c r="C61" t="n">
-        <v>4552.537517054147</v>
+        <v>4552.537024292193</v>
       </c>
       <c r="D61" t="n">
-        <v>4441.139163324828</v>
+        <v>4441.138682620516</v>
       </c>
       <c r="E61" t="n">
-        <v>4458.85929926663</v>
+        <v>4458.858816644309</v>
       </c>
       <c r="F61" t="n">
         <v>333288</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>4646.94775390625</v>
+        <v>4646.947265625</v>
       </c>
       <c r="C62" t="n">
-        <v>4664.570640061633</v>
+        <v>4664.570149928646</v>
       </c>
       <c r="D62" t="n">
-        <v>4522.320430646498</v>
+        <v>4522.31995546055</v>
       </c>
       <c r="E62" t="n">
-        <v>4530.131001338461</v>
+        <v>4530.130525331811</v>
       </c>
       <c r="F62" t="n">
         <v>328337</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>4627.61669921875</v>
+        <v>4627.6162109375</v>
       </c>
       <c r="C63" t="n">
-        <v>4665.839583513826</v>
+        <v>4665.839091199503</v>
       </c>
       <c r="D63" t="n">
-        <v>4588.710199312614</v>
+        <v>4588.709715136569</v>
       </c>
       <c r="E63" t="n">
-        <v>4647.289478452775</v>
+        <v>4647.288988095759</v>
       </c>
       <c r="F63" t="n">
         <v>257102</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>4719.00048828125</v>
+        <v>4719</v>
       </c>
       <c r="C64" t="n">
-        <v>4733.205772839948</v>
+        <v>4733.205283088859</v>
       </c>
       <c r="D64" t="n">
-        <v>4599.254296666702</v>
+        <v>4599.25382077575</v>
       </c>
       <c r="E64" t="n">
-        <v>4626.786748656871</v>
+        <v>4626.7862699171</v>
       </c>
       <c r="F64" t="n">
         <v>430407</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>4683.80322265625</v>
+        <v>4683.8037109375</v>
       </c>
       <c r="C66" t="n">
-        <v>4694.640483304199</v>
+        <v>4694.640972715221</v>
       </c>
       <c r="D66" t="n">
-        <v>4641.430977982356</v>
+        <v>4641.431461846348</v>
       </c>
       <c r="E66" t="n">
-        <v>4670.720613939334</v>
+        <v>4670.721100856736</v>
       </c>
       <c r="F66" t="n">
         <v>220328</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>4659.39501953125</v>
+        <v>4659.3955078125</v>
       </c>
       <c r="C67" t="n">
-        <v>4686.3415789541</v>
+        <v>4686.342070059214</v>
       </c>
       <c r="D67" t="n">
-        <v>4614.289267865407</v>
+        <v>4614.2897514198</v>
       </c>
       <c r="E67" t="n">
-        <v>4686.3415789541</v>
+        <v>4686.342070059214</v>
       </c>
       <c r="F67" t="n">
         <v>186260</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>4536.37939453125</v>
+        <v>4536.37890625</v>
       </c>
       <c r="C69" t="n">
-        <v>4676.579234784323</v>
+        <v>4676.578731412415</v>
       </c>
       <c r="D69" t="n">
-        <v>4506.259785744133</v>
+        <v>4506.259300704862</v>
       </c>
       <c r="E69" t="n">
-        <v>4676.579234784323</v>
+        <v>4676.578731412415</v>
       </c>
       <c r="F69" t="n">
         <v>912484</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>4230.009765625</v>
+        <v>4230.00927734375</v>
       </c>
       <c r="C70" t="n">
-        <v>4383.682643115506</v>
+        <v>4383.682137095388</v>
       </c>
       <c r="D70" t="n">
-        <v>4082.780227347975</v>
+        <v>4082.779756061821</v>
       </c>
       <c r="E70" t="n">
-        <v>4375.87207270461</v>
+        <v>4375.871567586087</v>
       </c>
       <c r="F70" t="n">
         <v>1763639</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>4095.228515625</v>
+        <v>4095.22802734375</v>
       </c>
       <c r="C72" t="n">
-        <v>4256.761073183929</v>
+        <v>4256.76056564287</v>
       </c>
       <c r="D72" t="n">
-        <v>4079.119213398501</v>
+        <v>4079.118727037991</v>
       </c>
       <c r="E72" t="n">
-        <v>4216.341464759504</v>
+        <v>4216.340962037745</v>
       </c>
       <c r="F72" t="n">
         <v>823131</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>4072.089111328125</v>
+        <v>4072.08935546875</v>
       </c>
       <c r="C74" t="n">
-        <v>4114.119545606087</v>
+        <v>4114.119792266632</v>
       </c>
       <c r="D74" t="n">
-        <v>4034.354394710925</v>
+        <v>4034.354636589179</v>
       </c>
       <c r="E74" t="n">
-        <v>4063.594926744899</v>
+        <v>4063.595170376258</v>
       </c>
       <c r="F74" t="n">
         <v>480473</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>4084.3916015625</v>
+        <v>4084.391357421875</v>
       </c>
       <c r="C75" t="n">
-        <v>4112.558090163617</v>
+        <v>4112.557844339366</v>
       </c>
       <c r="D75" t="n">
-        <v>4049.976275161244</v>
+        <v>4049.976033077762</v>
       </c>
       <c r="E75" t="n">
-        <v>4099.573207343949</v>
+        <v>4099.572962295858</v>
       </c>
       <c r="F75" t="n">
         <v>280999</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>4061.642822265625</v>
+        <v>4061.642578125</v>
       </c>
       <c r="C77" t="n">
-        <v>4117.195406996263</v>
+        <v>4117.195159516436</v>
       </c>
       <c r="D77" t="n">
-        <v>4054.710845928271</v>
+        <v>4054.710602204319</v>
       </c>
       <c r="E77" t="n">
-        <v>4081.022894753243</v>
+        <v>4081.022649447705</v>
       </c>
       <c r="F77" t="n">
         <v>496132</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>4440.552734375</v>
+        <v>4440.55322265625</v>
       </c>
       <c r="C80" t="n">
-        <v>4505.722172075111</v>
+        <v>4505.722667522365</v>
       </c>
       <c r="D80" t="n">
-        <v>4319.293455112684</v>
+        <v>4319.293930060316</v>
       </c>
       <c r="E80" t="n">
-        <v>4326.03045252006</v>
+        <v>4326.03092820849</v>
       </c>
       <c r="F80" t="n">
         <v>757405</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>4391.4931640625</v>
+        <v>4391.4921875</v>
       </c>
       <c r="C81" t="n">
-        <v>4436.403943419297</v>
+        <v>4436.40295686972</v>
       </c>
       <c r="D81" t="n">
-        <v>4352.87984771631</v>
+        <v>4352.878879740483</v>
       </c>
       <c r="E81" t="n">
-        <v>4430.790095999698</v>
+        <v>4430.789110698505</v>
       </c>
       <c r="F81" t="n">
         <v>404872</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>4410.8232421875</v>
+        <v>4410.82373046875</v>
       </c>
       <c r="C84" t="n">
-        <v>4427.616155670701</v>
+        <v>4427.616645810938</v>
       </c>
       <c r="D84" t="n">
-        <v>4383.68170649646</v>
+        <v>4383.682191773123</v>
       </c>
       <c r="E84" t="n">
-        <v>4412.971339279287</v>
+        <v>4412.971827798333</v>
       </c>
       <c r="F84" t="n">
         <v>172189</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>4485.90380859375</v>
+        <v>4485.9033203125</v>
       </c>
       <c r="C86" t="n">
-        <v>4528.178331522838</v>
+        <v>4528.177838640095</v>
       </c>
       <c r="D86" t="n">
-        <v>4463.204337656298</v>
+        <v>4463.203851845838</v>
       </c>
       <c r="E86" t="n">
-        <v>4528.129706144065</v>
+        <v>4528.129213266615</v>
       </c>
       <c r="F86" t="n">
         <v>246174</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>4869.35302734375</v>
+        <v>4869.353515625</v>
       </c>
       <c r="C94" t="n">
-        <v>4896.640916990027</v>
+        <v>4896.641408007608</v>
       </c>
       <c r="D94" t="n">
-        <v>4696.104651538461</v>
+        <v>4696.105122446986</v>
       </c>
       <c r="E94" t="n">
-        <v>4702.938899472093</v>
+        <v>4702.939371065931</v>
       </c>
       <c r="F94" t="n">
         <v>569846</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>4712.06787109375</v>
+        <v>4712.068359375</v>
       </c>
       <c r="C96" t="n">
-        <v>4763.275631481926</v>
+        <v>4763.276125069508</v>
       </c>
       <c r="D96" t="n">
-        <v>4668.57247604402</v>
+        <v>4668.572959818122</v>
       </c>
       <c r="E96" t="n">
-        <v>4714.6550269036</v>
+        <v>4714.655515452941</v>
       </c>
       <c r="F96" t="n">
         <v>501671</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>4794.2744140625</v>
+        <v>4794.27392578125</v>
       </c>
       <c r="C97" t="n">
-        <v>4807.6502066859</v>
+        <v>4807.649717042369</v>
       </c>
       <c r="D97" t="n">
-        <v>4678.092178271137</v>
+        <v>4678.091701822669</v>
       </c>
       <c r="E97" t="n">
-        <v>4735.158349479944</v>
+        <v>4735.157867219473</v>
       </c>
       <c r="F97" t="n">
         <v>289085</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>4870.76904296875</v>
+        <v>4870.7685546875</v>
       </c>
       <c r="C99" t="n">
-        <v>4935.011267965066</v>
+        <v>4935.010773243708</v>
       </c>
       <c r="D99" t="n">
-        <v>4858.370048987427</v>
+        <v>4858.369561949142</v>
       </c>
       <c r="E99" t="n">
-        <v>4923.588118525238</v>
+        <v>4923.58762494902</v>
       </c>
       <c r="F99" t="n">
         <v>303516</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>4880.0439453125</v>
+        <v>4880.04345703125</v>
       </c>
       <c r="C101" t="n">
-        <v>4908.699068784024</v>
+        <v>4908.698577635636</v>
       </c>
       <c r="D101" t="n">
-        <v>4834.205949552173</v>
+        <v>4834.205465857324</v>
       </c>
       <c r="E101" t="n">
-        <v>4870.915246459479</v>
+        <v>4870.914759091617</v>
       </c>
       <c r="F101" t="n">
         <v>512681</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>4851.63330078125</v>
+        <v>4851.6328125</v>
       </c>
       <c r="C102" t="n">
-        <v>4920.659408166904</v>
+        <v>4920.658912938682</v>
       </c>
       <c r="D102" t="n">
-        <v>4840.161525375305</v>
+        <v>4840.161038248605</v>
       </c>
       <c r="E102" t="n">
-        <v>4899.912580305088</v>
+        <v>4899.912087164884</v>
       </c>
       <c r="F102" t="n">
         <v>320472</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>4826.15185546875</v>
+        <v>4826.1513671875</v>
       </c>
       <c r="C104" t="n">
-        <v>4910.847732010211</v>
+        <v>4910.847235159938</v>
       </c>
       <c r="D104" t="n">
-        <v>4813.3619505261</v>
+        <v>4813.361463538857</v>
       </c>
       <c r="E104" t="n">
-        <v>4891.369930521271</v>
+        <v>4891.369435641645</v>
       </c>
       <c r="F104" t="n">
         <v>156817</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>4769.1826171875</v>
+        <v>4769.18310546875</v>
       </c>
       <c r="C105" t="n">
-        <v>4799.058140675201</v>
+        <v>4799.058632015184</v>
       </c>
       <c r="D105" t="n">
-        <v>4686.341669621267</v>
+        <v>4686.342149421046</v>
       </c>
       <c r="E105" t="n">
-        <v>4774.210575926666</v>
+        <v>4774.211064722691</v>
       </c>
       <c r="F105" t="n">
         <v>920055</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>4708.84619140625</v>
+        <v>4708.845703125</v>
       </c>
       <c r="C108" t="n">
-        <v>4721.733823079196</v>
+        <v>4721.73333346157</v>
       </c>
       <c r="D108" t="n">
-        <v>4663.00819302463</v>
+        <v>4663.007709496526</v>
       </c>
       <c r="E108" t="n">
-        <v>4698.058031875335</v>
+        <v>4698.057544712758</v>
       </c>
       <c r="F108" t="n">
         <v>274316</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>4783.33984375</v>
+        <v>4783.33935546875</v>
       </c>
       <c r="C109" t="n">
-        <v>4821.07456655055</v>
+        <v>4821.074074417356</v>
       </c>
       <c r="D109" t="n">
-        <v>4677.408982982334</v>
+        <v>4677.408505514461</v>
       </c>
       <c r="E109" t="n">
-        <v>4708.846242726914</v>
+        <v>4708.845762049939</v>
       </c>
       <c r="F109" t="n">
         <v>337136</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>4853.43896484375</v>
+        <v>4853.439453125</v>
       </c>
       <c r="C112" t="n">
-        <v>4901.132350088376</v>
+        <v>4901.132843167829</v>
       </c>
       <c r="D112" t="n">
-        <v>4765.472330706465</v>
+        <v>4765.472810137814</v>
       </c>
       <c r="E112" t="n">
-        <v>4787.24457916973</v>
+        <v>4787.24506079148</v>
       </c>
       <c r="F112" t="n">
         <v>452221</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>4891.95556640625</v>
+        <v>4891.955078125</v>
       </c>
       <c r="C113" t="n">
-        <v>4972.404345611438</v>
+        <v>4972.403849300345</v>
       </c>
       <c r="D113" t="n">
-        <v>4834.840770761587</v>
+        <v>4834.840288181142</v>
       </c>
       <c r="E113" t="n">
-        <v>4881.94827315227</v>
+        <v>4881.94778586988</v>
       </c>
       <c r="F113" t="n">
         <v>689468</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>4930.37353515625</v>
+        <v>4930.3740234375</v>
       </c>
       <c r="C114" t="n">
-        <v>5022.196355200749</v>
+        <v>5022.196852575705</v>
       </c>
       <c r="D114" t="n">
-        <v>4888.440348073514</v>
+        <v>4888.440832201896</v>
       </c>
       <c r="E114" t="n">
-        <v>4892.345632953141</v>
+        <v>4892.346117468284</v>
       </c>
       <c r="F114" t="n">
         <v>770658</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>4903.23193359375</v>
+        <v>4903.2314453125</v>
       </c>
       <c r="C115" t="n">
-        <v>4950.290811058043</v>
+        <v>4950.290318090502</v>
       </c>
       <c r="D115" t="n">
-        <v>4839.917401788078</v>
+        <v>4839.916919811913</v>
       </c>
       <c r="E115" t="n">
-        <v>4947.996360653484</v>
+        <v>4947.995867914433</v>
       </c>
       <c r="F115" t="n">
         <v>372934</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>4882.0947265625</v>
+        <v>4882.09423828125</v>
       </c>
       <c r="C116" t="n">
-        <v>4957.759628334042</v>
+        <v>4957.759132485189</v>
       </c>
       <c r="D116" t="n">
-        <v>4850.706091687603</v>
+        <v>4850.705606545678</v>
       </c>
       <c r="E116" t="n">
-        <v>4925.541024999063</v>
+        <v>4925.540532372544</v>
       </c>
       <c r="F116" t="n">
         <v>335601</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>4907.0390625</v>
+        <v>4907.03955078125</v>
       </c>
       <c r="C117" t="n">
-        <v>4918.315858589071</v>
+        <v>4918.316347992433</v>
       </c>
       <c r="D117" t="n">
-        <v>4853.292770186576</v>
+        <v>4853.293253119732</v>
       </c>
       <c r="E117" t="n">
-        <v>4905.818660978629</v>
+        <v>4905.819149138441</v>
       </c>
       <c r="F117" t="n">
         <v>248629</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>4839.28271484375</v>
+        <v>4839.2822265625</v>
       </c>
       <c r="C118" t="n">
-        <v>4892.248143601617</v>
+        <v>4892.247649976181</v>
       </c>
       <c r="D118" t="n">
-        <v>4794.567391483381</v>
+        <v>4794.566907713886</v>
       </c>
       <c r="E118" t="n">
-        <v>4881.557711754922</v>
+        <v>4881.557219208145</v>
       </c>
       <c r="F118" t="n">
         <v>263039</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>4888.73291015625</v>
+        <v>4888.7333984375</v>
       </c>
       <c r="C119" t="n">
-        <v>4900.009705946551</v>
+        <v>4900.010195354115</v>
       </c>
       <c r="D119" t="n">
-        <v>4809.406813368844</v>
+        <v>4809.407293727092</v>
       </c>
       <c r="E119" t="n">
-        <v>4837.573775079685</v>
+        <v>4837.574258251218</v>
       </c>
       <c r="F119" t="n">
         <v>234908</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>5040.794921875</v>
+        <v>5040.79541015625</v>
       </c>
       <c r="C120" t="n">
-        <v>5071.402686480028</v>
+        <v>5071.403177726127</v>
       </c>
       <c r="D120" t="n">
-        <v>4861.542733031985</v>
+        <v>4861.543203949807</v>
       </c>
       <c r="E120" t="n">
-        <v>4896.250760597341</v>
+        <v>4896.251234877188</v>
       </c>
       <c r="F120" t="n">
         <v>771183</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>5074.13671875</v>
+        <v>5074.13623046875</v>
       </c>
       <c r="C122" t="n">
-        <v>5106.159863342887</v>
+        <v>5106.159371980068</v>
       </c>
       <c r="D122" t="n">
-        <v>4992.906604423618</v>
+        <v>4992.906123959096</v>
       </c>
       <c r="E122" t="n">
-        <v>5003.646137596998</v>
+        <v>5003.645656099015</v>
       </c>
       <c r="F122" t="n">
         <v>581634</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>5087.95166015625</v>
+        <v>5087.951171875</v>
       </c>
       <c r="C123" t="n">
-        <v>5106.159955475789</v>
+        <v>5106.159465447123</v>
       </c>
       <c r="D123" t="n">
-        <v>5015.362082462549</v>
+        <v>5015.361601147585</v>
       </c>
       <c r="E123" t="n">
-        <v>5102.254670615004</v>
+        <v>5102.254180961121</v>
       </c>
       <c r="F123" t="n">
         <v>364676</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>5055.58642578125</v>
+        <v>5055.58740234375</v>
       </c>
       <c r="C126" t="n">
-        <v>5140.330911854969</v>
+        <v>5140.33190478714</v>
       </c>
       <c r="D126" t="n">
-        <v>5047.580401574585</v>
+        <v>5047.581376590601</v>
       </c>
       <c r="E126" t="n">
-        <v>5130.567700246507</v>
+        <v>5130.568691292768</v>
       </c>
       <c r="F126" t="n">
         <v>415786</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>4917.87109375</v>
+        <v>4917.87158203125</v>
       </c>
       <c r="C128" t="n">
-        <v>5017.502817674203</v>
+        <v>5017.5033158476</v>
       </c>
       <c r="D128" t="n">
-        <v>4882.74149371627</v>
+        <v>4882.741978509604</v>
       </c>
       <c r="E128" t="n">
-        <v>5017.502817674203</v>
+        <v>5017.5033158476</v>
       </c>
       <c r="F128" t="n">
         <v>560058</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>4845.5458984375</v>
+        <v>4845.54638671875</v>
       </c>
       <c r="C129" t="n">
-        <v>4942.963585180722</v>
+        <v>4942.964083278664</v>
       </c>
       <c r="D129" t="n">
-        <v>4836.443740837754</v>
+        <v>4836.444228201788</v>
       </c>
       <c r="E129" t="n">
-        <v>4917.871150716559</v>
+        <v>4917.871646285959</v>
       </c>
       <c r="F129" t="n">
         <v>537188</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>5052.7802734375</v>
+        <v>5052.77978515625</v>
       </c>
       <c r="C133" t="n">
-        <v>5211.354532109733</v>
+        <v>5211.354028504476</v>
       </c>
       <c r="D133" t="n">
-        <v>4998.806839712508</v>
+        <v>4998.806356647043</v>
       </c>
       <c r="E133" t="n">
-        <v>5043.08760896193</v>
+        <v>5043.087121617341</v>
       </c>
       <c r="F133" t="n">
         <v>1526990</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>4790.83447265625</v>
+        <v>4790.8349609375</v>
       </c>
       <c r="C139" t="n">
-        <v>4820.699485959024</v>
+        <v>4820.699977284113</v>
       </c>
       <c r="D139" t="n">
-        <v>4774.942693532591</v>
+        <v>4774.943180194153</v>
       </c>
       <c r="E139" t="n">
-        <v>4811.843332586166</v>
+        <v>4811.843823008637</v>
       </c>
       <c r="F139" t="n">
         <v>283808</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>4782.8642578125</v>
+        <v>4782.86376953125</v>
       </c>
       <c r="C140" t="n">
-        <v>4858.584567979245</v>
+        <v>4858.58407196773</v>
       </c>
       <c r="D140" t="n">
-        <v>4777.403154944654</v>
+        <v>4777.402667220927</v>
       </c>
       <c r="E140" t="n">
-        <v>4810.859737286182</v>
+        <v>4810.859246146882</v>
       </c>
       <c r="F140" t="n">
         <v>384319</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>4784.73388671875</v>
+        <v>4784.734375</v>
       </c>
       <c r="C141" t="n">
-        <v>4820.552011166645</v>
+        <v>4820.552503103128</v>
       </c>
       <c r="D141" t="n">
-        <v>4760.280966983191</v>
+        <v>4760.281452769025</v>
       </c>
       <c r="E141" t="n">
-        <v>4811.843364197376</v>
+        <v>4811.843855245143</v>
       </c>
       <c r="F141" t="n">
         <v>406914</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>4766.6279296875</v>
+        <v>4766.62744140625</v>
       </c>
       <c r="C142" t="n">
-        <v>4815.287768378046</v>
+        <v>4815.287275112206</v>
       </c>
       <c r="D142" t="n">
-        <v>4736.172888162526</v>
+        <v>4736.172403001013</v>
       </c>
       <c r="E142" t="n">
-        <v>4792.163366098106</v>
+        <v>4792.162875201071</v>
       </c>
       <c r="F142" t="n">
         <v>217121</v>
@@ -3281,16 +3281,16 @@
         <v>45138</v>
       </c>
       <c r="B143" t="n">
-        <v>4813.466796875</v>
+        <v>4813.46728515625</v>
       </c>
       <c r="C143" t="n">
-        <v>4825.619503261048</v>
+        <v>4825.619992775076</v>
       </c>
       <c r="D143" t="n">
-        <v>4724.265749420125</v>
+        <v>4724.266228652761</v>
       </c>
       <c r="E143" t="n">
-        <v>4763.035924211434</v>
+        <v>4763.036407376942</v>
       </c>
       <c r="F143" t="n">
         <v>343283</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>4897.89599609375</v>
+        <v>4897.896484375</v>
       </c>
       <c r="C144" t="n">
-        <v>4918.806358997032</v>
+        <v>4918.806849362878</v>
       </c>
       <c r="D144" t="n">
-        <v>4821.683681227191</v>
+        <v>4821.68416191068</v>
       </c>
       <c r="E144" t="n">
-        <v>4850.220176483434</v>
+        <v>4850.220660011783</v>
       </c>
       <c r="F144" t="n">
         <v>442346</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>4966.38330078125</v>
+        <v>4966.3828125</v>
       </c>
       <c r="C148" t="n">
-        <v>4978.437510228136</v>
+        <v>4978.437020761749</v>
       </c>
       <c r="D148" t="n">
-        <v>4852.040802314186</v>
+        <v>4852.040325274778</v>
       </c>
       <c r="E148" t="n">
-        <v>4876.788736226048</v>
+        <v>4876.788256753491</v>
       </c>
       <c r="F148" t="n">
         <v>451430</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>5025.72021484375</v>
+        <v>5025.7197265625</v>
       </c>
       <c r="C152" t="n">
-        <v>5089.28782044433</v>
+        <v>5089.287325987076</v>
       </c>
       <c r="D152" t="n">
-        <v>5013.61651530494</v>
+        <v>5013.616028199642</v>
       </c>
       <c r="E152" t="n">
-        <v>5033.247850137092</v>
+        <v>5033.247361124482</v>
       </c>
       <c r="F152" t="n">
         <v>353239</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>5110.2958984375</v>
+        <v>5110.29541015625</v>
       </c>
       <c r="C153" t="n">
-        <v>5120.776065108904</v>
+        <v>5120.775575826289</v>
       </c>
       <c r="D153" t="n">
-        <v>4984.046694593526</v>
+        <v>4984.046218375202</v>
       </c>
       <c r="E153" t="n">
-        <v>5008.647122503662</v>
+        <v>5008.646643934802</v>
       </c>
       <c r="F153" t="n">
         <v>396400</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>5003.87451171875</v>
+        <v>5003.8740234375</v>
       </c>
       <c r="C156" t="n">
-        <v>5032.263501442764</v>
+        <v>5032.263010391298</v>
       </c>
       <c r="D156" t="n">
-        <v>4931.500245456108</v>
+        <v>4931.499764237185</v>
       </c>
       <c r="E156" t="n">
-        <v>5018.487261900293</v>
+        <v>5018.48677219312</v>
       </c>
       <c r="F156" t="n">
         <v>338124</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>5057.74951171875</v>
+        <v>5057.7490234375</v>
       </c>
       <c r="C158" t="n">
-        <v>5087.368523200698</v>
+        <v>5087.368032059993</v>
       </c>
       <c r="D158" t="n">
-        <v>5027.343478729666</v>
+        <v>5027.342993383851</v>
       </c>
       <c r="E158" t="n">
-        <v>5087.368523200698</v>
+        <v>5087.368032059993</v>
       </c>
       <c r="F158" t="n">
         <v>175355</v>
@@ -3621,16 +3621,16 @@
         <v>45162</v>
       </c>
       <c r="B160" t="n">
-        <v>5087.51611328125</v>
+        <v>5087.515625</v>
       </c>
       <c r="C160" t="n">
-        <v>5146.311137315418</v>
+        <v>5146.310643391236</v>
       </c>
       <c r="D160" t="n">
-        <v>5038.413754158179</v>
+        <v>5038.413270589595</v>
       </c>
       <c r="E160" t="n">
-        <v>5135.585446599588</v>
+        <v>5135.584953704819</v>
       </c>
       <c r="F160" t="n">
         <v>296417</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>5045.44873046875</v>
+        <v>5045.44921875</v>
       </c>
       <c r="C161" t="n">
-        <v>5106.94979370943</v>
+        <v>5106.950287942542</v>
       </c>
       <c r="D161" t="n">
-        <v>5022.570334943218</v>
+        <v>5022.570821010375</v>
       </c>
       <c r="E161" t="n">
-        <v>5048.991287806824</v>
+        <v>5048.991776430911</v>
       </c>
       <c r="F161" t="n">
         <v>206278</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>5047.9580078125</v>
+        <v>5047.95849609375</v>
       </c>
       <c r="C162" t="n">
-        <v>5074.427968002286</v>
+        <v>5074.428458843935</v>
       </c>
       <c r="D162" t="n">
-        <v>5014.05843127132</v>
+        <v>5014.058916273516</v>
       </c>
       <c r="E162" t="n">
-        <v>5067.687355715297</v>
+        <v>5067.687845904937</v>
       </c>
       <c r="F162" t="n">
         <v>165824</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>5398.21923828125</v>
+        <v>5398.2197265625</v>
       </c>
       <c r="C170" t="n">
-        <v>5410.076932458835</v>
+        <v>5410.07742181264</v>
       </c>
       <c r="D170" t="n">
-        <v>5267.44346359181</v>
+        <v>5267.443940044092</v>
       </c>
       <c r="E170" t="n">
-        <v>5313.692266653423</v>
+        <v>5313.692747289015</v>
       </c>
       <c r="F170" t="n">
         <v>602474</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>5390.9375</v>
+        <v>5390.93798828125</v>
       </c>
       <c r="C171" t="n">
-        <v>5413.077884001095</v>
+        <v>5413.078374287698</v>
       </c>
       <c r="D171" t="n">
-        <v>5362.893013598613</v>
+        <v>5362.893499339748</v>
       </c>
       <c r="E171" t="n">
-        <v>5412.09386693438</v>
+        <v>5412.094357131856</v>
       </c>
       <c r="F171" t="n">
         <v>244392</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>5450.56884765625</v>
+        <v>5450.5693359375</v>
       </c>
       <c r="C174" t="n">
-        <v>5461.294537228547</v>
+        <v>5461.295026470642</v>
       </c>
       <c r="D174" t="n">
-        <v>5370.125455148424</v>
+        <v>5370.12593622327</v>
       </c>
       <c r="E174" t="n">
-        <v>5410.125651474334</v>
+        <v>5410.126136132539</v>
       </c>
       <c r="F174" t="n">
         <v>247607</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>5425.6240234375</v>
+        <v>5425.62451171875</v>
       </c>
       <c r="C177" t="n">
-        <v>5435.316687500425</v>
+        <v>5435.317176653971</v>
       </c>
       <c r="D177" t="n">
-        <v>5383.655792242123</v>
+        <v>5383.656276746425</v>
       </c>
       <c r="E177" t="n">
-        <v>5431.77413001587</v>
+        <v>5431.774618850601</v>
       </c>
       <c r="F177" t="n">
         <v>184125</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>5350.00244140625</v>
+        <v>5350.001953125</v>
       </c>
       <c r="C183" t="n">
-        <v>5357.973075961778</v>
+        <v>5357.972586953068</v>
       </c>
       <c r="D183" t="n">
-        <v>5290.174394291584</v>
+        <v>5290.173911470688</v>
       </c>
       <c r="E183" t="n">
-        <v>5313.692306738953</v>
+        <v>5313.691821771637</v>
       </c>
       <c r="F183" t="n">
         <v>320128</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>5103.3095703125</v>
+        <v>5103.31005859375</v>
       </c>
       <c r="C187" t="n">
-        <v>5115.904796740298</v>
+        <v>5115.90528622665</v>
       </c>
       <c r="D187" t="n">
-        <v>5044.711064937213</v>
+        <v>5044.711547611797</v>
       </c>
       <c r="E187" t="n">
-        <v>5098.192489307844</v>
+        <v>5098.192977099495</v>
       </c>
       <c r="F187" t="n">
         <v>199894</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>5142.71923828125</v>
+        <v>5142.71875</v>
       </c>
       <c r="C188" t="n">
-        <v>5171.009729187844</v>
+        <v>5171.009238220521</v>
       </c>
       <c r="D188" t="n">
-        <v>5112.313206758799</v>
+        <v>5112.312721364483</v>
       </c>
       <c r="E188" t="n">
-        <v>5134.306084480733</v>
+        <v>5134.305596998279</v>
       </c>
       <c r="F188" t="n">
         <v>283699</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>5155.46240234375</v>
+        <v>5155.462890625</v>
       </c>
       <c r="C189" t="n">
-        <v>5180.800841783252</v>
+        <v>5180.801332464342</v>
       </c>
       <c r="D189" t="n">
-        <v>5133.371027029933</v>
+        <v>5133.371513218878</v>
       </c>
       <c r="E189" t="n">
-        <v>5166.089594461523</v>
+        <v>5166.09008374929</v>
       </c>
       <c r="F189" t="n">
         <v>139350</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>5079.939453125</v>
+        <v>5079.93896484375</v>
       </c>
       <c r="C195" t="n">
-        <v>5109.016967286874</v>
+        <v>5109.016476210708</v>
       </c>
       <c r="D195" t="n">
-        <v>5017.503373689478</v>
+        <v>5017.502891409553</v>
       </c>
       <c r="E195" t="n">
-        <v>5036.642699164941</v>
+        <v>5036.642215045355</v>
       </c>
       <c r="F195" t="n">
         <v>244025</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>5120.87353515625</v>
+        <v>5120.8740234375</v>
       </c>
       <c r="C201" t="n">
-        <v>5210.370074519413</v>
+        <v>5210.370571334262</v>
       </c>
       <c r="D201" t="n">
-        <v>5098.143126578236</v>
+        <v>5098.143612692114</v>
       </c>
       <c r="E201" t="n">
-        <v>5153.248079207714</v>
+        <v>5153.248570575914</v>
       </c>
       <c r="F201" t="n">
         <v>293641</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>5086.576171875</v>
+        <v>5086.57666015625</v>
       </c>
       <c r="C204" t="n">
-        <v>5114.827955851905</v>
+        <v>5114.828446845159</v>
       </c>
       <c r="D204" t="n">
-        <v>5021.230295243586</v>
+        <v>5021.230777252017</v>
       </c>
       <c r="E204" t="n">
-        <v>5108.110849663583</v>
+        <v>5108.111340012036</v>
       </c>
       <c r="F204" t="n">
         <v>276530</v>
@@ -4581,16 +4581,16 @@
         <v>45233</v>
       </c>
       <c r="B208" t="n">
-        <v>5072.49951171875</v>
+        <v>5072.5</v>
       </c>
       <c r="C208" t="n">
-        <v>5085.390606157367</v>
+        <v>5085.39109567952</v>
       </c>
       <c r="D208" t="n">
-        <v>4997.473014092875</v>
+        <v>4997.473495152038</v>
       </c>
       <c r="E208" t="n">
-        <v>5016.241938241475</v>
+        <v>5016.242421107343</v>
       </c>
       <c r="F208" t="n">
         <v>324952</v>
@@ -4661,16 +4661,16 @@
         <v>45239</v>
       </c>
       <c r="B212" t="n">
-        <v>5190.79345703125</v>
+        <v>5190.79296875</v>
       </c>
       <c r="C212" t="n">
-        <v>5200.967997308214</v>
+        <v>5200.967508069877</v>
       </c>
       <c r="D212" t="n">
-        <v>5145.155140357043</v>
+        <v>5145.154656368843</v>
       </c>
       <c r="E212" t="n">
-        <v>5169.752214474031</v>
+        <v>5169.751728172063</v>
       </c>
       <c r="F212" t="n">
         <v>269946</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>5198.15283203125</v>
+        <v>5198.15234375</v>
       </c>
       <c r="C213" t="n">
-        <v>5215.736641885333</v>
+        <v>5215.736151952372</v>
       </c>
       <c r="D213" t="n">
-        <v>5119.224654127728</v>
+        <v>5119.224173260487</v>
       </c>
       <c r="E213" t="n">
-        <v>5177.260149989565</v>
+        <v>5177.25966367084</v>
       </c>
       <c r="F213" t="n">
         <v>229733</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>5197.11572265625</v>
+        <v>5197.115234375</v>
       </c>
       <c r="C214" t="n">
-        <v>5205.858187316223</v>
+        <v>5205.857698213598</v>
       </c>
       <c r="D214" t="n">
-        <v>5152.959161565939</v>
+        <v>5152.958677433302</v>
       </c>
       <c r="E214" t="n">
-        <v>5195.041165938868</v>
+        <v>5195.040677852528</v>
       </c>
       <c r="F214" t="n">
         <v>140187</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>5451.384765625</v>
+        <v>5451.38525390625</v>
       </c>
       <c r="C217" t="n">
-        <v>5480.525990701731</v>
+        <v>5480.526481593164</v>
       </c>
       <c r="D217" t="n">
-        <v>5419.773945202784</v>
+        <v>5419.774430652648</v>
       </c>
       <c r="E217" t="n">
-        <v>5472.623285596176</v>
+        <v>5472.623775779763</v>
       </c>
       <c r="F217" t="n">
         <v>338819</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>5412.6123046875</v>
+        <v>5412.61181640625</v>
       </c>
       <c r="C223" t="n">
-        <v>5423.231565037984</v>
+        <v>5423.231075798752</v>
       </c>
       <c r="D223" t="n">
-        <v>5341.833796122379</v>
+        <v>5341.833314226183</v>
       </c>
       <c r="E223" t="n">
-        <v>5412.316146173001</v>
+        <v>5412.315657918469</v>
       </c>
       <c r="F223" t="n">
         <v>263892</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>5509.22265625</v>
+        <v>5509.22216796875</v>
       </c>
       <c r="C226" t="n">
-        <v>5541.772116789318</v>
+        <v>5541.771625623216</v>
       </c>
       <c r="D226" t="n">
-        <v>5455.435157463347</v>
+        <v>5455.43467394927</v>
       </c>
       <c r="E226" t="n">
-        <v>5531.893735119462</v>
+        <v>5531.893244828879</v>
       </c>
       <c r="F226" t="n">
         <v>195286</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>5639.27197265625</v>
+        <v>5639.271484375</v>
       </c>
       <c r="C231" t="n">
-        <v>5684.020848968021</v>
+        <v>5684.020356812151</v>
       </c>
       <c r="D231" t="n">
-        <v>5517.0761976862</v>
+        <v>5517.075719985377</v>
       </c>
       <c r="E231" t="n">
-        <v>5530.905932111913</v>
+        <v>5530.905453213631</v>
       </c>
       <c r="F231" t="n">
         <v>780096</v>
@@ -5121,16 +5121,16 @@
         <v>45274</v>
       </c>
       <c r="B235" t="n">
-        <v>5872.00634765625</v>
+        <v>5872.005859375</v>
       </c>
       <c r="C235" t="n">
-        <v>5892.45479108383</v>
+        <v>5892.454301102208</v>
       </c>
       <c r="D235" t="n">
-        <v>5721.410705309961</v>
+        <v>5721.410229551351</v>
       </c>
       <c r="E235" t="n">
-        <v>5739.389070924816</v>
+        <v>5739.388593671232</v>
       </c>
       <c r="F235" t="n">
         <v>958532</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>6036.728515625</v>
+        <v>6036.72802734375</v>
       </c>
       <c r="C240" t="n">
-        <v>6073.081251251112</v>
+        <v>6073.080760029468</v>
       </c>
       <c r="D240" t="n">
-        <v>5877.686563410814</v>
+        <v>5877.686087993684</v>
       </c>
       <c r="E240" t="n">
-        <v>5909.692907370455</v>
+        <v>5909.69242936449</v>
       </c>
       <c r="F240" t="n">
         <v>513420</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>6183.57080078125</v>
+        <v>6183.5703125</v>
       </c>
       <c r="C242" t="n">
-        <v>6211.773387666455</v>
+        <v>6211.772897158207</v>
       </c>
       <c r="D242" t="n">
-        <v>6130.622578271424</v>
+        <v>6130.622094171192</v>
       </c>
       <c r="E242" t="n">
-        <v>6164.110195847601</v>
+        <v>6164.109709103043</v>
       </c>
       <c r="F242" t="n">
         <v>271488</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>6210.736328125</v>
+        <v>6210.73583984375</v>
       </c>
       <c r="C243" t="n">
-        <v>6278.699401204673</v>
+        <v>6278.698907580242</v>
       </c>
       <c r="D243" t="n">
-        <v>6178.927746150918</v>
+        <v>6178.927260370424</v>
       </c>
       <c r="E243" t="n">
-        <v>6201.648024034446</v>
+        <v>6201.647536467709</v>
       </c>
       <c r="F243" t="n">
         <v>357171</v>

--- a/src/data/raw/LTIM.NS_data.xlsx
+++ b/src/data/raw/LTIM.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>4207.86083984375</v>
+        <v>4207.85986328125</v>
       </c>
       <c r="C2" t="n">
-        <v>4222.905956774771</v>
+        <v>4222.904976720592</v>
       </c>
       <c r="D2" t="n">
-        <v>4178.351680928333</v>
+        <v>4178.350711214333</v>
       </c>
       <c r="E2" t="n">
-        <v>4193.203106210479</v>
+        <v>4193.202133049753</v>
       </c>
       <c r="F2" t="n">
         <v>191007</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>4138.974609375</v>
+        <v>4138.9736328125</v>
       </c>
       <c r="C3" t="n">
-        <v>4181.593390526138</v>
+        <v>4181.59240390803</v>
       </c>
       <c r="D3" t="n">
-        <v>4126.638812121597</v>
+        <v>4126.637838469643</v>
       </c>
       <c r="E3" t="n">
-        <v>4170.950741915359</v>
+        <v>4170.949757808311</v>
       </c>
       <c r="F3" t="n">
         <v>428917</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>4121.80029296875</v>
+        <v>4121.80078125</v>
       </c>
       <c r="C4" t="n">
-        <v>4159.339619525289</v>
+        <v>4159.340112253564</v>
       </c>
       <c r="D4" t="n">
-        <v>4111.979655173863</v>
+        <v>4111.98014229173</v>
       </c>
       <c r="E4" t="n">
-        <v>4150.631999944985</v>
+        <v>4150.632491641729</v>
       </c>
       <c r="F4" t="n">
         <v>218691</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>4061.233642578125</v>
+        <v>4061.234130859375</v>
       </c>
       <c r="C5" t="n">
-        <v>4140.424695207334</v>
+        <v>4140.425193009707</v>
       </c>
       <c r="D5" t="n">
-        <v>4044.205315188355</v>
+        <v>4044.205801422292</v>
       </c>
       <c r="E5" t="n">
-        <v>4111.93124151926</v>
+        <v>4111.931735895871</v>
       </c>
       <c r="F5" t="n">
         <v>264197</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>4155.7119140625</v>
+        <v>4155.71142578125</v>
       </c>
       <c r="C6" t="n">
-        <v>4186.430464384713</v>
+        <v>4186.429972494143</v>
       </c>
       <c r="D6" t="n">
-        <v>4092.726697500784</v>
+        <v>4092.726216620071</v>
       </c>
       <c r="E6" t="n">
-        <v>4092.726697500784</v>
+        <v>4092.726216620071</v>
       </c>
       <c r="F6" t="n">
         <v>388187</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>4094.129638671875</v>
+        <v>4094.1298828125</v>
       </c>
       <c r="C7" t="n">
-        <v>4159.291758110955</v>
+        <v>4159.29200613732</v>
       </c>
       <c r="D7" t="n">
-        <v>4078.117009073536</v>
+        <v>4078.117252259299</v>
       </c>
       <c r="E7" t="n">
-        <v>4156.437404724521</v>
+        <v>4156.437652580676</v>
       </c>
       <c r="F7" t="n">
         <v>225477</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>4088.22802734375</v>
+        <v>4088.2275390625</v>
       </c>
       <c r="C8" t="n">
-        <v>4159.340264951078</v>
+        <v>4159.339768176474</v>
       </c>
       <c r="D8" t="n">
-        <v>4074.199082509651</v>
+        <v>4074.198595903961</v>
       </c>
       <c r="E8" t="n">
-        <v>4114.640955201861</v>
+        <v>4114.640463765959</v>
       </c>
       <c r="F8" t="n">
         <v>243019</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>4137.23193359375</v>
+        <v>4137.2314453125</v>
       </c>
       <c r="C9" t="n">
-        <v>4155.469653915961</v>
+        <v>4155.469163482273</v>
       </c>
       <c r="D9" t="n">
-        <v>4103.223935333549</v>
+        <v>4103.223451065965</v>
       </c>
       <c r="E9" t="n">
-        <v>4116.769121632693</v>
+        <v>4116.76863576649</v>
       </c>
       <c r="F9" t="n">
         <v>252469</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>4138.05419921875</v>
+        <v>4138.0546875</v>
       </c>
       <c r="C11" t="n">
-        <v>4169.450193368471</v>
+        <v>4169.45068535438</v>
       </c>
       <c r="D11" t="n">
-        <v>4074.875772518896</v>
+        <v>4074.876253345232</v>
       </c>
       <c r="E11" t="n">
-        <v>4158.855734239372</v>
+        <v>4158.856224975158</v>
       </c>
       <c r="F11" t="n">
         <v>347903</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>4134.91015625</v>
+        <v>4134.90966796875</v>
       </c>
       <c r="C13" t="n">
-        <v>4161.516773224993</v>
+        <v>4161.516281801833</v>
       </c>
       <c r="D13" t="n">
-        <v>4117.736794384323</v>
+        <v>4117.736308131032</v>
       </c>
       <c r="E13" t="n">
-        <v>4155.808538975901</v>
+        <v>4155.808048226813</v>
       </c>
       <c r="F13" t="n">
         <v>205896</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>4129.39501953125</v>
+        <v>4129.3955078125</v>
       </c>
       <c r="C15" t="n">
-        <v>4205.780384799575</v>
+        <v>4205.78088211303</v>
       </c>
       <c r="D15" t="n">
-        <v>4068.441680621111</v>
+        <v>4068.44216169492</v>
       </c>
       <c r="E15" t="n">
-        <v>4068.441680621111</v>
+        <v>4068.44216169492</v>
       </c>
       <c r="F15" t="n">
         <v>449630</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>4226.9208984375</v>
+        <v>4226.92041015625</v>
       </c>
       <c r="C16" t="n">
-        <v>4258.026358927533</v>
+        <v>4258.025867053073</v>
       </c>
       <c r="D16" t="n">
-        <v>3987.122614210489</v>
+        <v>3987.122153630019</v>
       </c>
       <c r="E16" t="n">
-        <v>4005.457181615045</v>
+        <v>4005.45671891662</v>
       </c>
       <c r="F16" t="n">
         <v>1266347</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>4362.95361328125</v>
+        <v>4362.953125</v>
       </c>
       <c r="C17" t="n">
-        <v>4397.300339947061</v>
+        <v>4397.299847821886</v>
       </c>
       <c r="D17" t="n">
-        <v>4232.677552373038</v>
+        <v>4232.677078671673</v>
       </c>
       <c r="E17" t="n">
-        <v>4249.028907227752</v>
+        <v>4249.028431696419</v>
       </c>
       <c r="F17" t="n">
         <v>1009385</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>4324.02880859375</v>
+        <v>4324.029296875</v>
       </c>
       <c r="C20" t="n">
-        <v>4338.705078842898</v>
+        <v>4338.705568781433</v>
       </c>
       <c r="D20" t="n">
-        <v>4218.185493319484</v>
+        <v>4218.185969648615</v>
       </c>
       <c r="E20" t="n">
-        <v>4275.529489657238</v>
+        <v>4275.529972461811</v>
       </c>
       <c r="F20" t="n">
         <v>745273</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>4265.107421875</v>
+        <v>4265.10791015625</v>
       </c>
       <c r="C21" t="n">
-        <v>4352.439536414737</v>
+        <v>4352.440034694007</v>
       </c>
       <c r="D21" t="n">
-        <v>4242.017522818633</v>
+        <v>4242.018008456487</v>
       </c>
       <c r="E21" t="n">
-        <v>4342.969030899018</v>
+        <v>4342.96952809408</v>
       </c>
       <c r="F21" t="n">
         <v>486171</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>4284.19482421875</v>
+        <v>4284.1953125</v>
       </c>
       <c r="C22" t="n">
-        <v>4324.907129102164</v>
+        <v>4324.907622023506</v>
       </c>
       <c r="D22" t="n">
-        <v>4228.495418002509</v>
+        <v>4228.495899935548</v>
       </c>
       <c r="E22" t="n">
-        <v>4288.978702387683</v>
+        <v>4288.979191214165</v>
       </c>
       <c r="F22" t="n">
         <v>363833</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>4487.2216796875</v>
+        <v>4487.220703125</v>
       </c>
       <c r="C25" t="n">
-        <v>4503.233731665872</v>
+        <v>4503.23275161864</v>
       </c>
       <c r="D25" t="n">
-        <v>4335.110999648347</v>
+        <v>4335.110056189981</v>
       </c>
       <c r="E25" t="n">
-        <v>4383.682988214871</v>
+        <v>4383.682034185692</v>
       </c>
       <c r="F25" t="n">
         <v>528238</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>4485.4638671875</v>
+        <v>4485.46435546875</v>
       </c>
       <c r="C26" t="n">
-        <v>4518.024275960267</v>
+        <v>4518.024767785997</v>
       </c>
       <c r="D26" t="n">
-        <v>4453.635699346417</v>
+        <v>4453.636184162898</v>
       </c>
       <c r="E26" t="n">
-        <v>4473.503931969989</v>
+        <v>4473.504418949298</v>
       </c>
       <c r="F26" t="n">
         <v>312037</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>4603.0615234375</v>
+        <v>4603.06201171875</v>
       </c>
       <c r="C27" t="n">
-        <v>4615.997778694236</v>
+        <v>4615.998268347732</v>
       </c>
       <c r="D27" t="n">
-        <v>4507.967461910645</v>
+        <v>4507.967940104555</v>
       </c>
       <c r="E27" t="n">
-        <v>4520.366931221808</v>
+        <v>4520.367410731023</v>
       </c>
       <c r="F27" t="n">
         <v>610010</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>4584.462890625</v>
+        <v>4584.46240234375</v>
       </c>
       <c r="C28" t="n">
-        <v>4629.227316339893</v>
+        <v>4629.226823290881</v>
       </c>
       <c r="D28" t="n">
-        <v>4551.121614492969</v>
+        <v>4551.121129762826</v>
       </c>
       <c r="E28" t="n">
-        <v>4569.18355804507</v>
+        <v>4569.183071391189</v>
       </c>
       <c r="F28" t="n">
         <v>553507</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>4526.8603515625</v>
+        <v>4526.85986328125</v>
       </c>
       <c r="C31" t="n">
-        <v>4603.355225683111</v>
+        <v>4603.354729150886</v>
       </c>
       <c r="D31" t="n">
-        <v>4515.584030509727</v>
+        <v>4515.583543444776</v>
       </c>
       <c r="E31" t="n">
-        <v>4520.367909843649</v>
+        <v>4520.367422262693</v>
       </c>
       <c r="F31" t="n">
         <v>318114</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>4743.26123046875</v>
+        <v>4743.26171875</v>
       </c>
       <c r="C34" t="n">
-        <v>4791.784586179539</v>
+        <v>4791.785079455884</v>
       </c>
       <c r="D34" t="n">
-        <v>4719.292735013314</v>
+        <v>4719.293220827197</v>
       </c>
       <c r="E34" t="n">
-        <v>4744.921167243798</v>
+        <v>4744.921655695925</v>
       </c>
       <c r="F34" t="n">
         <v>396974</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>4661.93359375</v>
+        <v>4661.93408203125</v>
       </c>
       <c r="C40" t="n">
-        <v>4723.149121888645</v>
+        <v>4723.149616581482</v>
       </c>
       <c r="D40" t="n">
-        <v>4567.86495353539</v>
+        <v>4567.865431964085</v>
       </c>
       <c r="E40" t="n">
-        <v>4689.807372507625</v>
+        <v>4689.807863708316</v>
       </c>
       <c r="F40" t="n">
         <v>479625</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>4631.47216796875</v>
+        <v>4631.47314453125</v>
       </c>
       <c r="C42" t="n">
-        <v>4657.051973268561</v>
+        <v>4657.052955224654</v>
       </c>
       <c r="D42" t="n">
-        <v>4597.88681511965</v>
+        <v>4597.887784600558</v>
       </c>
       <c r="E42" t="n">
-        <v>4610.237182556048</v>
+        <v>4610.238154641074</v>
       </c>
       <c r="F42" t="n">
         <v>290531</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>4598.814453125</v>
+        <v>4598.81494140625</v>
       </c>
       <c r="C44" t="n">
-        <v>4644.359739714643</v>
+        <v>4644.360232831685</v>
       </c>
       <c r="D44" t="n">
-        <v>4575.089562999431</v>
+        <v>4575.090048761679</v>
       </c>
       <c r="E44" t="n">
-        <v>4617.120474802454</v>
+        <v>4617.120965027354</v>
       </c>
       <c r="F44" t="n">
         <v>297149</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>4707.0400390625</v>
+        <v>4707.04052734375</v>
       </c>
       <c r="C45" t="n">
-        <v>4730.276293324427</v>
+        <v>4730.276784016071</v>
       </c>
       <c r="D45" t="n">
-        <v>4642.407383850908</v>
+        <v>4642.407865427538</v>
       </c>
       <c r="E45" t="n">
-        <v>4648.216685776061</v>
+        <v>4648.217167955315</v>
       </c>
       <c r="F45" t="n">
         <v>385377</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>4668.23193359375</v>
+        <v>4668.2314453125</v>
       </c>
       <c r="C46" t="n">
-        <v>4684.536214190747</v>
+        <v>4684.535724204125</v>
       </c>
       <c r="D46" t="n">
-        <v>4613.118402415748</v>
+        <v>4613.117919899187</v>
       </c>
       <c r="E46" t="n">
-        <v>4663.887112876197</v>
+        <v>4663.8866250494</v>
       </c>
       <c r="F46" t="n">
         <v>191475</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>4530.22802734375</v>
+        <v>4530.228515625</v>
       </c>
       <c r="C48" t="n">
-        <v>4569.183147294122</v>
+        <v>4569.183639774069</v>
       </c>
       <c r="D48" t="n">
-        <v>4491.17517993098</v>
+        <v>4491.175664002999</v>
       </c>
       <c r="E48" t="n">
-        <v>4569.183147294122</v>
+        <v>4569.183639774069</v>
       </c>
       <c r="F48" t="n">
         <v>331578</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>4483.56005859375</v>
+        <v>4483.5595703125</v>
       </c>
       <c r="C51" t="n">
-        <v>4569.183626208529</v>
+        <v>4569.183128602461</v>
       </c>
       <c r="D51" t="n">
-        <v>4457.785271943629</v>
+        <v>4457.784786469377</v>
       </c>
       <c r="E51" t="n">
-        <v>4472.52781873104</v>
+        <v>4472.527331651255</v>
       </c>
       <c r="F51" t="n">
         <v>320108</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>4492.4931640625</v>
+        <v>4492.49365234375</v>
       </c>
       <c r="C58" t="n">
-        <v>4601.401598086541</v>
+        <v>4601.402098204859</v>
       </c>
       <c r="D58" t="n">
-        <v>4480.240047550117</v>
+        <v>4480.240534499598</v>
       </c>
       <c r="E58" t="n">
-        <v>4537.940723086408</v>
+        <v>4537.941216307274</v>
       </c>
       <c r="F58" t="n">
         <v>477503</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>4447.0458984375</v>
+        <v>4447.04541015625</v>
       </c>
       <c r="C60" t="n">
-        <v>4503.233476603348</v>
+        <v>4503.232982152758</v>
       </c>
       <c r="D60" t="n">
-        <v>4409.164821795851</v>
+        <v>4409.164337673906</v>
       </c>
       <c r="E60" t="n">
-        <v>4460.763499056204</v>
+        <v>4460.763009268775</v>
       </c>
       <c r="F60" t="n">
         <v>313376</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>4511.140625</v>
+        <v>4511.14111328125</v>
       </c>
       <c r="C61" t="n">
-        <v>4552.537024292193</v>
+        <v>4552.537517054147</v>
       </c>
       <c r="D61" t="n">
-        <v>4441.138682620516</v>
+        <v>4441.139163324828</v>
       </c>
       <c r="E61" t="n">
-        <v>4458.858816644309</v>
+        <v>4458.85929926663</v>
       </c>
       <c r="F61" t="n">
         <v>333288</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>4646.947265625</v>
+        <v>4646.94775390625</v>
       </c>
       <c r="C62" t="n">
-        <v>4664.570149928646</v>
+        <v>4664.570640061633</v>
       </c>
       <c r="D62" t="n">
-        <v>4522.31995546055</v>
+        <v>4522.320430646498</v>
       </c>
       <c r="E62" t="n">
-        <v>4530.130525331811</v>
+        <v>4530.131001338461</v>
       </c>
       <c r="F62" t="n">
         <v>328337</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>4719</v>
+        <v>4719.00048828125</v>
       </c>
       <c r="C64" t="n">
-        <v>4733.205283088859</v>
+        <v>4733.205772839948</v>
       </c>
       <c r="D64" t="n">
-        <v>4599.25382077575</v>
+        <v>4599.254296666702</v>
       </c>
       <c r="E64" t="n">
-        <v>4626.7862699171</v>
+        <v>4626.786748656871</v>
       </c>
       <c r="F64" t="n">
         <v>430407</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>4683.8037109375</v>
+        <v>4683.80322265625</v>
       </c>
       <c r="C66" t="n">
-        <v>4694.640972715221</v>
+        <v>4694.640483304199</v>
       </c>
       <c r="D66" t="n">
-        <v>4641.431461846348</v>
+        <v>4641.430977982356</v>
       </c>
       <c r="E66" t="n">
-        <v>4670.721100856736</v>
+        <v>4670.720613939334</v>
       </c>
       <c r="F66" t="n">
         <v>220328</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>4713.38623046875</v>
+        <v>4713.3857421875</v>
       </c>
       <c r="C68" t="n">
-        <v>4722.465827292653</v>
+        <v>4722.465338070805</v>
       </c>
       <c r="D68" t="n">
-        <v>4637.52587960308</v>
+        <v>4637.525399180551</v>
       </c>
       <c r="E68" t="n">
-        <v>4661.88528517421</v>
+        <v>4661.884802228179</v>
       </c>
       <c r="F68" t="n">
         <v>327375</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>4536.37890625</v>
+        <v>4536.37939453125</v>
       </c>
       <c r="C69" t="n">
-        <v>4676.578731412415</v>
+        <v>4676.579234784323</v>
       </c>
       <c r="D69" t="n">
-        <v>4506.259300704862</v>
+        <v>4506.259785744133</v>
       </c>
       <c r="E69" t="n">
-        <v>4676.578731412415</v>
+        <v>4676.579234784323</v>
       </c>
       <c r="F69" t="n">
         <v>912484</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>4230.00927734375</v>
+        <v>4230.009765625</v>
       </c>
       <c r="C70" t="n">
-        <v>4383.682137095388</v>
+        <v>4383.682643115506</v>
       </c>
       <c r="D70" t="n">
-        <v>4082.779756061821</v>
+        <v>4082.780227347975</v>
       </c>
       <c r="E70" t="n">
-        <v>4375.871567586087</v>
+        <v>4375.87207270461</v>
       </c>
       <c r="F70" t="n">
         <v>1763639</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>4054.515869140625</v>
+        <v>4054.515625</v>
       </c>
       <c r="C73" t="n">
-        <v>4141.506189377113</v>
+        <v>4141.505939998409</v>
       </c>
       <c r="D73" t="n">
-        <v>4038.162487917827</v>
+        <v>4038.162244761913</v>
       </c>
       <c r="E73" t="n">
-        <v>4094.691393935147</v>
+        <v>4094.691147375373</v>
       </c>
       <c r="F73" t="n">
         <v>548732</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>4061.642578125</v>
+        <v>4061.642822265625</v>
       </c>
       <c r="C77" t="n">
-        <v>4117.195159516436</v>
+        <v>4117.195406996263</v>
       </c>
       <c r="D77" t="n">
-        <v>4054.710602204319</v>
+        <v>4054.710845928271</v>
       </c>
       <c r="E77" t="n">
-        <v>4081.022649447705</v>
+        <v>4081.022894753243</v>
       </c>
       <c r="F77" t="n">
         <v>496132</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>4314.80322265625</v>
+        <v>4314.802734375</v>
       </c>
       <c r="C79" t="n">
-        <v>4338.234933110548</v>
+        <v>4338.234442177666</v>
       </c>
       <c r="D79" t="n">
-        <v>4182.999851350828</v>
+        <v>4182.999377985</v>
       </c>
       <c r="E79" t="n">
-        <v>4232.352700807444</v>
+        <v>4232.35222185664</v>
       </c>
       <c r="F79" t="n">
         <v>1138300</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>4440.55322265625</v>
+        <v>4440.552734375</v>
       </c>
       <c r="C80" t="n">
-        <v>4505.722667522365</v>
+        <v>4505.722172075111</v>
       </c>
       <c r="D80" t="n">
-        <v>4319.293930060316</v>
+        <v>4319.293455112684</v>
       </c>
       <c r="E80" t="n">
-        <v>4326.03092820849</v>
+        <v>4326.03045252006</v>
       </c>
       <c r="F80" t="n">
         <v>757405</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>4391.4921875</v>
+        <v>4391.49267578125</v>
       </c>
       <c r="C81" t="n">
-        <v>4436.40295686972</v>
+        <v>4436.403450144508</v>
       </c>
       <c r="D81" t="n">
-        <v>4352.878879740483</v>
+        <v>4352.879363728396</v>
       </c>
       <c r="E81" t="n">
-        <v>4430.789110698505</v>
+        <v>4430.789603349102</v>
       </c>
       <c r="F81" t="n">
         <v>404872</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>4394.470703125</v>
+        <v>4394.47021484375</v>
       </c>
       <c r="C82" t="n">
-        <v>4415.852520515318</v>
+        <v>4415.852029858278</v>
       </c>
       <c r="D82" t="n">
-        <v>4360.299458352459</v>
+        <v>4360.298973868066</v>
       </c>
       <c r="E82" t="n">
-        <v>4374.700197220887</v>
+        <v>4374.69971113639</v>
       </c>
       <c r="F82" t="n">
         <v>331451</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>4410.82373046875</v>
+        <v>4410.8232421875</v>
       </c>
       <c r="C84" t="n">
-        <v>4427.616645810938</v>
+        <v>4427.616155670701</v>
       </c>
       <c r="D84" t="n">
-        <v>4383.682191773123</v>
+        <v>4383.68170649646</v>
       </c>
       <c r="E84" t="n">
-        <v>4412.971827798333</v>
+        <v>4412.971339279287</v>
       </c>
       <c r="F84" t="n">
         <v>172189</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>4547.89990234375</v>
+        <v>4547.8994140625</v>
       </c>
       <c r="C87" t="n">
-        <v>4574.99281741791</v>
+        <v>4574.992326227853</v>
       </c>
       <c r="D87" t="n">
-        <v>4519.342505373689</v>
+        <v>4519.342020158479</v>
       </c>
       <c r="E87" t="n">
-        <v>4554.538696250753</v>
+        <v>4554.538207256734</v>
       </c>
       <c r="F87" t="n">
         <v>272084</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>4689.27099609375</v>
+        <v>4689.271484375</v>
       </c>
       <c r="C93" t="n">
-        <v>4728.567926677297</v>
+        <v>4728.568419050431</v>
       </c>
       <c r="D93" t="n">
-        <v>4618.1458971968</v>
+        <v>4618.146378071983</v>
       </c>
       <c r="E93" t="n">
-        <v>4639.136804216582</v>
+        <v>4639.137287277493</v>
       </c>
       <c r="F93" t="n">
         <v>527489</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>4794.27392578125</v>
+        <v>4794.2744140625</v>
       </c>
       <c r="C97" t="n">
-        <v>4807.649717042369</v>
+        <v>4807.6502066859</v>
       </c>
       <c r="D97" t="n">
-        <v>4678.091701822669</v>
+        <v>4678.092178271137</v>
       </c>
       <c r="E97" t="n">
-        <v>4735.157867219473</v>
+        <v>4735.158349479944</v>
       </c>
       <c r="F97" t="n">
         <v>289085</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>4882.6796875</v>
+        <v>4882.68017578125</v>
       </c>
       <c r="C98" t="n">
-        <v>4900.155740343457</v>
+        <v>4900.15623037236</v>
       </c>
       <c r="D98" t="n">
-        <v>4808.381554331844</v>
+        <v>4808.382035183079</v>
       </c>
       <c r="E98" t="n">
-        <v>4808.381554331844</v>
+        <v>4808.382035183079</v>
       </c>
       <c r="F98" t="n">
         <v>443908</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>4870.7685546875</v>
+        <v>4870.76904296875</v>
       </c>
       <c r="C99" t="n">
-        <v>4935.010773243708</v>
+        <v>4935.011267965066</v>
       </c>
       <c r="D99" t="n">
-        <v>4858.369561949142</v>
+        <v>4858.370048987427</v>
       </c>
       <c r="E99" t="n">
-        <v>4923.58762494902</v>
+        <v>4923.588118525238</v>
       </c>
       <c r="F99" t="n">
         <v>303516</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>4873.06396484375</v>
+        <v>4873.0634765625</v>
       </c>
       <c r="C100" t="n">
-        <v>4901.279556669211</v>
+        <v>4901.279065560757</v>
       </c>
       <c r="D100" t="n">
-        <v>4852.658943861014</v>
+        <v>4852.658457624348</v>
       </c>
       <c r="E100" t="n">
-        <v>4880.630455347639</v>
+        <v>4880.629966308227</v>
       </c>
       <c r="F100" t="n">
         <v>306273</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>4880.04345703125</v>
+        <v>4880.0439453125</v>
       </c>
       <c r="C101" t="n">
-        <v>4908.698577635636</v>
+        <v>4908.699068784024</v>
       </c>
       <c r="D101" t="n">
-        <v>4834.205465857324</v>
+        <v>4834.205949552173</v>
       </c>
       <c r="E101" t="n">
-        <v>4870.914759091617</v>
+        <v>4870.915246459479</v>
       </c>
       <c r="F101" t="n">
         <v>512681</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>4851.6328125</v>
+        <v>4851.63330078125</v>
       </c>
       <c r="C102" t="n">
-        <v>4920.658912938682</v>
+        <v>4920.659408166904</v>
       </c>
       <c r="D102" t="n">
-        <v>4840.161038248605</v>
+        <v>4840.161525375305</v>
       </c>
       <c r="E102" t="n">
-        <v>4899.912087164884</v>
+        <v>4899.912580305088</v>
       </c>
       <c r="F102" t="n">
         <v>320472</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>4769.18310546875</v>
+        <v>4769.1826171875</v>
       </c>
       <c r="C105" t="n">
-        <v>4799.058632015184</v>
+        <v>4799.058140675201</v>
       </c>
       <c r="D105" t="n">
-        <v>4686.342149421046</v>
+        <v>4686.341669621267</v>
       </c>
       <c r="E105" t="n">
-        <v>4774.211064722691</v>
+        <v>4774.210575926666</v>
       </c>
       <c r="F105" t="n">
         <v>920055</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>4708.845703125</v>
+        <v>4708.84619140625</v>
       </c>
       <c r="C108" t="n">
-        <v>4721.73333346157</v>
+        <v>4721.733823079196</v>
       </c>
       <c r="D108" t="n">
-        <v>4663.007709496526</v>
+        <v>4663.00819302463</v>
       </c>
       <c r="E108" t="n">
-        <v>4698.057544712758</v>
+        <v>4698.058031875335</v>
       </c>
       <c r="F108" t="n">
         <v>274316</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>4783.33935546875</v>
+        <v>4783.33984375</v>
       </c>
       <c r="C109" t="n">
-        <v>4821.074074417356</v>
+        <v>4821.07456655055</v>
       </c>
       <c r="D109" t="n">
-        <v>4677.408505514461</v>
+        <v>4677.408982982334</v>
       </c>
       <c r="E109" t="n">
-        <v>4708.845762049939</v>
+        <v>4708.846242726914</v>
       </c>
       <c r="F109" t="n">
         <v>337136</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>4827.85986328125</v>
+        <v>4827.8603515625</v>
       </c>
       <c r="C110" t="n">
-        <v>4849.241202902303</v>
+        <v>4849.241693346024</v>
       </c>
       <c r="D110" t="n">
-        <v>4785.926675710247</v>
+        <v>4785.927159750448</v>
       </c>
       <c r="E110" t="n">
-        <v>4813.361397652946</v>
+        <v>4813.361884467847</v>
       </c>
       <c r="F110" t="n">
         <v>263147</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>4853.439453125</v>
+        <v>4853.43896484375</v>
       </c>
       <c r="C112" t="n">
-        <v>4901.132843167829</v>
+        <v>4901.132350088376</v>
       </c>
       <c r="D112" t="n">
-        <v>4765.472810137814</v>
+        <v>4765.472330706465</v>
       </c>
       <c r="E112" t="n">
-        <v>4787.24506079148</v>
+        <v>4787.24457916973</v>
       </c>
       <c r="F112" t="n">
         <v>452221</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>4930.3740234375</v>
+        <v>4930.37353515625</v>
       </c>
       <c r="C114" t="n">
-        <v>5022.196852575705</v>
+        <v>5022.196355200749</v>
       </c>
       <c r="D114" t="n">
-        <v>4888.440832201896</v>
+        <v>4888.440348073514</v>
       </c>
       <c r="E114" t="n">
-        <v>4892.346117468284</v>
+        <v>4892.345632953141</v>
       </c>
       <c r="F114" t="n">
         <v>770658</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>4907.03955078125</v>
+        <v>4907.0390625</v>
       </c>
       <c r="C117" t="n">
-        <v>4918.316347992433</v>
+        <v>4918.315858589071</v>
       </c>
       <c r="D117" t="n">
-        <v>4853.293253119732</v>
+        <v>4853.292770186576</v>
       </c>
       <c r="E117" t="n">
-        <v>4905.819149138441</v>
+        <v>4905.818660978629</v>
       </c>
       <c r="F117" t="n">
         <v>248629</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>4839.2822265625</v>
+        <v>4839.28271484375</v>
       </c>
       <c r="C118" t="n">
-        <v>4892.247649976181</v>
+        <v>4892.248143601617</v>
       </c>
       <c r="D118" t="n">
-        <v>4794.566907713886</v>
+        <v>4794.567391483381</v>
       </c>
       <c r="E118" t="n">
-        <v>4881.557219208145</v>
+        <v>4881.557711754922</v>
       </c>
       <c r="F118" t="n">
         <v>263039</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>5040.79541015625</v>
+        <v>5040.794921875</v>
       </c>
       <c r="C120" t="n">
-        <v>5071.403177726127</v>
+        <v>5071.402686480028</v>
       </c>
       <c r="D120" t="n">
-        <v>4861.543203949807</v>
+        <v>4861.542733031985</v>
       </c>
       <c r="E120" t="n">
-        <v>4896.251234877188</v>
+        <v>4896.250760597341</v>
       </c>
       <c r="F120" t="n">
         <v>771183</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>4968.4013671875</v>
+        <v>4968.40087890625</v>
       </c>
       <c r="C121" t="n">
-        <v>5086.633971936661</v>
+        <v>5086.633472035825</v>
       </c>
       <c r="D121" t="n">
-        <v>4943.163366243899</v>
+        <v>4943.162880442973</v>
       </c>
       <c r="E121" t="n">
-        <v>5085.657650636865</v>
+        <v>5085.65715083198</v>
       </c>
       <c r="F121" t="n">
         <v>700215</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>5074.13623046875</v>
+        <v>5074.13671875</v>
       </c>
       <c r="C122" t="n">
-        <v>5106.159371980068</v>
+        <v>5106.159863342887</v>
       </c>
       <c r="D122" t="n">
-        <v>4992.906123959096</v>
+        <v>4992.906604423618</v>
       </c>
       <c r="E122" t="n">
-        <v>5003.645656099015</v>
+        <v>5003.646137596998</v>
       </c>
       <c r="F122" t="n">
         <v>581634</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>5087.951171875</v>
+        <v>5087.95166015625</v>
       </c>
       <c r="C123" t="n">
-        <v>5106.159465447123</v>
+        <v>5106.159955475789</v>
       </c>
       <c r="D123" t="n">
-        <v>5015.361601147585</v>
+        <v>5015.362082462549</v>
       </c>
       <c r="E123" t="n">
-        <v>5102.254180961121</v>
+        <v>5102.254670615004</v>
       </c>
       <c r="F123" t="n">
         <v>364676</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>5055.58740234375</v>
+        <v>5055.58642578125</v>
       </c>
       <c r="C126" t="n">
-        <v>5140.33190478714</v>
+        <v>5140.330911854969</v>
       </c>
       <c r="D126" t="n">
-        <v>5047.581376590601</v>
+        <v>5047.580401574585</v>
       </c>
       <c r="E126" t="n">
-        <v>5130.568691292768</v>
+        <v>5130.567700246507</v>
       </c>
       <c r="F126" t="n">
         <v>415786</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>4917.87158203125</v>
+        <v>4917.87109375</v>
       </c>
       <c r="C128" t="n">
-        <v>5017.5033158476</v>
+        <v>5017.502817674203</v>
       </c>
       <c r="D128" t="n">
-        <v>4882.741978509604</v>
+        <v>4882.74149371627</v>
       </c>
       <c r="E128" t="n">
-        <v>5017.5033158476</v>
+        <v>5017.502817674203</v>
       </c>
       <c r="F128" t="n">
         <v>560058</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>4739.22314453125</v>
+        <v>4739.2236328125</v>
       </c>
       <c r="C130" t="n">
-        <v>4908.523087083612</v>
+        <v>4908.523592807803</v>
       </c>
       <c r="D130" t="n">
-        <v>4699.862462231176</v>
+        <v>4699.862946457102</v>
       </c>
       <c r="E130" t="n">
-        <v>4881.708622266687</v>
+        <v>4881.709125228188</v>
       </c>
       <c r="F130" t="n">
         <v>5055302</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>4815.0908203125</v>
+        <v>4815.09033203125</v>
       </c>
       <c r="C131" t="n">
-        <v>4864.882183085353</v>
+        <v>4864.881689754938</v>
       </c>
       <c r="D131" t="n">
-        <v>4718.903146049282</v>
+        <v>4718.902667522083</v>
       </c>
       <c r="E131" t="n">
-        <v>4728.202300099846</v>
+        <v>4728.201820629652</v>
       </c>
       <c r="F131" t="n">
         <v>837160</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>5052.77978515625</v>
+        <v>5052.7802734375</v>
       </c>
       <c r="C133" t="n">
-        <v>5211.354028504476</v>
+        <v>5211.354532109733</v>
       </c>
       <c r="D133" t="n">
-        <v>4998.806356647043</v>
+        <v>4998.806839712508</v>
       </c>
       <c r="E133" t="n">
-        <v>5043.087121617341</v>
+        <v>5043.08760896193</v>
       </c>
       <c r="F133" t="n">
         <v>1526990</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>4910.73681640625</v>
+        <v>4910.7373046875</v>
       </c>
       <c r="C135" t="n">
-        <v>4958.461640691533</v>
+        <v>4958.462133718127</v>
       </c>
       <c r="D135" t="n">
-        <v>4870.88412808555</v>
+        <v>4870.884612404193</v>
       </c>
       <c r="E135" t="n">
-        <v>4949.605487731377</v>
+        <v>4949.605979877392</v>
       </c>
       <c r="F135" t="n">
         <v>526765</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>4844.06982421875</v>
+        <v>4844.0703125</v>
       </c>
       <c r="C137" t="n">
-        <v>4939.765480184476</v>
+        <v>4939.765978111827</v>
       </c>
       <c r="D137" t="n">
-        <v>4777.402670576818</v>
+        <v>4777.403152138032</v>
       </c>
       <c r="E137" t="n">
-        <v>4816.763351693826</v>
+        <v>4816.763837222589</v>
       </c>
       <c r="F137" t="n">
         <v>859135</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>4790.8349609375</v>
+        <v>4790.83447265625</v>
       </c>
       <c r="C139" t="n">
-        <v>4820.699977284113</v>
+        <v>4820.699485959024</v>
       </c>
       <c r="D139" t="n">
-        <v>4774.943180194153</v>
+        <v>4774.942693532591</v>
       </c>
       <c r="E139" t="n">
-        <v>4811.843823008637</v>
+        <v>4811.843332586166</v>
       </c>
       <c r="F139" t="n">
         <v>283808</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>4782.86376953125</v>
+        <v>4782.8642578125</v>
       </c>
       <c r="C140" t="n">
-        <v>4858.58407196773</v>
+        <v>4858.584567979245</v>
       </c>
       <c r="D140" t="n">
-        <v>4777.402667220927</v>
+        <v>4777.403154944654</v>
       </c>
       <c r="E140" t="n">
-        <v>4810.859246146882</v>
+        <v>4810.859737286182</v>
       </c>
       <c r="F140" t="n">
         <v>384319</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>4766.62744140625</v>
+        <v>4766.6279296875</v>
       </c>
       <c r="C142" t="n">
-        <v>4815.287275112206</v>
+        <v>4815.287768378046</v>
       </c>
       <c r="D142" t="n">
-        <v>4736.172403001013</v>
+        <v>4736.172888162526</v>
       </c>
       <c r="E142" t="n">
-        <v>4792.162875201071</v>
+        <v>4792.163366098106</v>
       </c>
       <c r="F142" t="n">
         <v>217121</v>
@@ -3281,16 +3281,16 @@
         <v>45138</v>
       </c>
       <c r="B143" t="n">
-        <v>4813.46728515625</v>
+        <v>4813.466796875</v>
       </c>
       <c r="C143" t="n">
-        <v>4825.619992775076</v>
+        <v>4825.619503261048</v>
       </c>
       <c r="D143" t="n">
-        <v>4724.266228652761</v>
+        <v>4724.265749420125</v>
       </c>
       <c r="E143" t="n">
-        <v>4763.036407376942</v>
+        <v>4763.035924211434</v>
       </c>
       <c r="F143" t="n">
         <v>343283</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>5001.31640625</v>
+        <v>5001.31591796875</v>
       </c>
       <c r="C149" t="n">
-        <v>5014.551629724177</v>
+        <v>5014.551140150765</v>
       </c>
       <c r="D149" t="n">
-        <v>4941.242348638139</v>
+        <v>4941.241866221952</v>
       </c>
       <c r="E149" t="n">
-        <v>4977.158976284319</v>
+        <v>4977.158490361571</v>
       </c>
       <c r="F149" t="n">
         <v>340699</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>5024.93212890625</v>
+        <v>5024.9326171875</v>
       </c>
       <c r="C151" t="n">
-        <v>5062.669279277855</v>
+        <v>5062.669771226088</v>
       </c>
       <c r="D151" t="n">
-        <v>4990.491531783261</v>
+        <v>4990.49201671786</v>
       </c>
       <c r="E151" t="n">
-        <v>5003.726753439928</v>
+        <v>5003.727239660615</v>
       </c>
       <c r="F151" t="n">
         <v>255038</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>5110.29541015625</v>
+        <v>5110.2958984375</v>
       </c>
       <c r="C153" t="n">
-        <v>5120.775575826289</v>
+        <v>5120.776065108904</v>
       </c>
       <c r="D153" t="n">
-        <v>4984.046218375202</v>
+        <v>4984.046694593526</v>
       </c>
       <c r="E153" t="n">
-        <v>5008.646643934802</v>
+        <v>5008.647122503662</v>
       </c>
       <c r="F153" t="n">
         <v>396400</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>5003.8740234375</v>
+        <v>5003.87451171875</v>
       </c>
       <c r="C156" t="n">
-        <v>5032.263010391298</v>
+        <v>5032.263501442764</v>
       </c>
       <c r="D156" t="n">
-        <v>4931.499764237185</v>
+        <v>4931.500245456108</v>
       </c>
       <c r="E156" t="n">
-        <v>5018.48677219312</v>
+        <v>5018.487261900293</v>
       </c>
       <c r="F156" t="n">
         <v>338124</v>
@@ -3561,16 +3561,16 @@
         <v>45159</v>
       </c>
       <c r="B157" t="n">
-        <v>5065.27685546875</v>
+        <v>5065.27734375</v>
       </c>
       <c r="C157" t="n">
-        <v>5069.803430067383</v>
+        <v>5069.803918784985</v>
       </c>
       <c r="D157" t="n">
-        <v>4975.190285274908</v>
+        <v>4975.190764872016</v>
       </c>
       <c r="E157" t="n">
-        <v>5004.71079725241</v>
+        <v>5004.711279695228</v>
       </c>
       <c r="F157" t="n">
         <v>202004</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>5057.7490234375</v>
+        <v>5057.74951171875</v>
       </c>
       <c r="C158" t="n">
-        <v>5087.368032059993</v>
+        <v>5087.368523200698</v>
       </c>
       <c r="D158" t="n">
-        <v>5027.342993383851</v>
+        <v>5027.343478729666</v>
       </c>
       <c r="E158" t="n">
-        <v>5087.368032059993</v>
+        <v>5087.368523200698</v>
       </c>
       <c r="F158" t="n">
         <v>175355</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>5091.796875</v>
+        <v>5091.79638671875</v>
       </c>
       <c r="C159" t="n">
-        <v>5162.055605240451</v>
+        <v>5162.055110221692</v>
       </c>
       <c r="D159" t="n">
-        <v>5072.65754874426</v>
+        <v>5072.657062298388</v>
       </c>
       <c r="E159" t="n">
-        <v>5072.65754874426</v>
+        <v>5072.657062298388</v>
       </c>
       <c r="F159" t="n">
         <v>359052</v>
@@ -3621,16 +3621,16 @@
         <v>45162</v>
       </c>
       <c r="B160" t="n">
-        <v>5087.515625</v>
+        <v>5087.51611328125</v>
       </c>
       <c r="C160" t="n">
-        <v>5146.310643391236</v>
+        <v>5146.311137315418</v>
       </c>
       <c r="D160" t="n">
-        <v>5038.413270589595</v>
+        <v>5038.413754158179</v>
       </c>
       <c r="E160" t="n">
-        <v>5135.584953704819</v>
+        <v>5135.585446599588</v>
       </c>
       <c r="F160" t="n">
         <v>296417</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>5045.44921875</v>
+        <v>5045.44873046875</v>
       </c>
       <c r="C161" t="n">
-        <v>5106.950287942542</v>
+        <v>5106.94979370943</v>
       </c>
       <c r="D161" t="n">
-        <v>5022.570821010375</v>
+        <v>5022.570334943218</v>
       </c>
       <c r="E161" t="n">
-        <v>5048.991776430911</v>
+        <v>5048.991287806824</v>
       </c>
       <c r="F161" t="n">
         <v>206278</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>5047.95849609375</v>
+        <v>5047.9580078125</v>
       </c>
       <c r="C162" t="n">
-        <v>5074.428458843935</v>
+        <v>5074.427968002286</v>
       </c>
       <c r="D162" t="n">
-        <v>5014.058916273516</v>
+        <v>5014.05843127132</v>
       </c>
       <c r="E162" t="n">
-        <v>5067.687845904937</v>
+        <v>5067.687355715297</v>
       </c>
       <c r="F162" t="n">
         <v>165824</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>5279.9404296875</v>
+        <v>5279.94091796875</v>
       </c>
       <c r="C167" t="n">
-        <v>5294.011681184578</v>
+        <v>5294.012170767118</v>
       </c>
       <c r="D167" t="n">
-        <v>5188.574351324802</v>
+        <v>5188.574831156649</v>
       </c>
       <c r="E167" t="n">
-        <v>5230.099582173501</v>
+        <v>5230.100065845542</v>
       </c>
       <c r="F167" t="n">
         <v>397768</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>5398.2197265625</v>
+        <v>5398.21923828125</v>
       </c>
       <c r="C170" t="n">
-        <v>5410.07742181264</v>
+        <v>5410.076932458835</v>
       </c>
       <c r="D170" t="n">
-        <v>5267.443940044092</v>
+        <v>5267.44346359181</v>
       </c>
       <c r="E170" t="n">
-        <v>5313.692747289015</v>
+        <v>5313.692266653423</v>
       </c>
       <c r="F170" t="n">
         <v>602474</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>5390.93798828125</v>
+        <v>5390.9375</v>
       </c>
       <c r="C171" t="n">
-        <v>5413.078374287698</v>
+        <v>5413.077884001095</v>
       </c>
       <c r="D171" t="n">
-        <v>5362.893499339748</v>
+        <v>5362.893013598613</v>
       </c>
       <c r="E171" t="n">
-        <v>5412.094357131856</v>
+        <v>5412.09386693438</v>
       </c>
       <c r="F171" t="n">
         <v>244392</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>5450.5693359375</v>
+        <v>5450.56884765625</v>
       </c>
       <c r="C174" t="n">
-        <v>5461.295026470642</v>
+        <v>5461.294537228547</v>
       </c>
       <c r="D174" t="n">
-        <v>5370.12593622327</v>
+        <v>5370.125455148424</v>
       </c>
       <c r="E174" t="n">
-        <v>5410.126136132539</v>
+        <v>5410.125651474334</v>
       </c>
       <c r="F174" t="n">
         <v>247607</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>5425.62451171875</v>
+        <v>5425.6240234375</v>
       </c>
       <c r="C177" t="n">
-        <v>5435.317176653971</v>
+        <v>5435.316687500425</v>
       </c>
       <c r="D177" t="n">
-        <v>5383.656276746425</v>
+        <v>5383.655792242123</v>
       </c>
       <c r="E177" t="n">
-        <v>5431.774618850601</v>
+        <v>5431.77413001587</v>
       </c>
       <c r="F177" t="n">
         <v>184125</v>
@@ -4021,16 +4021,16 @@
         <v>45191</v>
       </c>
       <c r="B180" t="n">
-        <v>5340.75244140625</v>
+        <v>5340.7529296875</v>
       </c>
       <c r="C180" t="n">
-        <v>5365.352867207293</v>
+        <v>5365.353357737649</v>
       </c>
       <c r="D180" t="n">
-        <v>5264.49112142302</v>
+        <v>5264.491602732036</v>
       </c>
       <c r="E180" t="n">
-        <v>5299.91573457652</v>
+        <v>5299.916219124251</v>
       </c>
       <c r="F180" t="n">
         <v>180055</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>5350.001953125</v>
+        <v>5350.00244140625</v>
       </c>
       <c r="C183" t="n">
-        <v>5357.972586953068</v>
+        <v>5357.973075961778</v>
       </c>
       <c r="D183" t="n">
-        <v>5290.173911470688</v>
+        <v>5290.174394291584</v>
       </c>
       <c r="E183" t="n">
-        <v>5313.691821771637</v>
+        <v>5313.692306738953</v>
       </c>
       <c r="F183" t="n">
         <v>320128</v>
@@ -4141,16 +4141,16 @@
         <v>45202</v>
       </c>
       <c r="B186" t="n">
-        <v>5129.43505859375</v>
+        <v>5129.4345703125</v>
       </c>
       <c r="C186" t="n">
-        <v>5165.942188533843</v>
+        <v>5165.941696777406</v>
       </c>
       <c r="D186" t="n">
-        <v>5055.486270769295</v>
+        <v>5055.485789527379</v>
       </c>
       <c r="E186" t="n">
-        <v>5111.968755339222</v>
+        <v>5111.968268720625</v>
       </c>
       <c r="F186" t="n">
         <v>255939</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>5103.31005859375</v>
+        <v>5103.3095703125</v>
       </c>
       <c r="C187" t="n">
-        <v>5115.90528622665</v>
+        <v>5115.904796740298</v>
       </c>
       <c r="D187" t="n">
-        <v>5044.711547611797</v>
+        <v>5044.711064937213</v>
       </c>
       <c r="E187" t="n">
-        <v>5098.192977099495</v>
+        <v>5098.192489307844</v>
       </c>
       <c r="F187" t="n">
         <v>199894</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>5142.71875</v>
+        <v>5142.71923828125</v>
       </c>
       <c r="C188" t="n">
-        <v>5171.009238220521</v>
+        <v>5171.009729187844</v>
       </c>
       <c r="D188" t="n">
-        <v>5112.312721364483</v>
+        <v>5112.313206758799</v>
       </c>
       <c r="E188" t="n">
-        <v>5134.305596998279</v>
+        <v>5134.306084480733</v>
       </c>
       <c r="F188" t="n">
         <v>283699</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>5155.462890625</v>
+        <v>5155.46240234375</v>
       </c>
       <c r="C189" t="n">
-        <v>5180.801332464342</v>
+        <v>5180.800841783252</v>
       </c>
       <c r="D189" t="n">
-        <v>5133.371513218878</v>
+        <v>5133.371027029933</v>
       </c>
       <c r="E189" t="n">
-        <v>5166.09008374929</v>
+        <v>5166.089594461523</v>
       </c>
       <c r="F189" t="n">
         <v>139350</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>5123.23583984375</v>
+        <v>5123.236328125</v>
       </c>
       <c r="C190" t="n">
-        <v>5150.345317791464</v>
+        <v>5150.345808656442</v>
       </c>
       <c r="D190" t="n">
-        <v>5090.812285363801</v>
+        <v>5090.812770554854</v>
       </c>
       <c r="E190" t="n">
-        <v>5132.58400196049</v>
+        <v>5132.584491132688</v>
       </c>
       <c r="F190" t="n">
         <v>353035</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>5182.17822265625</v>
+        <v>5182.1787109375</v>
       </c>
       <c r="C191" t="n">
-        <v>5209.632201913034</v>
+        <v>5209.632692781085</v>
       </c>
       <c r="D191" t="n">
-        <v>5129.041302619738</v>
+        <v>5129.041785894259</v>
       </c>
       <c r="E191" t="n">
-        <v>5156.249277617094</v>
+        <v>5156.249763455236</v>
       </c>
       <c r="F191" t="n">
         <v>172958</v>
@@ -4281,16 +4281,16 @@
         <v>45211</v>
       </c>
       <c r="B193" t="n">
-        <v>5072.3623046875</v>
+        <v>5072.36181640625</v>
       </c>
       <c r="C193" t="n">
-        <v>5184.195755500799</v>
+        <v>5184.195256454116</v>
       </c>
       <c r="D193" t="n">
-        <v>5054.797502808349</v>
+        <v>5054.797016217941</v>
       </c>
       <c r="E193" t="n">
-        <v>5175.438099132627</v>
+        <v>5175.437600928983</v>
       </c>
       <c r="F193" t="n">
         <v>307844</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>5079.93896484375</v>
+        <v>5079.939453125</v>
       </c>
       <c r="C195" t="n">
-        <v>5109.016476210708</v>
+        <v>5109.016967286874</v>
       </c>
       <c r="D195" t="n">
-        <v>5017.502891409553</v>
+        <v>5017.503373689478</v>
       </c>
       <c r="E195" t="n">
-        <v>5036.642215045355</v>
+        <v>5036.642699164941</v>
       </c>
       <c r="F195" t="n">
         <v>244025</v>
@@ -4401,16 +4401,16 @@
         <v>45219</v>
       </c>
       <c r="B199" t="n">
-        <v>5329.6337890625</v>
+        <v>5329.63330078125</v>
       </c>
       <c r="C199" t="n">
-        <v>5424.886455366018</v>
+        <v>5424.885958358072</v>
       </c>
       <c r="D199" t="n">
-        <v>5303.901356647464</v>
+        <v>5303.900870723724</v>
       </c>
       <c r="E199" t="n">
-        <v>5373.717564439294</v>
+        <v>5373.717072119251</v>
       </c>
       <c r="F199" t="n">
         <v>548231</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>5118.61083984375</v>
+        <v>5118.611328125</v>
       </c>
       <c r="C200" t="n">
-        <v>5320.580345275178</v>
+        <v>5320.580852822968</v>
       </c>
       <c r="D200" t="n">
-        <v>5102.128553773219</v>
+        <v>5102.129040482169</v>
       </c>
       <c r="E200" t="n">
-        <v>5320.580345275178</v>
+        <v>5320.580852822968</v>
       </c>
       <c r="F200" t="n">
         <v>268286</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>5086.57666015625</v>
+        <v>5086.576171875</v>
       </c>
       <c r="C204" t="n">
-        <v>5114.828446845159</v>
+        <v>5114.827955851905</v>
       </c>
       <c r="D204" t="n">
-        <v>5021.230777252017</v>
+        <v>5021.230295243586</v>
       </c>
       <c r="E204" t="n">
-        <v>5108.111340012036</v>
+        <v>5108.110849663583</v>
       </c>
       <c r="F204" t="n">
         <v>276530</v>
@@ -4581,16 +4581,16 @@
         <v>45233</v>
       </c>
       <c r="B208" t="n">
-        <v>5072.5</v>
+        <v>5072.49951171875</v>
       </c>
       <c r="C208" t="n">
-        <v>5085.39109567952</v>
+        <v>5085.390606157367</v>
       </c>
       <c r="D208" t="n">
-        <v>4997.473495152038</v>
+        <v>4997.473014092875</v>
       </c>
       <c r="E208" t="n">
-        <v>5016.242421107343</v>
+        <v>5016.241938241475</v>
       </c>
       <c r="F208" t="n">
         <v>324952</v>
@@ -4661,16 +4661,16 @@
         <v>45239</v>
       </c>
       <c r="B212" t="n">
-        <v>5190.79296875</v>
+        <v>5190.79345703125</v>
       </c>
       <c r="C212" t="n">
-        <v>5200.967508069877</v>
+        <v>5200.967997308214</v>
       </c>
       <c r="D212" t="n">
-        <v>5145.154656368843</v>
+        <v>5145.155140357043</v>
       </c>
       <c r="E212" t="n">
-        <v>5169.751728172063</v>
+        <v>5169.752214474031</v>
       </c>
       <c r="F212" t="n">
         <v>269946</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>5198.15234375</v>
+        <v>5198.15283203125</v>
       </c>
       <c r="C213" t="n">
-        <v>5215.736151952372</v>
+        <v>5215.736641885333</v>
       </c>
       <c r="D213" t="n">
-        <v>5119.224173260487</v>
+        <v>5119.224654127728</v>
       </c>
       <c r="E213" t="n">
-        <v>5177.25966367084</v>
+        <v>5177.260149989565</v>
       </c>
       <c r="F213" t="n">
         <v>229733</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>5197.115234375</v>
+        <v>5197.11572265625</v>
       </c>
       <c r="C214" t="n">
-        <v>5205.857698213598</v>
+        <v>5205.858187316223</v>
       </c>
       <c r="D214" t="n">
-        <v>5152.958677433302</v>
+        <v>5152.959161565939</v>
       </c>
       <c r="E214" t="n">
-        <v>5195.040677852528</v>
+        <v>5195.041165938868</v>
       </c>
       <c r="F214" t="n">
         <v>140187</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>5451.38525390625</v>
+        <v>5451.384765625</v>
       </c>
       <c r="C217" t="n">
-        <v>5480.526481593164</v>
+        <v>5480.525990701731</v>
       </c>
       <c r="D217" t="n">
-        <v>5419.774430652648</v>
+        <v>5419.773945202784</v>
       </c>
       <c r="E217" t="n">
-        <v>5472.623775779763</v>
+        <v>5472.623285596176</v>
       </c>
       <c r="F217" t="n">
         <v>338819</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>5412.61181640625</v>
+        <v>5412.6123046875</v>
       </c>
       <c r="C223" t="n">
-        <v>5423.231075798752</v>
+        <v>5423.231565037984</v>
       </c>
       <c r="D223" t="n">
-        <v>5341.833314226183</v>
+        <v>5341.833796122379</v>
       </c>
       <c r="E223" t="n">
-        <v>5412.315657918469</v>
+        <v>5412.316146173001</v>
       </c>
       <c r="F223" t="n">
         <v>263892</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>5509.22216796875</v>
+        <v>5509.22265625</v>
       </c>
       <c r="C226" t="n">
-        <v>5541.771625623216</v>
+        <v>5541.772116789318</v>
       </c>
       <c r="D226" t="n">
-        <v>5455.43467394927</v>
+        <v>5455.435157463347</v>
       </c>
       <c r="E226" t="n">
-        <v>5531.893244828879</v>
+        <v>5531.893735119462</v>
       </c>
       <c r="F226" t="n">
         <v>195286</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>5639.271484375</v>
+        <v>5639.27197265625</v>
       </c>
       <c r="C231" t="n">
-        <v>5684.020356812151</v>
+        <v>5684.020848968021</v>
       </c>
       <c r="D231" t="n">
-        <v>5517.075719985377</v>
+        <v>5517.0761976862</v>
       </c>
       <c r="E231" t="n">
-        <v>5530.905453213631</v>
+        <v>5530.905932111913</v>
       </c>
       <c r="F231" t="n">
         <v>780096</v>
@@ -5121,16 +5121,16 @@
         <v>45274</v>
       </c>
       <c r="B235" t="n">
-        <v>5872.005859375</v>
+        <v>5872.00634765625</v>
       </c>
       <c r="C235" t="n">
-        <v>5892.454301102208</v>
+        <v>5892.45479108383</v>
       </c>
       <c r="D235" t="n">
-        <v>5721.410229551351</v>
+        <v>5721.410705309961</v>
       </c>
       <c r="E235" t="n">
-        <v>5739.388593671232</v>
+        <v>5739.389070924816</v>
       </c>
       <c r="F235" t="n">
         <v>958532</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>6036.72802734375</v>
+        <v>6036.728515625</v>
       </c>
       <c r="C240" t="n">
-        <v>6073.080760029468</v>
+        <v>6073.081251251112</v>
       </c>
       <c r="D240" t="n">
-        <v>5877.686087993684</v>
+        <v>5877.686563410814</v>
       </c>
       <c r="E240" t="n">
-        <v>5909.69242936449</v>
+        <v>5909.692907370455</v>
       </c>
       <c r="F240" t="n">
         <v>513420</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>6183.5703125</v>
+        <v>6183.57080078125</v>
       </c>
       <c r="C242" t="n">
-        <v>6211.772897158207</v>
+        <v>6211.773387666455</v>
       </c>
       <c r="D242" t="n">
-        <v>6130.622094171192</v>
+        <v>6130.622578271424</v>
       </c>
       <c r="E242" t="n">
-        <v>6164.109709103043</v>
+        <v>6164.110195847601</v>
       </c>
       <c r="F242" t="n">
         <v>271488</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>6210.73583984375</v>
+        <v>6210.736328125</v>
       </c>
       <c r="C243" t="n">
-        <v>6278.698907580242</v>
+        <v>6278.699401204673</v>
       </c>
       <c r="D243" t="n">
-        <v>6178.927260370424</v>
+        <v>6178.927746150918</v>
       </c>
       <c r="E243" t="n">
-        <v>6201.647536467709</v>
+        <v>6201.648024034446</v>
       </c>
       <c r="F243" t="n">
         <v>357171</v>
